--- a/files/описание_шин.xlsx
+++ b/files/описание_шин.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,24 +463,7 @@
 Дизайн боковины, созданный благодаря технологии «Premium Touch»позволяет придать надписям внешней боковины шины премиальный «эффект бархата».</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Описание не найдено для модели</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bridgestone Turanza ER 300</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Качественные радиальные летние шины. Комфорт за счет снижения уровня шума. Тип автомобиля, для которого предназначены покрышки: легковой. Изготавливаются на заводах Bridgestone с использованием электронного контроля качества готовой продукции.Читать полностью онного контроля качества готовой продукции.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/files/описание_шин.xlsx
+++ b/files/описание_шин.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,874 @@
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bridgestone Turanza ER 300</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Качественные радиальные летние шины. Комфорт за счет снижения уровня шума. Тип автомобиля, для которого предназначены покрышки: легковой. Изготавливаются на заводах Bridgestone с использованием электронного контроля качества готовой продукции.Читать полностью онного контроля качества готовой продукции.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Goodride SW606</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Описание Goodride SW606 Выпускаемая известным канадским производителем зимняя легковая шипованная шина Goodride SW606 предназначена для легковых автомобилей малого и среднего класса.Дизайн направленного V-образного рисунка протектора шины имеет яркий запоминающийся внешний вид. Благодаря выбранному типу рисунка, данная шина отличается прекрасным сцеплением и коротким тормозным путем на снегу и обледенелых дорогах. Рисунок протектора шины содержит одно цельное ребро, расположенное в центральной части протектора, две очень широкие плечевые зоны и два ребра, состоящих из отдельных блоков сложной геометрической формы.V-образная структура построения конструктивных элементов протектора позволяет максимально увеличить площадь пятна контакта без ущерба другим важным эксплуатационным характеристикам шины. Это обеспечивает хорошие показатели тяги и сцепления при движении по снегу шине Goodride SW-606. Две продольные канавки, отделяющие центральное ребро протектора, в сочетании с системой диагонально расположенных каналов обеспечивают эффективное удаление воды, снега и снежной шуги из пятна контакта, благодаря чему движение при неблагоприятных условиях внешней среды становится более уверенным.Яркой особенностью рисунка протектора данной шины являются усиленные плечевые зоны, оснащенные массивными блоками с установленными на них шипами и закругленным профилем. Такая конструкция плечевых зон эффективно проявляет себя при прохождении поворотов, а также при движении по занесенным снегом и покрытым льдом участкам. Весь протектор шиныGoodride SW606 испещрен зигзагообразными ламелями, которые без ущерба жесткости основным элементам протектора также обеспечивают хороший уровень сцепления и торможения на снегу и льду.Основные особенности шины Goodride SW606 - Цельное центральное ребро снижает сопротивление качения, уменьшает уровень шумов, обеспечивает высокий уровень комфорта;- V-образный направленный рисунок протектора шины обеспечивает короткий тормозной путь и прекрасное сцепление на снегу;- Жесткие усиленные плечевые зоны улучшают сцепление на снегу и обледенелых участках, а также при прохождении поворотов;- Множество зигзагообразных ламелей повышают надежность управления автомобилем при движении на скользких поверхностях.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bars UZ200</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Описание Bars UZ200 Летняя шина Bars UZ200 от узбекского производителя характеризуется надежностью при различных скоростных режимах, устойчивостью к нагрузкам, эффективной системой водоотведения и длительностью эксплуатации.Модель имеет асимметричный рисунок протектора, центральную часть которого занимает три ребра с разнонаправленными диагональными прорезями. Такое конструктивное решение обеспечивает устойчивость во время движения по прямой, а также поддерживание управляемость при различных скоростных режимах.Плечевая зона имеет увеличенную площадь, которая способствует удержанию автомобиля даже при резких маневрах. Кроме того, она оснащена многочисленными канавками, которые способствуют быстрому отводу водных масс их центральных каналов. Этим достигается оперативность отведения влаги из зоны пятна контакта. Ширина самого пятна способствует равномерности распределения давления и снижения абразивного износа.Основные особенности Bars UZ200 - жесткость ребер в центральной части положительно сказывается на управляемости;- обширная дренажная система быстро отводит всю влагу из контактной зоны;- специальная резиновая смесь хорошо противостоит повышенным температурам и износу;- отличная маневренность за счет расширенной плечевой зоне.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sailun TERRAMAX M/T</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Описание Sailun Terramax M/T Летняя шина Sailun Terramax M/T предназначена для внедорожников и кроссоверов. Рекомендуется производителем к применению на грунтовых поверхностях различного типа с пониженной несущей способностью. В таких условиях выгодно отличается стабильным и высоким тяговым усилием, курсовой устойчивостью, мягким ходом и надежностью.Особенностью протекторного рисунка является распределение блоков по группам, за счет чего в пятне контакта образуются непрерывные Z-образные поперечные кромки. Вкупе с большой высотой элементов это существенно повышает тяговое усилие на грунтовой поверхности. При этом значительное расстояние между блоками, особенно в плечевых зонах позволяет протектору не «замыливаться», улучшая проходимость на бездорожье. Еще одной немаловажной особенностью является профиль элементов по краям протектора. Он минимизирует риск механического повреждения шины, увеличивая срок ее службы в самых сложных условиях. Здесь стоит отметить использование 3-слойного полимерного корда в брекере. Помимо повышения надежности такое решение придает шине более мягкий ход на неровностях.Основные особенности Sailun Terramax M/T - удлиненные за счет расположения блоков Z-образные поперечные кромки повышают тягово-сцепные свойства на грунтовом покрытии;- оптимизированная форма блоков по краям протектора улучшает надежность и проходимость на особо сложных участках бездорожья;- 3-слойный синтетический брекер препятствует проколам и порезам, придает ходу шины на неровностях дополнительную мягкость.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Maxxis Premitra Snow WP06 SUV</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Зимняя шина для внедорожников и кроссоверов Maxxis Premitra Snow WP6 SUV рассчитана на эксплуатацию при температурах ниже 7 градусов по Цельсию. Такая рекомендация производителя делает эту модель пригодной для круглогодичного применения, по крайней мере, в северных регионах.Протекторный рисунок выделяется «классическим» для зимних шин V-образным дизайном, отличаясь малыми размерами образующих его блоков. Элементы располагаются группами, удлиняющими поперечные кромки, что повышает тягу на заснеженном покрытии. На льду эта способность усиливается многочисленными ламелями. V-образное расположение канавок и их направленность против движения позволяет сохранить устойчивость при неблагоприятных погодных условиях.
+Основные особенности Maxxis Premitra Snow WP6 SUV
+- V-образный протекторный рисунок эффективен на любом зимнем покрытии;
+- резиновая смесь эластичная при низких температурах, обеспечивая надежное сцепление в зимнее время, улучшая топливную экономичность;
+- усиленные боковины безболезненно переносят наезд на бордюр.Читать полностью Протекторный рисунок выделяется «классическим» для зимних шин V-образным дизайном, отличаясь малыми размерами образующих его блоков. Элементы располагаются группами, удлиняющими поперечные кромки, что повышает тягу на заснеженном покрытии. На льду эта способность усиливается многочисленными ламелями. V-образное расположение канавок и их направленность против движения позволяет сохранить устойчивость при неблагоприятных погодных условиях.
+Основные особенности Maxxis Premitra Snow WP6 SUV
+- V-образный протекторный рисунок эффективен на любом зимнем покрытии;
+- резиновая смесь эластичная при низких температурах, обеспечивая надежное сцепление в зимнее время, улучшая топливную экономичность;
+- усиленные боковины безболезненно переносят наезд на бордюр.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Описание Maxxis Premitra Snow WP6 SUVЗимняя шина для внедорожников и кроссоверов Maxxis Premitra Snow WP6 SUV рассчитана на эксплуатацию при температурах ниже 7 градусов по Цельсию. Такая рекомендация производителя делает эту модель пригодной для круглогодичного применения, по крайней мере, в северных регионах.Протекторный рисунок выделяется «классическим» для зимних шин V-образным дизайном, отличаясь малыми размерами образующих его блоков. Элементы располагаются группами, удлиняющими поперечные кромки, что повышает тягу на заснеженном покрытии. На льду эта способность усиливается многочисленными ламелями. V-образное расположение канавок и их направленность против движения позволяет сохранить устойчивость при неблагоприятных погодных условиях.Основные особенности Maxxis Premitra Snow WP6 SUV- V-образный протекторный рисунок эффективен на любом зимнем покрытии;- резиновая смесь эластичная при низких температурах, обеспечивая надежное сцепление в зимнее время, улучшая топливную экономичность;- усиленные боковины безболезненно переносят наезд на бордюр.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Michelin Latitude Sport 3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>К летнему сезону 2014 года компания Мишлен представляет новую дорожную шину со спортивным характером для широкой гаммы вседорожников – MICHELIN Latitude Sport 3. Это третье поколение дорожных шин гаммы Latitude для мощных кроссоверов от компании Мишлен.Еще до старта продаж новинка от Мишлен уже была признана многими ведущими автопроизводителями и получила омологацию на первичную комплектацию таких передовых вседорожников, как Porsche Macan, BMW X5, Volvo XC90.
+Это признание стало возможным за счет улучшения сразу нескольких наиболее важных для потребителей характеристик: сокращения тормозного пути на мокром покрытии на 2,7 метра по сравнению с шиной предыдущего поколения MICHELIN Latitude Sport, но и существенно улучшить ходимость шины, её прочность и управляемость.Читать полностью Еще до старта продаж новинка от Мишлен уже была признана многими ведущими автопроизводителями и получила омологацию на первичную комплектацию таких передовых вседорожников, как Porsche Macan, BMW X5, Volvo XC90.
+Это признание стало возможным за счет улучшения сразу нескольких наиболее важных для потребителей характеристик: сокращения тормозного пути на мокром покрытии на 2,7 метра по сравнению с шиной предыдущего поколения MICHELIN Latitude Sport, но и существенно улучшить ходимость шины, её прочность и управляемость.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Описание Michelin Latitude Sport 3 Летняя легковая шина Michelin Latitude Sport 3 является одной из новейших разработок французского шинного гиганта. На этот раз новинка предназначена для мощных спортивных кроссоверов, максимальная скорость которых намного превышает 200 км/ч. При этом данная модель не только обеспечивает высочайшую производительность, но и выгодно отличается сочетанием топливной экономичности и продолжительного срока службы. Для этого французским специалистам пришлось полностью пересмотреть конструкцию каркаса, протекторный рисунок и состав резиновой смеси, которые получили целый ряд нововведений.Увеличенное количество сцепных кромокПо вполне понятным причинам специалисты французской компании предпочли не отказываться от симметричного протекторного рисунка, который на предыдущей модели с цифрой 2 в названии продемонстрировал себя с наилучшей стороны. Он по-прежнему разделен на несколько функциональных зон: центральная часть, окруженная с двух сторон широкими плечевыми зонами.В наибольшей степени изменилась конструкция центральной частиMichelin Latitude Sport 3 . Три продольных ребра, составляющие ее, заметно увеличились в размерах, что привело к значительному улучшению целого ряда характеристик шины. Прежде всего, это курсовая устойчивость и оперативность управления.Кроме того, каждое из продольных ребер получило дополнительно множество поперечных граней, благодаря чему удалось улучшить сцепные свойства при разгоне и торможении, особенно на мокрой дороге. Эти кромки сцепления образуются благодаря специальным ламелям, которые, ко всему прочему, повышают жесткость продольных ребер, что способствует дополнительному снижению сопротивления качения.Модернизированная резиновая смесьНе менее значительным изменениям подверглась резиновая смесь. При этом нововведения имеются не только в ее составе, но и в технологии изготовления, которая обеспечивает более равномерное распределение всех компонентов, позволяя тем самым добиться однородности свойств протектора. Что касается состава, то в нем появились кремнийсодержащие компоненты нового поколения. Благодаря им, удалось значительно улучшить сцепные свойства на мокрой дороге, а также стойкость протектора к абразивному износу, что, в свою очередь, привело к значительному увеличению службы всей шины.Усиленная конструкция каркасаОсновным нововведением  в конструкции каркаса стал двойной брекерный слой. Этого оказалось достаточно, чтобы не только сделать шину прочнее, но и обеспечить ей повышенную стойкость к деформационным изменениям, возникающим во время движения. В результате  Latitude Sport 3 выгодно отличается от предыдущей модели, как по управляемости, так и по расходу топлива.Короткий тормозной путь на мокрой дорогеПомимо дополнительных кромок сцепления, расположенных в центральной части протекторного рисунка, для уменьшения тормозного пути на мокрой дороге определенные изменения появились в его плечевых зонах. Расположенные здесь блоки получили скошенные грани. Этой «мелочи» хватило для того, чтобы уменьшить тормозной путь при движении на скорости 100 км/ч на 2,7 метра. Кроме того, сглаженные грани блоков плечевых зон при прохождении поворотов заметно увеличивают пятно контакта, повышая тем самым сцепные свойства в поперечном направлении.Основные особенности Michelin Latitude Sport 3 - шина специально создана для мощных кроссоверов и компактных внедорожников;- симметричный протекторный рисунок предназначен для движения исключительно по асфальтированным дорогам;- повышенные по сравнению с предыдущей моделью сцепные свойства в продольном направлении, благодаря увеличенному количеству поперечных кромок в центральной части протектора;- три массивных и очень жестких продольных ребра в центральной части протекторного рисунка обеспечивают отличную курсовую устойчивость, стабильность и быстроту реакций шины на повороты руля при движении на высокой скорости;- широкие плечевые зоны со сглаженными краями блоков обеспечивают исключительное сцепление в поворотах и активном маневрировании на большой скорости, особенно на мокрой дороге;- высокая стойкость к аквапланированию за счет большого объема продольных и поперечных дренажных канавок;- новые компоненты в составе резиновой смеси повысили стойкость протектора к абразивному износу, сцепные свойства на мокрой дороге, а также показатели топливной экономичности.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Yokohama iceGuard iG60A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GT Radial SAVERO SUV</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/gt%20radial/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FB7C4E1BE0&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/gt%20radial/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FB7C47D810&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Continental VancoFourSeason 2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/continental/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FB1269A850&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/continental/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FB1269A5D0&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Matador MP 47 Hectorra 3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/matador/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FB12698690&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/matador/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FB12698B90&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nokian Tyres Hakkapeliitta R2 SUV</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/nokian%20tyres/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FB12698B90&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/nokian%20tyres/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x000001FB12698690&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rapid Freeze 4x4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Linglong GreenMax HP010</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Качественные радиальные летние шины. Тип автомобиля, для которого предназначены покрышки: легковой. Изготавливаются на заводах LingLong с использованием электронного контроля качества готовой продукции.Читать полностью и.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Описание LingLong GreenMax HP010 Как правило, у отечественных автовладельцев легковые шины китайских производителей прочно ассоциируются с продукцией ненадлежащего качества. Этот стереотип в полной мере относится не только к автомобильным шинам, но и к другим товарам из Поднебесной. Однако с недавних пор это утверждение мало соответствует действительности. Летняя легковая шина LingLong GreenMax HP010 относится к новому поколению китайских шин, эксплуатационные характеристики которых достигли нового уровня. Данная шина предназначена для использования на легковых автомобилях компактного класса и выпускается в 21 типоразмере, диаметр от 14 до 16 дюймов. Как видите, эта шина прекрасно подойдет для большинства городских легковых автомобилей. Также следует отметить и достаточно высокие скоростные индексы, присвоенные данной шине  H и V, что говорит о высоком уровне безопасности, предлагаемым этим китайским производителем.Дизайн симметричного ненаправленного рисунка протектора полностью соответствует всем современным тенденциям разработки шин. Рисунок протектораLingLong GreenMax HP010 скроен по модному на сегодняшний день пятиреберному дизайну. Как это водится, в центре протектора располагаются три продольных ребра, а по бокам протектора  плечевые зоны.Продольное ребро, расположенное в самом центре протектора было дополнительно усилено с целью обеспечения прекрасных показателей курсовой устойчивости и уменьшения сопротивления качения. Из других отличительных черт данной шины нельзя не отметить продуманную систему отвода воды из пятна контакта, состоящую из четырех продольных канавок и множества поперечных каналов изогнутой формы.Основные особенности шины LingLong GreenMax HP010 - превосходные тягово-сцепные показатели, не зависящие от типа покрытия, обеспечиваются оптимизированным симметричным рисунком протектора;- низкий риск возникновения аквапланирования за счет эффективной организации отвода воды из пятна контакта;- Низкий уровень шума обеспечивается размещением блоков центральных ребер с неравномерным шагом.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Белшина Astarta SUV Bel-345</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Новая легковая шина AstartA SUV, радиальная, бескамерная, с металлокордом в брекере, предназначена для эксплуатации на полноразмерных автомобилях класса SUV.Новый оригинальный дорожный рисунок протектора обеспечивает высокие тягово-сцепные свойства, управляемость движения, надежную скоростную выносливость, устойчивость шины к аквапланированию.Читать полностью тектора обеспечивает высокие тягово-сцепные свойства, управляемость движения, надежную скоростную выносливость, устойчивость шины к аквапланированию.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: 404 Client Error: Not Found for url: https://mosautoshina.ru/catalog/tyre/%D0%B1%D0%B5%D0%BB%D1%88%D0%B8%D0%BD%D0%B0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Roadstone Winguard Ice</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Шины Winguard Ice представляют собой зимние фрикционные покрышки, предназначенные производителем для легковых автомобилейИспользуя шины Winguard Ice, можно безопасно развивать скорость до 160 км/ч. Шины Winguard Ice отличаются комфортабельностью за счет низкого уровня шума. Благодаря симметричному рисунку протектора шины Winguard Ice с четырьмя параллельными канавками осуществляется эффективное самоочищение покрышки от налипшего и талого снега. Специально разработанный рисунок ламелей шины Winguard Ice в центральной зоне протектора обеспечивает максимальную курсовую устойчивость и предотвращает заносы. Прямоугольные симметричные блоки в плечевой зоне снижают риск потери управления на резких поворотах. Каучуковые и силиконовые компоненты в составе резины способствуют равномерному износу, и, как следствие, увеличивают экономичность шины Winguard Ice.Читать полностью 60 км/ч. Шины Winguard Ice отличаются комфортабельностью за счет низкого уровня шума. Благодаря симметричному рисунку протектора шины Winguard Ice с четырьмя параллельными канавками осуществляется эффективное самоочищение покрышки от налипшего и талого снега. Специально разработанный рисунок ламелей шины Winguard Ice в центральной зоне протектора обеспечивает максимальную курсовую устойчивость и предотвращает заносы. Прямоугольные симметричные блоки в плечевой зоне снижают риск потери управления на резких поворотах. Каучуковые и силиконовые компоненты в составе резины способствуют равномерному износу, и, как следствие, увеличивают экономичность шины Winguard Ice.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Описание Roadstone Winguard Ice SUVЗимняя шина Roadstone Winguard Ice SUV является идентичной копией одноименной модели от южнокорейской компании Nexen. Она, в свою очередь, была разработана на основе шины для легковых автомобилей, зарекомендовав себя на них с самой лучшей стороны. Наиболее весомыми преимуществами данной модели является отличное сцепление на заснеженных и обледенелых покрытиях, высокая эффективность при торможении, отменный уровень акустического и ездового комфорта. Добиться этого удалось за счет широкого применения современных технологических решений, о наиболее интересных из которых речь пойдет ниже.Двойные V-образные дренажные канавкиПротекторный рисунок данной модели характеризуется оригинальным дизайном дренажной системы, которая необычному расположению и формам входящих в ее состав элементов обладает широкой функциональностью. Речь идет о двойных V-образных дренажных канавках, расположенных, как в центре протектора, так и в его плечевых зонах протектора. Небольшой угол наклона в сочетании с различной шириной позволяет им повышать производительность шины, как на снегу, так и на льду. Особенно ярко это проявляется при продольных ускорениях, т.е. при ускорении и торможении.3D-блоки в центре протектораV-образные дренажные канавки, расположенные в самом центре протектора, выполняют и другие функции. Минимальная ширина позволяет им служить точкой опоры для находящихся здесь блоков. При этом их стреловидная форма и массивные размеры придает им устойчивость в трех плоскостях. Практическим результатом такого решения является улучшенная стабильность сцепных свойств, что, в свою очередь, облегчает процесс управления автомобилем при неблагоприятных погодных условиях, а также при движении на большой скорости.Надежная управляемость при плохих погодных условияхВышеупомянутая дренажная система обладает еще одним немаловажным преимуществом. Она демонстрирует высокую эффективность при отводе от пятна контакта, как воды, так и тяжеловесных снежных масс. Универсальность обеспечивается за счет двух факторов – увеличенного до 4 количества продольных канавок, а также значительного внутреннего объема, как этих элементов дренажных элементов, так и поперечных каналов в плечевых зонах протектора.Основные особенности шины Roadstone Winguard Ice SUV- двойные дренажные канавки улучшают продольные сцепные свойства на льду и снегу;- 3D-блоки центрального продольного ребра улучшают стабильность сцепления при неблагоприятных погодных условиях, а также при движении на большой скорости;- универсальные характеристики дренажной системы, обеспечиваемые за счет увеличенной численности продольных канавок и значительного внутреннего объема каналов, расположенных в плечевых зонах;- дополнительные V-образные канавки в плечевых зонах, расположенные продольно, улучшают устойчивость при маневрировании на скользких покрытиях.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Maxxis NP5 PREMITRA ICE NORD</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Зимние шины, разработанные специально для повышенного сцепления на обледенелых и заснеженных дорогах.Характеристики Maxxis Premitra Ice Nord NP5:- Многоугольный дизайн ламелей и стенок блоков протектора для увеличения длины кромок и лучшего сцепления с поверхностью- Двухслойный высокопрочный стальной корд поглощает энергию ударов о дорожную поверхность для комфорта и сверхточной управляемости
+- Специальный состав резинового наполнителя бортовой зоны препятствует перегреву шины и обеспечивает низкое сопротивление качениюЧитать полностью - Двухслойный высокопрочный стальной корд поглощает энергию ударов о дорожную поверхность для комфорта и сверхточной управляемости
+- Специальный состав резинового наполнителя бортовой зоны препятствует перегреву шины и обеспечивает низкое сопротивление качению</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Описание Maxxis Premitra Ice 5 SP5 SUVMaxxis Premitra Ice 5 SP5 SUV – модель, устанавливаемая на кроссоверы и внедорожники, используемые в суровых зимних условиях. Шина характеризуется улучшенными показателями цепкости на заснеженном и обледенелом дорожном полотне, уверенной управляемостью и стойкостью к заносам.Направленный рисунок протектора V-образного типа с обильной сетью ламелей максимально адаптирован к зимним условиям. Наличие большого количества зацепных кромок, а также эластичный компаунд способствуют уверенному контакту с дорогой, поддерживая управляемость.Важным аспектом новой резиновой смеси выступает кремниевый компонент SiRu   обеспечивает равномерность распределения всех составляющих, а также поддерживает высокую степень эластичности при отрицательных температурах. Благодаря этому поведение автомобиля даже на ледяной корке остается всегда предсказуемым.Наличие многочисленных диагонально направленных каналов реализуется быстрота очистки контактной зоны. Это касается, как водных, так и снежных масс. Результат – прозрачность управления даже на высокой скорости.Основные особенности Maxxis Premitra Ice 5 SP5 SUV- инновационный компаунд с компонентом SiRu обеспечивает лучшую адаптацию покрышки к зимним условиям;- многочисленные блоки и ламели создают множество зацепных граней, повышающих проходимость и стабильность транспорта на зимней дороге;- защита от гидропланирования и слэшинга за счет большой сети каналов.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Haida HD687</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Описание Haida HD687 Зимняя шина Haida HD687 предназначена для интенсивной эксплуатации в местностях с холодным климатом. Отличается надежностью сцепных свойств на снегу и обледенелом покрытии, легкостью управления, эффективностью торможения и топливной экономичностью.Направленный протекторный рисунок выделяется V-образным расположением и направленностью против движения дренажных канавок. Это позволяет использовать для отвода воды и тяжеловесной смеси со снегом силу вращения колеса, за счет чего даже при самых неблагоприятных погодных условиях сохраняется надежность управления. Блоки в центральной части выполнены более массивными. В сочетании с их плотным расположением это повышает курсовую стабильность и точность управления, уменьшает расход топлива и износ.Основные особенности Haida HD687 - отличная устойчивость к аквапланированию и слэшпленнингу благодаря направленности против движения дренажных канавок;- широкие блоки в центральной части уменьшают сопротивление качению и износ, улучшают курсовую стабильность и управляемость;- блоки по краям протектора повышают тягу на снегу, устойчивость при маневрировании, препятствуют неравномерному истиранию.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ilink L-ZEAL56</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kumho CW51</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ШинаKumho Winter PorTran CW51– нешипованная зимняя шина, предназначенная для эксплуатации на легкогрузовом коммерческом транспорте, прежде всего, на микроавтобусах.Значительная доля высокой эффективности шины Kumho CW51 на зимних дорогах обеспечивается за счет симметричного ненаправленного рисунка протектора. Протектор данной модели оснащен значительным числом небольших блоков, равномерно распределенных по четырем продольным ребрам. Благодаря такому дизайну, шина Kumho Winter PorTran CW51 обеспечивает отличную курсовую устойчивость при любых дорожных условиях.Обе плечевые зоны протектора Kumho Winter PorTran CW51 включают большое число отдельных блоков. Но, в отличие от центральной части, они выполнены более массивныи, а также имеют прямоугольную форму и поперечное расположение. При продольных ускорениях блоки плечевых зон, за счет создаваемых длинных кромок, улучшают сцепные свойства, а также их стабильность, а в поворотах – устойчивость. Массивные размеры и жесткая конструкция в существенно оптимизируют распределение внешней нагрузки, что повышает грузоподъемность и сопротивляемость шины неравномерному износу.
+Протектор шины Kumho Winter PorTran CW51 оснащен несколькими видами ламелей. В центральной части они имеют  волнообразную форму. В результате при их открытии ограничивается подвижность блоков в поперечном направлении, что снижает вероятность срыва шины в скольжение. Плечевые зоны включают 3D-ламели. Раскрываясь, они не только образуют множество дополнительных поперечных сцепных кромок, но и ограничивают подвижность блоков, как в поперечном, так и продольном направлении. В сочетании с направленностью ламелей это существенно снижает протяженность тормозного пути, особенно на укатанном снегу и льду.Читать полностью Обе плечевые зоны протектора Kumho Winter PorTran CW51 включают большое число отдельных блоков. Но, в отличие от центральной части, они выполнены более массивныи, а также имеют прямоугольную форму и поперечное расположение. При продольных ускорениях блоки плечевых зон, за счет создаваемых длинных кромок, улучшают сцепные свойства, а также их стабильность, а в поворотах – устойчивость. Массивные размеры и жесткая конструкция в существенно оптимизируют распределение внешней нагрузки, что повышает грузоподъемность и сопротивляемость шины неравномерному износу.
+Протектор шины Kumho Winter PorTran CW51 оснащен несколькими видами ламелей. В центральной части они имеют  волнообразную форму. В результате при их открытии ограничивается подвижность блоков в поперечном направлении, что снижает вероятность срыва шины в скольжение. Плечевые зоны включают 3D-ламели. Раскрываясь, они не только образуют множество дополнительных поперечных сцепных кромок, но и ограничивают подвижность блоков, как в поперечном, так и продольном направлении. В сочетании с направленностью ламелей это существенно снижает протяженность тормозного пути, особенно на укатанном снегу и льду.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Описание Kumho CW51 Зимняя легковая шина Kumho CW51 является одной из новинок известного в нашей стране южнокорейского производителя. Но, в отличие от большинства представленных им новых моделей, эта шина предназначена для легкогрузовой коммерческой техники, прежде всего, для микроавтобусов. Благодаря использованию новейших технологий и материалов, ею демонстрируются превосходное сцепление и управляемость на любых зимних дорогах.Высокоэффективный протекторный рисунок Kumho CW51 Значительная часть сцепных свойствKumho CW51 на зимних дорогах обеспечивается за счет высокой эффективности симметричного ненаправленного рисунка протектора. Его дизайн отличается наличием значительного числа небольших блоков, равномерно распределенных по четырем продольным ребрам. Благодаря такому расположению этих протекторных элементом, шине придается отличная курсовая устойчивость при любых дорожных условиях.Усиленная конструкция плечевых зонОбе плечевые зоны содержат множество отдельных блоков. Но в отличие от центральной части они имеют куда более массивные размеры, а также отличаются прямоугольной формой и поперечным расположением. При продольных ускорениях блоки плечевых зон за счет создаваемых длинных кромок улучшают сцепные свойства, а также их стабильность, а в поворотах – устойчивость. Кроме того, их массивные размеры и жесткая конструкция в значительной степени оптимизирует распределение внешней нагрузки, что, в свою очередь повышает грузоподъемность и сопротивляемость неравномерному износу.Несколько видов ламелейПротекторKumho CW51 оснащен несколькими видами ламелей. В центральной части они отличаются волнообразной формой. В результате при их открытии ограничивается подвижность блоков в поперечном направлении, что снижает вероятность срыва шины в скольжение. Плечевые зоны содержат 3D-ламели. Раскрываясь, они не только образуют множество дополнительных поперечных сцепных кромок, но и ограничивают подвижность блоков, как в поперечном, так и продольном направлении. В сочетании с направленностью ламелей это весьма значительно сокращает протяженность тормозного пути, в особенности на укатанном снегу и льду.Основные особенности:- оптимизированный для любых зимних дорог протекторный рисунок демонстрирует превосходную эффективность в любых условиях;- многочисленные протекторные блоки обеспечивают отменные тягово-сцепные свойства на снегу;- широкие плечевые блоки прямоугольной формы улучшают устойчивость при маневрировании и сцепление при ускорении и торможении, а также оптимизируют распределение внешней нагрузки, повышая грузоподъемность и сопротивляемость неравномерному износу;- трехмерные ламели в плечевых зонах повышают производительность при ускорении и торможении, обеспечивают надежную и прогнозируемую управляемость.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Белшина Бел-277</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Landsail SNOW STAR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежный контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Landsail Snow Star C — зимние нешипованные шины для коммерческого транспорта. Расположение ламелей в блоках протектора оптимизировано для создания максимального количества режущих кромок на большой площади пятна контакта. Благодаря 3D-дизайну, ламели сцепляются в жесткие устойчивые блоки протектора. Состав резиновой смеси с большим содержанием силики в шинах разработан для улучшения сцепления и торможения в экстремальные морозы. Треугольные углубления по краям плечевых блоков снижают сопротивление качению и отводят тепло для большей стабильности и ресурса шины. Три широкие продольные канавки, работая совместно, эффективно сопротивляются аквапланированию, повышают управляемость и сокращают тормозной путь. Пилообразные боковые канавки поддерживают высокий уровень сцепления и управляемости. Landsail Snow Star подходит для использования в суровых зимних условиях.Читать полностью Landsail Snow Star C — зимние нешипованные шины для коммерческого транспорта. Расположение ламелей в блоках протектора оптимизировано для создания максимального количества режущих кромок на большой площади пятна контакта. Благодаря 3D-дизайну, ламели сцепляются в жесткие устойчивые блоки протектора. Состав резиновой смеси с большим содержанием силики в шинах разработан для улучшения сцепления и торможения в экстремальные морозы. Треугольные углубления по краям плечевых блоков снижают сопротивление качению и отводят тепло для большей стабильности и ресурса шины. Три широкие продольные канавки, работая совместно, эффективно сопротивляются аквапланированию, повышают управляемость и сокращают тормозной путь. Пилообразные боковые канавки поддерживают высокий уровень сцепления и управляемости. Landsail Snow Star подходит для использования в суровых зимних условиях.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Описание Landsail Snow Star Зимняя шина Landsail Snow Star создана для различных легкогрузовых автомобилей. При разработке данной шины специалисты постарались учесть все возможные нюансы эксплуатации и главный упор сделали на максимальную устойчивость и безопасность. Чтобы улучшить эти показатели пришлось использовать новую резиновую смесь и оптимизировать протектор. По завершению производства шина проходит тщательный контроль качества, поэтому полностью соответствует всем заявленным параметрам и не имеет брака.Новые компоненты в резиновой смесиПри эксплуатации в зимних условиях шинаLandsail Snow Star должна сохранять свою эластичность, чтобы обеспечивать повышенные сцепные характеристики. Для этого в резиновой смеси содержится повышенное содержание силики, в результате этого не только повысились сцепные свойства, но и ускорилось восстановление протектора. Поэтому шина отличается уверенным управлением на любой дорожной поверхности и повышенным комфортом езды. Для повышения пробега использовался кремний, который повысил износостойкие характеристики резины. Данная шина позволит полностью контролировать управление на любой дороге.Оптимизированный протекторный рисунокНовый метод компьютерного моделирования позволил подобрать оптимальное расположение блоков по всей поверхности протектора. Все они имеют острые кромки, которые "вгрызаются" в любую поверхность, обеспечивая отличное сцепление и предотвращая возможную пробуксовку колес. Усиленная плечевая зона повышает устойчивость при различных маневрах, а также сводит риск повреждений и проколов. Специальные глубокие каналы обеспечивают быстрое самоочищение. Мелкие насечки способствуют уменьшению звукового эффекта при движении.Основные особенности шины Landsail Snow Star - обновленная резиновая смесь положительно сказалась на сцеплении с любой дорожной поверхностью, а также повысила срок службы протектора;- новый дизайн протектора улучшил ходовые качества и обеспечил уверенное управление на любой дорожной поверхности;- необычной формы ламели улучшают сцепление при гололеде и уменьшают шум при движении;- усиленная боковая зона надежно защищает протектор от повреждений и повышает устойчивость при маневрах.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Michelin CROSSCLIMATE SUV</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Всесезонная шина Michelin CrossClimate 2 SUV рассчитана на использование в условиях так называемых «европейских» зим. Характеризуется устойчивым сцеплением и надежностью в управлении на мокром и заснеженном покрытии даже при значительном износе, длительным сроком службы, мягкостью хода и акустическим комфортом.Конструктивно шина представляет собой одноименную «легковую» модель, отличаясь от нее лишь усиленными боковинами и каркасом. Это обусловлено увеличенным весом и высоко расположенным центром масс автомобилей категории SUV. Данная особенность заметно улучшает устойчивость шины к повреждениям при ее использовании вне дорог с твердым покрытием.
+Рисунок протектора был полностью «позаимствован» у «легковой» модели. Его ключевой особенностью является U-образная форма канавок и их направленность против движения. Это позволяет использовать им для отвода от пятна контакта воды и ее смеси со снегом вращение колеса, что значительно повышает интенсивность процесса и обеспечивает надежность сцепления при неблагоприятных погодных условиях. Большая ширина канавок позволяет шине сохранять производительность на грунтовых поверхностях.
+Еще одной особенностью являются 3D-ламели, точь-в-точь такие же, как у классических зимних шин. «Трехмерный» профиль стенок прорезей позволяет им оставаться открытыми при контакте с дорожной поверхностью, повышая тяговое и тормозное усилие на мокром покрытии и укатанном снегу.
+Основные особенности Michelin CrossClimate 2 SUV
+- усиленные боковины обеспечивают устойчивость при маневрировании, снижают риск повреждения шины при ее использовании вне дорог с твердым покрытием;
+- U-образная форма и направленность канавок против движения обеспечивают надежность в управлении при неблагоприятных погодных условиях;
+- самоблокирующиеся 3D-ламели улучшают тягово-сцепные свойства на мокром покрытии и снегу.
+* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+SЧитать полностью Конструктивно шина представляет собой одноименную «легковую» модель, отличаясь от нее лишь усиленными боковинами и каркасом. Это обусловлено увеличенным весом и высоко расположенным центром масс автомобилей категории SUV. Данная особенность заметно улучшает устойчивость шины к повреждениям при ее использовании вне дорог с твердым покрытием.
+Рисунок протектора был полностью «позаимствован» у «легковой» модели. Его ключевой особенностью является U-образная форма канавок и их направленность против движения. Это позволяет использовать им для отвода от пятна контакта воды и ее смеси со снегом вращение колеса, что значительно повышает интенсивность процесса и обеспечивает надежность сцепления при неблагоприятных погодных условиях. Большая ширина канавок позволяет шине сохранять производительность на грунтовых поверхностях.
+Еще одной особенностью являются 3D-ламели, точь-в-точь такие же, как у классических зимних шин. «Трехмерный» профиль стенок прорезей позволяет им оставаться открытыми при контакте с дорожной поверхностью, повышая тяговое и тормозное усилие на мокром покрытии и укатанном снегу.
+Основные особенности Michelin CrossClimate 2 SUV
+- усиленные боковины обеспечивают устойчивость при маневрировании, снижают риск повреждения шины при ее использовании вне дорог с твердым покрытием;
+- U-образная форма и направленность канавок против движения обеспечивают надежность в управлении при неблагоприятных погодных условиях;
+- самоблокирующиеся 3D-ламели улучшают тягово-сцепные свойства на мокром покрытии и снегу.
+* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Описание Michelin CrossClimate 2 SUVВсесезонная шина Michelin CrossClimate 2 SUV рассчитана на использование в условиях так называемых «европейских» зим. Характеризуется устойчивым сцеплением и надежностью в управлении на мокром и заснеженном покрытии даже при значительном износе, длительным сроком службы, мягкостью хода и акустическим комфортом.Конструктивно шина представляет собой одноименную «легковую» модель, отличаясь от нее лишь усиленными боковинами и каркасом. Это обусловлено увеличенным весом и высоко расположенным центром масс автомобилей категории SUV. Данная особенность заметно улучшает устойчивость шины к повреждениям при ее использовании вне дорог с твердым покрытием.Рисунок протектора был полностью «позаимствован» у «легковой» модели. Его ключевой особенностью является U-образная форма канавок и их направленность против движения. Это позволяет использовать им для отвода от пятна контакта воды и ее смеси со снегом вращение колеса, что значительно повышает интенсивность процесса и обеспечивает надежность сцепления при неблагоприятных погодных условиях. Большая ширина канавок позволяет шине сохранять производительность на грунтовых поверхностях.Еще одной особенностью являются 3D-ламели, точь-в-точь такие же, как у классических зимних шин. «Трехмерный» профиль стенок прорезей позволяет им оставаться открытыми при контакте с дорожной поверхностью, повышая тяговое и тормозное усилие на мокром покрытии и укатанном снегу.Основные особенности Michelin CrossClimate 2 SUV- усиленные боковины обеспечивают устойчивость при маневрировании, снижают риск повреждения шины при ее использовании вне дорог с твердым покрытием;- U-образная форма и направленность канавок против движения обеспечивают надежность в управлении при неблагоприятных погодных условиях;- самоблокирующиеся 3D-ламели улучшают тягово-сцепные свойства на мокром покрытии и снегу.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mazzini Snow LEOPARD</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Описание Mazzini Snow Leopard VanЗимняя шина Mazzini Snow Leopard Van разработана для коммерческих автомобилей малой вместимости. Характеризуется повышенной грузоподъемностью, устойчивостью на скользких покрытиях, топливной экономичностью и тихим мягким ходом.Протекторный рисунок отличает оригинальная S-образная форма продольных ребер в центральной части. Она образует дополнительные поперечные кромки, повышая тяговое и тормозное усилие на снегу. В свою очередь, сплошное строение центральных ребер и их устойчивость к деформации улучшает курсовую устойчивость и точность управления, снижает износ и сопротивление качению. Массивные плечевые блоки позволяют интенсивно ускоряться и замедляться на снегу и придают протектору износостойкость. Еще одним его отличием является многочисленность ламелей. Узкие прорези сотнями своих граней обеспечивают шине устойчивость на обледенелом и мокром покрытии.Основные особенности Mazzini Snow Leopard Van- S-образные ребра в центральной части улучшают тягово-сцепные свойства на снегу, снижают износ и расход топлива;- широкие дренажные канавки снижают риск аквапланирования, позволяют протектору интенсивно самоочищаться от снега и шуги;- крупные блоки по краям протектора повышают устойчивость и точность управления при маневрировании, придают протектору дополнительную износостойкость.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Westlake Z-107 Zuper Eco</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Летняя шина WestLake ZuperEco Z-107 устанавливается в компактных и среднеразрмерных легковых автомобилях. Характеризуется сочетанием спортивной отточенности в управлении, надежностью сцепления на большой скорости с топливной экономичностью и длительностью срока службы.Протекторный рисунок выполнен несимметричным. В зависимости от размерности шины содержит в центральной части два или три продольных ребра. Эти элементы, обладая высокой жесткостью, улучшают курсовую устойчивость на большой скорости, уменьшают сопротивление качению. Плечевые зоны содержат крупные блоки, которые повышают точность в управлении, препятствуют сносам при динамичном маневрировании, сокращают протяженность тормозного пути и износ. Эффективность на мокром покрытии обеспечивается увеличенным объемом продольных дренажных канавок, снижающим риск аквапланирования, а также большим количеством ламелей. Узкие прорези создают множество дополнительных кромок, которыми шина цепляется за скользкую поверхность.
+Основные особенности WestLake ZuperEco Z-107
+- несимметричный протекторный рисунок эффективен в любых дорожных условиях;
+- жесткие блоки по краям протектора повышают устойчивость и точность в управлении при маневрировании, препятствуют неравномерности износа;
+- увеличенные дренажные канавки уменьшают риск аквапланирования на большой скорости.Читать полностью Протекторный рисунок выполнен несимметричным. В зависимости от размерности шины содержит в центральной части два или три продольных ребра. Эти элементы, обладая высокой жесткостью, улучшают курсовую устойчивость на большой скорости, уменьшают сопротивление качению. Плечевые зоны содержат крупные блоки, которые повышают точность в управлении, препятствуют сносам при динамичном маневрировании, сокращают протяженность тормозного пути и износ. Эффективность на мокром покрытии обеспечивается увеличенным объемом продольных дренажных канавок, снижающим риск аквапланирования, а также большим количеством ламелей. Узкие прорези создают множество дополнительных кромок, которыми шина цепляется за скользкую поверхность.
+Основные особенности WestLake ZuperEco Z-107
+- несимметричный протекторный рисунок эффективен в любых дорожных условиях;
+- жесткие блоки по краям протектора повышают устойчивость и точность в управлении при маневрировании, препятствуют неравномерности износа;
+- увеличенные дренажные канавки уменьшают риск аквапланирования на большой скорости.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Описание WestLake ZuperEco Z-107Летняя шина WestLake ZuperEco Z-107 устанавливается в компактных и среднеразрмерных легковых автомобилях. Характеризуется сочетанием спортивной отточенности в управлении, надежностью сцепления на большой скорости с топливной экономичностью и длительностью срока службы.Протекторный рисунок выполнен несимметричным. В зависимости от размерности шины содержит в центральной части два или три продольных ребра. Эти элементы, обладая высокой жесткостью, улучшают курсовую устойчивость на большой скорости, уменьшают сопротивление качению. Плечевые зоны содержат крупные блоки, которые повышают точность в управлении, препятствуют сносам при динамичном маневрировании, сокращают протяженность тормозного пути и износ. Эффективность на мокром покрытии обеспечивается увеличенным объемом продольных дренажных канавок, снижающим риск аквапланирования, а также большим количеством ламелей. Узкие прорези создают множество дополнительных кромок, которыми шина цепляется за скользкую поверхность.Основные особенности WestLake ZuperEco Z-107- несимметричный протекторный рисунок эффективен в любых дорожных условиях;- жесткие блоки по краям протектора повышают устойчивость и точность в управлении при маневрировании, препятствуют неравномерности износа;- увеличенные дренажные канавки уменьшают риск аквапланирования на большой скорости.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bridgestone ALENZA SPORT A/S</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Качественные радиальные летние шины. Тип автомобиля, для которого предназначены покрышки: минивэн. Изготавливаются на заводах Bridgestone с использованием электронного контроля качества готовой продукции.Читать полностью ции.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Описание Bridgestone Alenza Sport A/S Всесезонная шина Bridgestone Alenza Sport A/S разработана для динамичных версий легковых автомобилей. Характеризуется спортивной точностью в управлении, стабильностью сцепления на высоких скоростях и на мокром покрытии, устойчивостью к абразивному истиранию и ударному воздействию.«Трехмерные» ламелиПротекторный рисунок испещрен сотнями узких прорезей. «Трехмерность» профиля их вертикальных стенок ограничивает деформацию блоков, за счет чего порог срыва шины в скольжения существенно сдвигается, а сам этот момент становится более осязаемым. Это заметно облегчает контроль над траекторией движения автомобиля, особенно в сложных дорожных условиях. Кроме того, 3D-форма стенок ламелей позволяет лучше фиксировать прорези в открытом положении, за счет чего обеспечивается более надежное сцепление.Улучшенный акустический комфортНесмотря на наличие многочисленных отдельно стоящих протекторных элементов шину отличает низкий уровень шумов и вибраций. В значительной степени это обусловлено особой скругленной форме кромок блоков. Кроме того, данное решение позволило сохранить пятно контакта протекторного элемента при воздействии разнонаправленных сил ускорения, что положительно сказывается на точности в управлении, особенно при маневрировании.Улучшенный компаундВ шине применяется технология изготовления резиновой смеси NanoPro-Tech. Компаунд отличает наличие в составе большого количества оксидов кремния. Мелкодисперсный порошок из бесцветных кристаллов делает резиновую смесь очень эластичной при низких температурах, позволяя шине в таких условиях надежно цепляться за дорожную поверхность. Добавление в состав компаунда специальных полимеров и особая технология смешивания обеспечивает ему высокий уровень однородности и устойчивость к истиранию и сквозным механическим повреждениям.Основные особенности Bridgestone Alenza Sport A/S - многочисленные 3D-ламели, уменьшая деформацию блоков, улучшают сцепление и управляемость на скользких дорогах, повышают устойчивость протектора к абразивному истиранию;- скругленные грани блоков повышают точность в управлении, улучшают сцепление при динамичном маневрировании;- резиновая смесь NanoPro-Tech обеспечивает надежность сцепления на скользких дорогах, увеличивает срок службы шины, снижает ее нагрев при длительном движении на высокой скорости.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Leao Winter Defender Ice I-15</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Описание Leao Ice I-15 Winter Defender SUVLeao Ice I-15 Winter Defender SUV – зимняя модель для кроссоверов и внедорожников, обеспечивающая уверенное прохождение заснеженных и обледенелых участков дороги с поддержанием отзывчивости управления.Направленный симметричный рисунок протектора, разработанный с использованием методов компьютерного моделирования, обеспечивает быструю эвакуацию водных масс, а также шуги из контактной зоны. Этот фактор гарантирует повышенный уровень безопасности при езде по зимней дороге. Наличие многочисленных самоблокирующихся ламелей повышает сцепление на обледенелых участках, а острые грани блоков помогают справляться с заснеженными областями дороги.Немаловажную роль в поддержании устойчивости транспорта играет компаунд. В его составе присутствует большой процент силики, которая особенно эффективна на мокром асфальте. Помимо этого, в составе присутствуют компоненты, сохраняющие эластичность при отрицательных температурах.Основные особенности Leao Ice I-15 Winter Defender SUV- установка на широкий спектр внедорожников и кроссоверов;- надежность сцепления и короткий путь торможения за счет развитой сети ламелей и многоблочного строения протектора;- направленный рисунок эффективно отводи шугу и воды из области контакта, поддерживая сцепные характеристики.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nexen WINGUARD SUV</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nexen Winguard Ice SUV— шина для зимней езды на легковых автомобилях. Рисунок протектора с большим количеством ламелей (направленного типа) придает модели отличную управляемость. Центральная линия имеет двойную V-образную форму, которая повышает сцепление с заснеженной поверхностью во время торможения или ускорения.Центральная часть с трехмерной опорой шашек препятствует быстрому износу и оптимизирует пятно контакта с поверхностью для обеспечения устойчивости вождения. Сочетания 4 канавок и 2 полуканавок позволяет быстрее отводить снег, слякоть и воду.
+V-образная прорезь в плечевой части усиливает жесткость шашек и повышает прочность.Читать полностью Центральная часть с трехмерной опорой шашек препятствует быстрому износу и оптимизирует пятно контакта с поверхностью для обеспечения устойчивости вождения. Сочетания 4 канавок и 2 полуканавок позволяет быстрее отводить снег, слякоть и воду.
+V-образная прорезь в плечевой части усиливает жесткость шашек и повышает прочность.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Описание Nexen Winguard Sport 2 SUVЗимняя шина Nexen Winguard Sport 2 SUV предназначена для кроссоверов и внедорожников. Относится к так называемым «фрикционным» моделям, отлично подходя для использования на любых скользких покрытиях. В таких условиях характеризуется стабильностью сцепления и точностью в управлении, отличается отменными для своего класса показателями топливной экономичности.Беговая часть протектора изготовлена из резиновой смеси с достаточно необычным составом. В частности, в него входит пальмовое масло. Оно дополнительно повышает эластичность при низких температурах, прочность на разрыв и растяжение. Помимо пальмового масла компаунд содержит диоксид кремния и натуральный каучук, благодаря чему улучшается сцепление на укатанном снегу и льду, уменьшается сопротивление качению и абразивный износ.Протекторный рисунок испещрен узкими зигзагообразными прорезями. Они заметно улучшают продольное сцепление на скользком покрытии. При этом «трехмерность» их профиля ограничивает подвижность протекторных элементов, за счет чего повышается курсовая стабильность и точность в управлении.Поперечные ряды блоков располагаются со смещением относительно друг друга. Это повышает равномерность распределения нагрузки по пятну контакта, позволяет разместить на протекторе больше элементов. В результате увеличивается его полезная площадь, снижается уровень абразивного воздействия на шину, сцепные свойства не только усиливаются, но и становятся более стабильными, а уровень резонансных шумов и вибраций уменьшается.Основные особенности Nexen Winguard Sport 2 SUV- пальмовое масло в составе компаунда улучшает сцепление на скользком покрытии, уменьшает износ и расход топлива;- направленный рисунок протектора с удлиненными поперечными кромками обеспечивает отличное продольное сцепление и курсовую устойчивость;- увеличенное количество ламелей, «трехмерность» профиля их вертикальных стенок улучшают управляемость на укатанном снегу и льду.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Roadstone Winguard WinSpike SUV (нешип)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Описание Roadstone Winguard Spike SUV (нешип)Зимняя шина для внедорожников и кроссоверов Roadstone Winguard Spike SUV разработана для эксплуатации в регионах с по-настоящему холодной погодой. Наибольшей эффективностью отличается на мокром и заснеженном покрытии, демонстрируя в таких условиях устойчивое сцепление и комфортность управления.Направленный рисунок протектора выполнен в «скандинавском» дизайне с широким стреловидным ребром посередине с отходящими от него «отростками» в виде массивных блоков. Наличие большого количества разнонаправленных кромок, образуемых этими элементами, обеспечивает отличную тягу и устойчивость на снегу. Плотно нарезанные ламели с пилообразными кромками сохраняют надежность управления на самых скользких зимних поверхностях.Основные особенности Roadstone Winguard Spike SUV (нешип)- направленный рисунок протектора со стреловидным ребром посередине эффективен на любом зимним покрытии;- повышенная плотность нарезки ламелей улучшает тягово-сцепные свойства на укатанном снегу и льду;- резиновая смесь на основе «силики» остается эластичной при самых низких температурах.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BFGoodrich Advantage SUV</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Летняя шина BFGoodrich Advantage SUV устанавливается в кроссоверах и внедорожниках. Рекомендуется производителем к использованию исключительно на асфальтированных дорогах. Представляет собой модифицированную версию одноименной «легковой» модели с измененной конструкцией каркаса и боковин, адаптирующей покрышку к использованию в автомобилях с повышенным центром тяжести и увеличенным весом. Характеризуется повышенной интенсивностью торможения на мокрой поверхности, точностью в управлении на большой скорости, комфортным тихим и мягким ходом на неровных дорогах.Протекторный рисунок отличается несимметричным расположением элементов. Это придает эксплуатационным свойствам шины сбалансированность. Еще одна особенность дизайна протектора — наличие большого количества удлиненных поперечных кромок, образуемых острыми гранями, как блоков, так и ламелями. Это повышает продольные сцепные свойства, особенно на мокром покрытии. Здесь стоит отметить наличие в центральной части четырех объемных продольных дренажных канавок. Это до минимума уменьшает риск аквапланирования даже на большой скорости. Эффективность на сухом покрытии обеспечивается несколькими особенностями. Одной из них является оптимизированный профиль беговой части протектора. В результате шина под нагрузкой касаться дорожной поверхности на большей площади. Жесткость блоков и брекерных лент под протекторами придают пятну контакта квадратную форму и обеспечивают ее сохранность при воздействии разнонаправленными силами ускорения. Это существенно улучшает сцепление и его стабильность при маневрировании.
+Основные особенности BFGoodrich Advantage SUV
+- несимметричное расположение протекторных элементов обеспечивает шине сбалансированные эксплуатационные свойства;
+- увеличенная длина поперечных кромок позволяет эффективно реализовать тяговое и тормозное усилие на мокром покрытии;
+- оптимизированный профиль протектора и его рисунок увеличивают пятно контакта.Читать полностью Протекторный рисунок отличается несимметричным расположением элементов. Это придает эксплуатационным свойствам шины сбалансированность. Еще одна особенность дизайна протектора — наличие большого количества удлиненных поперечных кромок, образуемых острыми гранями, как блоков, так и ламелями. Это повышает продольные сцепные свойства, особенно на мокром покрытии. Здесь стоит отметить наличие в центральной части четырех объемных продольных дренажных канавок. Это до минимума уменьшает риск аквапланирования даже на большой скорости. Эффективность на сухом покрытии обеспечивается несколькими особенностями. Одной из них является оптимизированный профиль беговой части протектора. В результате шина под нагрузкой касаться дорожной поверхности на большей площади. Жесткость блоков и брекерных лент под протекторами придают пятну контакта квадратную форму и обеспечивают ее сохранность при воздействии разнонаправленными силами ускорения. Это существенно улучшает сцепление и его стабильность при маневрировании.
+Основные особенности BFGoodrich Advantage SUV
+- несимметричное расположение протекторных элементов обеспечивает шине сбалансированные эксплуатационные свойства;
+- увеличенная длина поперечных кромок позволяет эффективно реализовать тяговое и тормозное усилие на мокром покрытии;
+- оптимизированный профиль протектора и его рисунок увеличивают пятно контакта.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: 404 Client Error: Not Found for url: https://mosautoshina.ru/catalog/tyre/bfgoodrich/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fronway ICEMASTER II</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Зимняя шина Fronway Icemaster II рассчитана на использование в регионах с по-настоящему холодным климатом. При этом ее целевой аудиторией являются владельцы наиболее динамичных версий легковых автомобилей. Данная модель помимо надежности сцепных свойств на заснеженном и обледенелом покрытии выделяется на фоне многочисленных аналогов ярко выраженной спортивной управляемостью и устойчивостью на высокой скорости.Протекторный рисунок выполнен в эффектном направленном дизайне с V-образным расположением канавок. Такая компоновка обеспечивает отличную тягу и устойчивость на снегу, сохраняя низким сопротивление качению. Еще одной особенностью является высокая плотность расположения ламелей, а также их разнонаправленность. Образуемые ими заостренные пилообразные грани позволяют шине эффективно цепляться за любую скользкую поверхность, обеспечивая устойчивые тягово-сцепные свойства. При этом эластичная при низких температурах резиновая смесь существенно усиливает эту способность.
+Основные особенности Fronway Icemaster II
+- повышенная жесткость каркаса и боковин обеспечивает стабильное сцепление и точность в управлении на большой скорости;
+- увеличенное количество блоков и ламелей, за счет чего достигаются отличные тягово-сцепные свойства на любой скользкой поверхности;
+- специальная резиновая смесь, эластичная при экстремально низких температурах, стойкая к длительному нагреву, абразивному истиранию и образованию разрывов и микротрещин.Читать полностью Протекторный рисунок выполнен в эффектном направленном дизайне с V-образным расположением канавок. Такая компоновка обеспечивает отличную тягу и устойчивость на снегу, сохраняя низким сопротивление качению. Еще одной особенностью является высокая плотность расположения ламелей, а также их разнонаправленность. Образуемые ими заостренные пилообразные грани позволяют шине эффективно цепляться за любую скользкую поверхность, обеспечивая устойчивые тягово-сцепные свойства. При этом эластичная при низких температурах резиновая смесь существенно усиливает эту способность.
+Основные особенности Fronway Icemaster II
+- повышенная жесткость каркаса и боковин обеспечивает стабильное сцепление и точность в управлении на большой скорости;
+- увеличенное количество блоков и ламелей, за счет чего достигаются отличные тягово-сцепные свойства на любой скользкой поверхности;
+- специальная резиновая смесь, эластичная при экстремально низких температурах, стойкая к длительному нагреву, абразивному истиранию и образованию разрывов и микротрещин.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Описание Fronway Icemaster II Зимняя шина Fronway Icemaster II рассчитана на использование в регионах с по-настоящему холодным климатом. При этом ее целевой аудиторией являются владельцы наиболее динамичных версий легковых автомобилей. Данная модель помимо надежности сцепных свойств на заснеженном и обледенелом покрытии выделяется на фоне многочисленных аналогов ярко выраженной спортивной управляемостью и устойчивостью на высокой скорости.Протекторный рисунок выполнен в эффектном направленном дизайне с V-образным расположением канавок. Такая компоновка обеспечивает отличную тягу и устойчивость на снегу, сохраняя низким сопротивление качению. Еще одной особенностью является высокая плотность расположения ламелей, а также их разнонаправленность. Образуемые ими заостренные пилообразные грани позволяют шине эффективно цепляться за любую скользкую поверхность, обеспечивая устойчивые тягово-сцепные свойства. При этом эластичная при низких температурах резиновая смесь существенно усиливает эту способность.Основные особенности Fronway Icemaster II - повышенная жесткость каркаса и боковин обеспечивает стабильное сцепление и точность в управлении на большой скорости;- увеличенное количество блоков и ламелей, за счет чего достигаются отличные тягово-сцепные свойства на любой скользкой поверхности;- специальная резиновая смесь, эластичная при экстремально низких температурах, стойкая к длительному нагреву, абразивному истиранию и образованию разрывов и микротрещин</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Yokohama Geolandar m/t G003</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Описание Yokohama Geolandar M/T G003 Летняя шина Yokohama Geolandar M/T G003 устанавливается в пикапах и внедорожниках. Разработана на замену модели с индексом G001C. Как и предшественница, отличается наибольшей эффективностью на грунтовых покрытиях с пониженной несущей способностью. В таких условиях демонстрирует высокое тяговое усилие, курсовую стабильность и длительный срок службы. Может использоваться при пониженном внутреннем давлении.Протекторный рисунок выполнен в симметричном ненаправленном дизайне с большим количеством блоков. Структура их расположения гарантирует высокое продольное сцепление при движении, как вперед, так и назад. В центральной части блоки имеют большой наклон. В сочетании с их вытянутой формой и «шахматным» расположением это снижает сопротивление качению, повышает курсовую стабильность и способствует более равномерному распределению давления по дорожной поверхности.Блоки имеют сложную многоугольную форму с длинными разнонаправленными кромками. Вкупе с большой высотой это позволяет шине эффективно цепляться за мягкую дорожную поверхность. В плечевых зонах значительная часть блоков «заходит» на боковины. Это решение повышает тяговое усилие при движении по особо сложным участкам бездорожья.Боковины шины отличаются конструкцией, оптимизированной с учетом особенностей эксплуатации на бездорожье. В ее состав входит 3-слойный полиэфирный корд. Плотное расположение синтетических волокон, наряду с применением специальной резиновой смеси, гарантирует устойчивость этой части шины к любым механическим повреждениям.Помимо боковин усилению подвергся брекер, расположенный непосредственно под беговой частью протектора. Он имеет «гибридное» строение. В дополнение к стандартному для шин данной категории 2-слойному стальному здесь используется еще 1 нейлоновый корд. Синтетические волокна располагаются по спирали без каких-либо швов и стыков. Получившаяся таким образом конструкция при малом весе обладает значительной прочностью и жесткостью. На бездорожье это снижает риск механического повреждения, а на шоссе и каменистом грунтовом покрытии — улучшает курсовую стабильность, снижает сопротивление качению и износ.Основные особенности Yokohama Geolandar M/T G003 - симметричный ненаправленный рисунок обеспечивает одинаковое тяговое усилие при движении в обе стороны;- наклон блоков в центральной части, и их форма уменьшает сопротивление качению, шум и износ;- открытый дизайн плечевых зон с широкими блоками, «заходящими» на боковины, повышает проходимость на сложных участках бездорожья;- щелевидные прорези в блоках улучшают сцепление на мокром асфальтированном и каменистом грунтовом покрытии.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Toyo Observe GSi-6 LS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Оптимизированная резиновая смесь позволила значительно повысить сцепные и тормозные свойства шины на мокром покрытии без ущерба для характеристик на льду и снегу.Отличную управляемость обеспечивает широкий устойчивый профиль и прочная конструкция с двойным металлокордным брекером и высоко подвернутым слоем каркаса в зоне боковины (не во всех типоразмерах).Сверхпрочное бортовое кольцо обеспечивает быстрый отклик на рулевое управление.Читать полностью Сверхпрочное бортовое кольцо обеспечивает быстрый отклик на рулевое управление.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Dynamo Hiscend-H MMT01</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Описание Dynamo MMT01 Hiscend-HЛетняя шина Dynamo MMT01 Hiscend-H предназначена для внедорожников и пикапов. Относится к моделям категории Mud Terrain. Наибольшей эффективностью отличается на сыпучих и влажных грунтовых поверхностях с пониженной несущей способностью. В таких условиях демонстрирует высокие ходовые качества, плавный ход, устойчивость к ударным воздействиям.Протекторный рисунок выполнен в ненаправленном открытом дизайне с большим количеством крупных высоких блоков. Увеличенное расстояние между ними позволяет шине не «замыливаться» на бездорожье, улучшая проходимость на сложных участках. Здесь стоит отметить дизайн плечевых блоков. Уменьшение продольного сечения элементов позволило увеличить их количество, улучшив тем самым продольное сцепление на грунтовых поверхностях. При этом вогнутый профиль наружных боковин плечевых блоков повышает поперечную устойчивость, облегчая выезд из колеи.Основные особенности Dynamo MMT01 Hiscend-H- протекторный рисунок с открытым дизайном эффективен на любых грунтовых покрытиях;- «шахматное» расположение блоков увеличивает пятно контакта, снижает сопротивление качению и износ;- блоки-грунтозацепы обеспечивает проходимость на сложных участках бездорожья.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Aplus A703</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Описание Aplus A703 Коммерческая шина Aplus A703 предназначена для установки на легкогрузовой транспорт, используемый в зимний период. Модель оснащена направленным протектором с выраженной симметрией. Густая ламельная сеть, представленная волнообразными самоблокирующимися насечками, существенно повышает эффективность фиксации пятна контакта на зимней дороге.Наличие центрального ребра значительной ширины позволяет сделать управление более отзывчивым. В то время, как продолговатые блоки боковин стабилизируют транспорт в период выполнения маневров.Для поддержания чистоты области контакта предусмотрены глубокие каналы, открывающиеся наружу в зоне плеч. Они способны справляться с большими объемами воды, грязи и снега, поддерживая эффективность торможения и разгона.Следует отметить свойства компаунда, в котором присутствует кремнеземные компоненты. Благодаря им поддерживается уровень эластичности при различных температурных режимах.Основные особенности Aplus A703 - модель для широкого спектра легких грузовиков и микроавтобусов;- уверенное поведение на зимней дороге за счет направленного протектора с множеством зацепных кромок;- усовершенствованная система дренажа способна справиться с большими снежными и водными объемами.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rydanz Nordica NR01 </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Превосходные характеристики управляемости на льду и снегу для обеспечения безопасности вождения зимой.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Описание Rydanz Nordica NR01Зимняя шина Rydanz Nordica NR01  для легковых автомобилей отличается прочностью своей конструкции, применением инновационного компаунда и оптимальным соотношением цена-качество. Модель обеспечивает комфортное и безопасное вождения даже в самых суровых зимних условиях.Рисунок протектора выполнен в классическом для такого типа шин стиле – симметричный направленный. Благодаря его детальной проработке с помощью компьютерного моделирования производителю удалось улучшить показатели самоочищения, а также повысить тяговые свойства на рыхлом снеге. Наличие трехмерных ламелей и множества блочных структур обеспечивает уверенное прохождение обледенелых участков дороги с сохранением полного контроля над транспортным средством.Для обеспечения прочности в сочетании с эластичностью каркас покрышки представлен несколькими слоями корда, выполненного по бесшовной намотке. Данный фактор положительно отразился на противостоянии деформационным воздействиям, существенно продлевая срок службы.Что же касается резиновой смеси, то в ней присутствует множество специальных добавок, поддерживающих эластичность при различных температурах, а также эффективно справляющихся с перегревом.Основные особенности Rydanz Nordica NR01- шина, которая адаптирована к суровым зимним условиям;- многочисленные зацепные кромки, формируемые блоками и ламелями, обеспечивают уверенное прохождение обледенелых и заснеженных участков;- современный компаунд с большим количеством присадок поддерживает эластичность и способствует эффективности сцепления;- прочный каркас предупреждает деформацию под нагрузкой.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Pace Antarctica Sport</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Качественные радиальные зимние шины. Тип автомобиля, для которого предназначены покрышки: легковой. Изготавливаются на заводах Pace с использованием электронного контроля качества готовой продукции.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Описание Pace Antarctica Sport Зимняя шина Pace Antarctica Sport предназначена для наиболее мощных версий кроссоверов и внедорожников. Характеризуется повышенной устойчивостью на большой скорости даже на поверхности с низким коэффициентом сцепления, спортивной отточенностью в управлении.Протектор выполнен направленным с V-образным расположением дренажных канавок. Такое решение существенно повышает курсовую устойчивость и продольное сцепление, особенно на заснеженной поверхности. При этом наклон и изогнутая форма канавок позволяет с очень высокой интенсивностью отводить из-под пятна контакта воду и ее тяжеловесную смесь со снегом и дорожной грязью. Блоки имеют «шахматное» расположение, что позволило увеличить полезную площадь протектора и обеспечить равномерность распределения нагрузки по пятну контакта. Это улучшает сцепление, его стабильность при маневрировании, а кроме того, существенно уменьшает скорость износа.Основные особенности Pace Antarctica Sport - увеличенное пятно контакта и «шахматное» расположение блоков улучшает сцепление и снижает износ;- направленное V-образное расположение дренажных канавок повышает курсовую стабильность на большой скорости, снижает риск аквапланирования и слэшпленнинга;- множество ламелей и шипы обеспечивают надежность сцепления на укатанном снегу и льду.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mileking MK687</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Описание Mileking MK687 Зимняя шина для легковых автомобилей Mileking MK687 рассчитана на эксплуатацию в условиях так называемых «европейских» зим. Характеризуется надежностью сцепления на мокром и заснеженном покрытии, повышенной точностью управления на большой скорости, плавностью хода и низким уровнем шумов и вибраций.Несимметричный протекторный рисунок содержит большое количество блоков. Часть из них имеет зазубренные края, что дополнительно повышает тяговые свойства на снегу. Другой особенностью рисунка является высокая плотность нарезки и пилообразная форма граней ламелей. Эти решения обеспечивают устойчивое сцепление и надежность управления на мокром и обледенелом покрытии.Основные особенности Mileking MK687 - отличные тяговые свойства на снегу благодаря большому количеству блоков;- надежность управления на льду и мокром покрытии обеспечивается многочисленными ламелями с пилообразными кромками;- эластичная резиновая смесь и оптимизированное расположение элементов протекторного рисунка обеспечивает плавность хода и малый уровень шумов и вибраций.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Arivo ICE CLAW ARW8</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: ('Connection aborted.', ConnectionResetError(10054, 'Удаленный хост принудительно разорвал существующее подключение', None, 10054, None))</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: ('Connection aborted.', ConnectionResetError(10054, 'Удаленный хост принудительно разорвал существующее подключение', None, 10054, None))</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Compasal Winter Stud</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: ('Connection aborted.', ConnectionResetError(10054, 'Удаленный хост принудительно разорвал существующее подключение', None, 10054, None))</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: ('Connection aborted.', ConnectionResetError(10054, 'Удаленный хост принудительно разорвал существующее подключение', None, 10054, None))</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pirelli Winter Cinturato 2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: ('Connection aborted.', ConnectionResetError(10054, 'Удаленный хост принудительно разорвал существующее подключение', None, 10054, None))</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/pirelli/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000020973F19950&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hifly HT601</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/hifly/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000020973F19E50&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/hifly/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000020973F1A5D0&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Kapsen AW33</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Описание Kapsen AW33 SnowShoesЗимняя шина Kapsen AW33 устанавливается во внедорожниках, кроссоверах и пикапах. Хороший вариант для заснеженных, очищенных сухих и мокрых дорог. Представляет собой так называемую «фрикционную» покрышку, эффективную в любых зимних условиях.Протекторный рисунок отличает чрезвычайно плотное расположение ламелей. Здесь используется несколько типов таких элементов. Волнообразные прорези с 3D-профилем вертикальных стенок соединены между собой специальными прорезями, которые ограничивают подвижность блоков. За счет этого сцепные свойства на скользкой поверхности не только усиливаются, но и становятся более стабильными. Это положительно сказывается на управляемости и контроле над автомобилем при срыве колес в скольжение. Также стоит отметить наличие каплеобразных отверстий. Они подсушивают поверхность, позволяя шине лучше цепляться за него.Основные особенности Kapsen AW33 - увеличенное пятно контакта обеспечивает надежность сцепления на сухом покрытии;- высокая плотность ламелей, применение нескольких типов таких элементов позволяет шине сохранять эффективность на любой зимней дороге;- резиновая смесь с повышенным содержанием «силики» обеспечивает эластичность и цепкость при экстремально низких температурах.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Grenlander MAHO79</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Описание Grenlander Maho79 Летняя шина Grenlander Maho79 устанавливается в пикапах и внедорожниках. Модель адресована автолюбителям, которые, несмотря на наличие в их машинах полного привода, редко съезжают с асфальта. Покрышка относится к категории High Terrain и отличается улучшенными сцепными свойствами на автомагистралях, мягким тихим ходом и топливной экономичностью.Протекторный рисунок имеет высокую плотность расположения элементов, что вкупе с оптимизированным профилем беговой части шины увеличивает пятно контакта. Это улучшает сцепные свойства и их стабильность при маневрировании. Немаловажной особенностью рисунка является увеличенное количество ламелей. Многочисленные прорези позволяют шине сохранять эффективность на мокром покрытии. Большой объем дренажных канавок снижает до минимума риск аквапланирования.Основные особенности Grenlander Maho79 - увеличенное пятно контакта и оптимизированный профиль протектора улучшают сцепление и управляемость;- большое количество ламелей и объем дренажных канавок обеспечивают эффективность на мокром покрытии;- «многошаговое» расположение протекторных элементов улучшает акустический комфорт.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Westlake SW612</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Шины нового поколенияWestLake SW612— это шины, производимые из инновационного состава резины, в которых входят всевозможные новые добавки. Это позволило улучшить ходовые характеристики, повысить износостойкость и усилить защиту от неравномерного истирания. Бесшумное и комфортное передвижение обеспечивается за счет тщательно продуманного протектора шин WestLake SW612. Особый рисунок и сложная структура протектора способствуют равномерному распределению давления.Читать полностью ить износостойкость и усилить защиту от неравномерного истирания. Бесшумное и комфортное передвижение обеспечивается за счет тщательно продуманного протектора шин WestLake SW612. Особый рисунок и сложная структура протектора способствуют равномерному распределению давления.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Описание WestLake SW612 Зимняя шина WestLake SW612 предназначена для компактных легковых автомобилей. Модель отличается приспособленностью к эксплуатации в городских условиях, в которых она демонстрирует улучшенную управляемость и сцепление, укороченный тормозной путь.Улучшенная управляемость на скользком покрытииПротекторный рисунок шины отличается достаточно открытым дизайном. Он содержит множество блоков, отделенных друг от друга широкими дренажными канавками. Они имеют сложную многоугольную форму, увеличивающую количество образуемых ими кромок. Это существенно улучшает управляемость и сцепление, особенно на скользком покрытии и при маневрировании.Уверенное поведение в снегуПлечевые блоки отличаются увеличенной длиной и поперечным расположением. При движении в рыхлом снегу эти особенности превращают их в практически полноценные грунтозацепы, обеспечивающие надежное сцепление.Эффективность при торможенииПротекторный рисунок буквально испещрен узкими прорезями, располагающимися в нескольких миллиметрах друг от друга. Все они направлены поперечно, как и образуемые ими сцепные кромки. Конечным результатом такого решения является многократно повысившаяся эффективность работы протектора в продольном направлении. Наиболее ярко это проявляется при торможении на скользком покрытии.Основные особенности шины WestLake SW612 - улучшенная управляемость на скользком покрытии обеспечивается протектором с открытым дизайном;- надежное поведение на рыхлом снегу благодаря удлиненным плечевым блокам;- укороченный тормозной путь за счет многочисленных поперечно расположенных ламелей;- возможность установки шипов позволит при необходимости улучшить сцепление на льду</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ilink Snowgripper 1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>iLINK SnowGripper I – зимняя шина для легковых автомобилей, эксплуатируемых в условиях города. Модель выделяется своей устойчивостью к заносам, прозрачностью управления на заснеженной дороге, а также стойкостью к скольжению.Рисунок протектора представлен классическим V-образным строением. Его центральную зону занимает широкая реберная структура, состоящая из отдельных блоков. Каждый из них покрыт сетью волнообразных ламелей. Такое конструктивное решение выполняет сразу несколько функций. Во-первых, поддержание сцепления на заснеженных и обледенелых участках дороги. Многочисленные кромки насечек эффективно фиксируют пятно контакта, гарантируя сохранность управления. Во-вторых, диагонально направленные канавки способствуют быстрому очищению протектора от воды, шуги и грязи.
+Наличие в составе резиновой смеси силики гарантирует поддержание свойств эластичности при отрицательных температур. А это является залогом поддержания прочного контакта с дорожным полотном.
+Основные особенности iLINK SnowGripper I
+- применимость на широком спектре легковых автомобилей, эксплуатируемых в зимний период;
+- развитая система ламелей и блоков гарантирует эффективность тяги, сцепления и торможения в любую погоду;
+- развитая система дренажа защищает от слэшинга и гидропланирования.Читать полностью Рисунок протектора представлен классическим V-образным строением. Его центральную зону занимает широкая реберная структура, состоящая из отдельных блоков. Каждый из них покрыт сетью волнообразных ламелей. Такое конструктивное решение выполняет сразу несколько функций. Во-первых, поддержание сцепления на заснеженных и обледенелых участках дороги. Многочисленные кромки насечек эффективно фиксируют пятно контакта, гарантируя сохранность управления. Во-вторых, диагонально направленные канавки способствуют быстрому очищению протектора от воды, шуги и грязи.
+Наличие в составе резиновой смеси силики гарантирует поддержание свойств эластичности при отрицательных температур. А это является залогом поддержания прочного контакта с дорожным полотном.
+Основные особенности iLINK SnowGripper I
+- применимость на широком спектре легковых автомобилей, эксплуатируемых в зимний период;
+- развитая система ламелей и блоков гарантирует эффективность тяги, сцепления и торможения в любую погоду;
+- развитая система дренажа защищает от слэшинга и гидропланирования.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Описание iLINK SnowGripper IIЗимняя шина iLINK SnowGripper II с направленным рисунком протектора и развитой ламельной системой. Устанавливается на широкий спектр легковых автомобилей, включая внедорожники. Характеризуется повышенной тягой на рыхлом снегу, высоким уровнем ездового комфорта и увеличенным сроком ходимости.В центральной зоне протектор представлен широким ребром с V-образным направлением рисунка. Дополненный большим количеством ламелей, этот элемент способствует поддержанию устойчивости транспорта на зимней дороге, обеспечивая прозрачность управления. Широкие боковые блоки с сетью насечек гарантируют уверенное маневрирование и сводят к минимуму риск заносов.Сеть ламелей в сочетании с глубокими каналами, имеющими диагональное направление, препятствуют возникновению гидропланирования и слэшинга. С их помощью осуществляется отвод воды и шуги из контактной зоны.Помимо хорошей управляемости на зимней дороге модель отличается низким уровнем издаваемого шума и свойством поглощения вибраций.Основные особенности iLINK SnowGripper II- повышенный показатель тяги на заснеженной дороге за счет многочисленных зацепов;- улучшенный водоотвод исключает аквапланирование;- направленный рисунок протектора способствует поддержанию управления при различных скоростных режимах.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Gislaved EURO*FROST 6</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Описание Gislaved Euro Frost 6Зимняя шина Gislaved Euro Frost 6 предназначена для большинства современных легковых автомобилей. Данная модель выпускается более чем в 30 типоразмерах диаметром от 13 до 20 дюймов. Отличается уверенным поведением на любых зимних дорогах, включая сухие очищенные от снега и льда.Протекторный рисунок, как и у предыдущей модели, выполнен в симметричном направленном дизайне. Ключевым отличием от нее является увеличенное количество блоков, которые для этого были уменьшены в размерах, а их форма изменена. Теперь в ней больше острых углов и прямых линий. При этом кромки блоков получили большую вариативность в углах наклона, что позволило существенно улучшить, как поперечное, так и продольное сцепление на снегу.На обледенелом и мокром покрытии устойчивость также была улучшена за счет оптимизированного угла наклона ламелей. При этом количество прорезей увеличено, а к волнообразным элементам добавились прямые. Придавая продольную подвижность блокам, они позволяют лучше контролировать тягу при разгоне и замедлении на скользком покрытии.Плечевые блоки отличаются изогнутой под не острым углом удлиненной формой. Образуемые ими кромки при торможении и разгоне уплотняют снег, улучшая сцепление с ним. При маневрировании эти элементы оказываются очень устойчивыми к деформирующему воздействию боковых сил ускорения, что придает шине стабильность.Основные особенности Gislaved Euro Frost 6- широкий размерный ряд;- симметричный направленный рисунок с увеличенным количеством блоков;- два типа ламелей улучшают сцепление на льду и мокром покрытии при любых режимах движения;- плечевые блоки с изогнутыми гранями обеспечивают эффективность при разгоне и торможении на снегу.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Leao Winter Defender Ice I-15 SUV</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Описание Leao Ice I-15 Winter Defender SUVLeao Ice I-15 Winter Defender SUV – зимняя модель для кроссоверов и внедорожников, обеспечивающая уверенное прохождение заснеженных и обледенелых участков дороги с поддержанием отзывчивости управления.Направленный симметричный рисунок протектора, разработанный с использованием методов компьютерного моделирования, обеспечивает быструю эвакуацию водных масс, а также шуги из контактной зоны. Этот фактор гарантирует повышенный уровень безопасности при езде по зимней дороге. Наличие многочисленных самоблокирующихся ламелей повышает сцепление на обледенелых участках, а острые грани блоков помогают справляться с заснеженными областями дороги.Немаловажную роль в поддержании устойчивости транспорта играет компаунд. В его составе присутствует большой процент силики, которая особенно эффективна на мокром асфальте. Помимо этого, в составе присутствуют компоненты, сохраняющие эластичность при отрицательных температурах.Основные особенности Leao Ice I-15 Winter Defender SUV- установка на широкий спектр внедорожников и кроссоверов;- надежность сцепления и короткий путь торможения за счет развитой сети ламелей и многоблочного строения протектора;- направленный рисунок эффективно отводи шугу и воды из области контакта, поддерживая сцепные характеристики.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hifly HF805</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Качественные радиальные летние шины. Тип автомобиля, для которого предназначены покрышки: легковой. Изготавливаются на заводах Hifly с использованием электронного контроля качества готовой продукции.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Описание Hifly HF805 Летняя легковая шина Hifly HF805 по праву может считаться предметом гордости одного из лидеров китайской шинной индустрии, создавшего шину, сочетающую превосходные эксплуатационные характеристики со вполне доступной ценой. Данная модель предназначена для мощных и скоростных легковых автомобилей среднего класса и рассчитана на передвижение на скоростях вплоть до 270 км/ч. Эта шина выпускается в 19 наиболее популярных типоразмерах, начиная от 205/50R16 и заканчивая 255/35R20.Одной из ключевых особенностей данной шины является асимметричный дизайн направленного рисунка протектора, состоящего из пяти продольно расположенных ребер, включая две плечевые зоны. Основным преимуществом асимметричного строения рисунка протектора является отличное сцепление при любых дорожных условиях. Благодаря асимметричности, рисунок протектора состоит как бы из двух разных частей, одна из которых направлена на обеспечение надежного и безопасного поведения в поворотах. В то же время вторая половина протектора шиныHifly HF805 ответственна за устойчивость при движении по прямым участкам.Еще одной отличительной чертой данной модели является внушительная конструкция водоотводной системы протектора, состоящей из четырех продольно расположенных канавок, две из которых  отличаются очень большими размерами. В результате китайским шинникам удалось обеспечить шине феноменальную стойкость к аквапланированию при высокоскоростном передвижении. При этом  водоотводными каналами оснащены плечевые зоны протектора, что дополнительно повышает эффективность отвода воды из пятна контакта, особенно при прохождении поворотов.Основные особенности китайской шины Hifly HF805 - исключительная стойкость к аквапланированию даже на очень высокой скорости обеспечивается высокоэффективной конструкцией дренажной системы;- превосходная управляемость и сцепление в любых дорожных условиях, благодаря асимметричному дизайну направленного рисунка протектора;- двойным центральным ребром обеспечивается феноменальная курсовая устойчивость при движении на любой скорости.- отточенная спортивная управляемость, благодаря усиленной конструкции плечевых зон.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/описание_шин.xlsx
+++ b/files/описание_шин.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,72 +1137,24 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Arivo ICE CLAW ARW8</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: ('Connection aborted.', ConnectionResetError(10054, 'Удаленный хост принудительно разорвал существующее подключение', None, 10054, None))</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: ('Connection aborted.', ConnectionResetError(10054, 'Удаленный хост принудительно разорвал существующее подключение', None, 10054, None))</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Compasal Winter Stud</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: ('Connection aborted.', ConnectionResetError(10054, 'Удаленный хост принудительно разорвал существующее подключение', None, 10054, None))</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: ('Connection aborted.', ConnectionResetError(10054, 'Удаленный хост принудительно разорвал существующее подключение', None, 10054, None))</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Pirelli Winter Cinturato 2</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: ('Connection aborted.', ConnectionResetError(10054, 'Удаленный хост принудительно разорвал существующее подключение', None, 10054, None))</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/pirelli/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000020973F19950&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Hifly HT601</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/hifly/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000020973F19E50&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/hifly/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000020973F1A5D0&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1333,6 +1285,655 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Antares Ingens A1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Внешне выглядит весьма агрессивно и оправдывает надежды на уверенное движение на любом покрытии. Antares INGENS A1 обеспечивает отличную управляемость и комфорт. Шины неоднократно были испытаны на сухом и мокром асфальте. Результаты испытаний показали что шины обеспечивают уверенность при движении, так как обладают высокими сцепными свойствами и способностью адаптироваться к различным погодным условиям.Читать полностью ом и мокром асфальте. Результаты испытаний показали что шины обеспечивают уверенность при движении, так как обладают высокими сцепными свойствами и способностью адаптироваться к различным погодным условиям.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Описание Antares Ingens a1 Летняя шина Antares Ingens a1 представляет собой высокопроизводительную модель для большинства популярных сегодня легковых автомобилей и минивэнов. Характеризуется улучшенными сцепными свойствами на мокром покрытии, комфортностью управления на любой скорости, эффективностью торможения, увеличенной ходимостью.Протекторный рисунок выделяется широким сплошным ребром посередине с нанесенным на нем названием модели. Оно является индикатором, исчезновение которого указывает на необходимость замены шины. Что касается непосредственно продольного ребра, тот этот элемент повышает точность управления и курсовую стабильность на большой скорости. В таких условиях оно взаимодействует с широкими блоками по краям. Жесткие элементы существенно усиливают эти свойства добавляя к ним устойчивость в поворотах и замедление процесса абразивного истирания протектора.Основные особенности Antares Ingens a1 - протекторный рисунок с массивными жесткими элементами, оптимизированный профиль беговой части обеспечивают комфорт в управлении и устойчивость на любой скорости;- увеличенная ширина продольных канавок, многочисленные ламели сохраняют высокими тягово-сцепные свойства на мокром покрытии;- оптимизированный компаунд устойчив к проколам и истиранию, уменьшает сопротивление качению, снижая расход топлива* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Bridgestone Ecopia EP850</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Летняя легковая шинаBridgestone Ecopia EP850является результатом стремления японского производителя расширить сферу применения линейки энергоэффективных моделей на сегмент автомобилей категории SUV. Иначе говоря, данная модель предназначена, прежде всего, для автомобилей повышенной проходимости – внедорожников и кроссоверов. Основными достоинствами новинки японской шинной индустрии является сниженное сопротивление качения и увеличенный срок службы шины, чего удалось достичь без ущерба безопасности.Новая модель получила протектор с асимметричным рисунком, строение которого не предполагает каких-либо выездов за пределы асфальтированных дорог. Протектор шины Bridgestone Ecopia EP850 состоит из пяти продольных ребер, включая обе плечевые зоны. Рисунок протектора состоит из двух частей – внутренней и внешней, разделенных между собой центральным продольным ребром. Две половинки этого элемента протектора разделены рядом четырехугольных блоков. Благодаря такому оригинальному решению, удалось обеспечить прекрасную курсовую устойчивость, а также высокую эффективность разгона, особенно на скользком покрытии. Кроме того, блоки, расположенные в центральной части протектора направлены под острым углом относительно направления движения, что также улучшает тягово-сцепные показатели шины.
+Плечевые зоны протекторы отличаются усиленной конструкцией с высокой степенью жесткости. Жесткие плечевые зоны в сочетании с их малорадиусным профилем обеспечивают максимально большую площадь пятна контакта, а также его идеально прямоугольную форму, которая оптимальным образом распределяет давление. В результате удалось добиться не только прекрасного сцепления с дорожным полотном, но и повысить стойкость протектора к неравномерному износу, что увеличило срок службы шины.
+Основные особенности летней шины Bridgestone Ecopia EP850:
+— Ассиметричный направленный рисунок протектора обеспечивает не только превосходное сцепление в любых условиях, но и исключительно низкое сопротивление качения;
+— Резиновая смесь, состав которой отличается наличием силики и специальных полимеров в верхнем слое протектора, которые за счет снижения внутреннего трения в материале уменьшают нагрев шины и сопротивление качения;
+— Большое количество блоков в центральной части протектора, расположенных под острым углом по направлению движения позволили добиться отличных тягово-сцепных показателей;
+— Жесткая конструкция плечевых зон, за счет чего повысилась стойкость протектора к неравномерному износу, а также улучшились характеристики управляемости.Читать полностью Новая модель получила протектор с асимметричным рисунком, строение которого не предполагает каких-либо выездов за пределы асфальтированных дорог. Протектор шины Bridgestone Ecopia EP850 состоит из пяти продольных ребер, включая обе плечевые зоны. Рисунок протектора состоит из двух частей – внутренней и внешней, разделенных между собой центральным продольным ребром. Две половинки этого элемента протектора разделены рядом четырехугольных блоков. Благодаря такому оригинальному решению, удалось обеспечить прекрасную курсовую устойчивость, а также высокую эффективность разгона, особенно на скользком покрытии. Кроме того, блоки, расположенные в центральной части протектора направлены под острым углом относительно направления движения, что также улучшает тягово-сцепные показатели шины.
+Плечевые зоны протекторы отличаются усиленной конструкцией с высокой степенью жесткости. Жесткие плечевые зоны в сочетании с их малорадиусным профилем обеспечивают максимально большую площадь пятна контакта, а также его идеально прямоугольную форму, которая оптимальным образом распределяет давление. В результате удалось добиться не только прекрасного сцепления с дорожным полотном, но и повысить стойкость протектора к неравномерному износу, что увеличило срок службы шины.
+Основные особенности летней шины Bridgestone Ecopia EP850:
+— Ассиметричный направленный рисунок протектора обеспечивает не только превосходное сцепление в любых условиях, но и исключительно низкое сопротивление качения;
+— Резиновая смесь, состав которой отличается наличием силики и специальных полимеров в верхнем слое протектора, которые за счет снижения внутреннего трения в материале уменьшают нагрев шины и сопротивление качения;
+— Большое количество блоков в центральной части протектора, расположенных под острым углом по направлению движения позволили добиться отличных тягово-сцепных показателей;
+— Жесткая конструкция плечевых зон, за счет чего повысилась стойкость протектора к неравномерному износу, а также улучшились характеристики управляемости.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Описание Bridgestone Ecopia EP850 Летняя легковая шина Bridgestone Ecopia EP850 является результатом стремления японского производителя расширить сферу применения линейки энергоэффективных моделей на сегмент автомобилей категории SUV. Иначе говоря, данная модель предназначена, прежде всего, для автомобилей повышенной проходимости – внедорожников и кроссоверов. Основными достоинствами новинки японской шинной индустрии является сниженное сопротивление качения и увеличенный срок службы шины, чего удалось достичь без ущерба безопасности.Новая модель получила протектор с асимметричным рисунком, строение которого не предполагает каких-либо выездов за пределы асфальтированных дорог. Протектор шиныBridgestone Ecopia EP850 состоит из пяти продольных ребер, включая обе плечевые зоны. Рисунок протектора состоит из двух частей – внутренней и внешней, разделенных между собой центральным продольным ребром. Две половинки этого элемента протектора разделены рядом четырехугольных блоков. Благодаря такому оригинальному решению, удалось обеспечить прекрасную курсовую устойчивость, а также высокую эффективность разгона, особенно на скользком покрытии. Кроме того, блоки, расположенные в центральной части протектора направлены под острым углом относительно направления движения, что также улучшает тягово-сцепные показатели шины.Плечевые зоны протекторы отличаются усиленной конструкцией с высокой степенью жесткости. Жесткие плечевые зоны в сочетании с их малорадиусным профилем обеспечивают максимально большую площадь пятна контакта, а также его идеально прямоугольную форму, которая оптимальным образом распределяет давление. В результате удалось добиться не только прекрасного сцепления с дорожным полотном, но и повысить стойкость протектора к неравномерному износу, что увеличило срок службы шины.Основные особенности летней шины Bridgestone Ecopia EP850 - Ассиметричный направленный рисунок протектора обеспечивает не только превосходное сцепление в любых условиях, но и исключительно низкое сопротивление качения;- Резиновая смесь, состав которой отличается наличием силики и специальных полимеров в верхнем слое протектора, которые за счет снижения внутреннего трения в материале уменьшают нагрев шины и сопротивление качения;- Большое количество блоков в центральной части протектора, расположенных под острым углом по направлению движения позволили добиться отличных тягово-сцепных показателей;- Жесткая конструкция плечевых зон, за счет чего повысилась стойкость протектора к неравномерному износу, а также улучшились характеристики управляемости.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Tigar SUV Winter</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/tigar/ (Caused by ProxyError('Unable to connect to proxy', ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0x0000022A13D40050&gt;, 'Connection to 45.88.208.93 timed out. (connect timeout=30)')))</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Описание Tigar SUV Winter Зимняя шина для внедорожников и кроссоверов Tigar SUV Winter появилась в ассортименте сербского бренда совсем недавно. Как и предыдущие модели, она характеризуется высокими для своего ценового сегмента эксплуатационными свойствами. Это было достигнуто применением современных материалов и технических решений, а также тем, что разработкой занимались специалисты компании Michelin.Надежное сцепление без шиповШина оснащена протектором без шипов. Их отсутствие компенсируется несколькими конструктивными особенностями. Большая часть сцепных свойств на скользком покрытии обеспечивается ламелями. Узкие прорези располагаются на расстоянии нескольких миллиметров друг от друга, что позволило увеличить численность граней, которыми шина может зацепиться за дорожное покрытие до нескольких тысяч. Помимо количества эффективность работы ламелей существенно увеличена расположением под наклоном, а также их формой. В плечевых зонах они выполнены волнообразными, а в центральной части – имеют остроугольные изгибы.Еще одним фактором, усиливающим сцепление на зимнем покрытии, является резиновая смесь, которая применяется при изготовлении шины. Более чем, на две трети она состоит из силики. Этот компонент придает шине эластичность при температуре окружающей среды, ниже 0 градусов по Цельсию. Данная особенность позволяет протектору более плотно прилегать к дорожному полотну, обеспечивая лучшее сцепление с ним.Надежность на плохих дорогахДанная модель характеризуется и надежностью и мягким комфортным ходом. Это обусловлено тем, что ее изначально разрабатывали для внедорожников и кроссоверов. Именно по этой причине здесь нет усиленных боковин, как у аналогов от многих других брендов, предпочитающих приспособить уже имеющуюся «легковую» шину. Вместо этого разработчики предпочли создать покрышку с «нуля», включая каркас. Он выполнен двойным. Дополнительный корд обеспечивает покрышке не только увеличенную несущую способность, но и высокую устойчивость к ударным воздействиям.Основные особенности шины Tigar SUV Winter - устойчивость на большой скорости, благодаря широким продольно расположенным протекторным блокам;- высокая плотность ламелизации улучшает сцепные свойства на скользком покрытии;- двойной каркас гарантирует надежность на плохих дорогах</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Delinte Winter WD6</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Описание Delinte WD6Зимняя шина Delinte WD6 устанавливается в компактных легковых автомобилях. Адаптирована к эксплуатации в городских условиях. Отличается эффективностью на дорожном покрытии с любыми характеристиками сцепления, сниженным расходом топлива и длительным сроком службы.Беговая часть протектора отличается направленным расположением элементов. В центральной части это мелкие блоки. Их расположение в шахматном порядке увеличивает размеры пятна контакта и обеспечивает равномерность распределения нагрузки по дорожной поверхности. Образуемые этими блоками поперечные кромки имеют наклон, увеличивающий их протяженность. В результате повышается тяговое усилие и эффективность торможения на снегу. На обледенелом покрытии эти качества существенно улучшаются многочисленными синусообразными ламелями.Основные особенности:- дизайн центральной части с мелкими блоками повышает тяговое усилие и эффективность торможения на снегу, увеличивает пятно контакта;- несколько тысяч синусообразных ламелей обеспечивают эффективность на льду;- увеличенная ширина дренажных канавок в плечевых зонах снижает риск аквапланирования и слэшпленнинга.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Massimo Velocita U1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Описание Massimo Velocita U1 Летняя шина для легковых автомобилей Massimo Velocita U1 предназначена для наиболее динамичных моделей. Отличается отменным сцеплением на любой скорости, повышенной точностью управления, эффективностью торможения на сухом и мокром покрытии.Направленный рисунок протектора выделяется V-образным расположением части дренажных элементов. Такое решение существенно повышает устойчивость к аквапланированию, наряду с увеличенным объемом продольных канавок. Другой важной особенностью рисунка является наличие массивного продольного ребра посередине протектора. Этот элемент обеспечивает отличную устойчивость комфортность управления при движении на большой скорости, уменьшая при этом сопротивление качению и препятствуя быстрому истиранию.Основные особенности Massimo Velocita U1 - V-образное расположение дренажных элементов повышает устойчивость к гидропленнингу;- жесткое продольное ребро посередине повышает курсовую стабильность и обеспечивает комфортность управления при движении на высокой скорости;- массивные блоки по краям и особый профиль плечевых зон обеспечивают отличную устойчивость при маневрировании.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roadcruza RA 3200 </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kumho WinterCraft WP71</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Описание Kumho Wintercraft WP71 Зимняя шина Kumho Wintercraft WP71 является одной из последних новинок южнокорейского производителя. В отличие от предыдущих моделей эта покрышка разрабатывалась с учетом специфичных условий эксплуатации в странах Северной Европы и России. Благодаря этому данная шина демонстрирует куда лучшее, чем у предшественников, сцепление на снегу и льду, а также демонстрируя хорошую производительность на очищенных асфальтированных дорогах.Одним из ключевых отличий данной модели является увеличенное количество блоков. Добиться этого удалось за счет значительного уменьшения их в размерах. Кроме того, их форма и расположение были подобраны таким образом, чтобы обеспечить пятно контакта максимально длинными и разнонаправленными кромками сцепления. При этом располагающиеся между блоками дренажные канавки позволяют протектору уплотнять и удерживать значительное количество снега, что улучшает сцепные свойства.Следующей характерной особенностью протектора этой шины является дизайн стенок ламелей. В вертикальном разрезе они напоминают пчелиные соты. Многочисленные выступы сохраняют жесткость блоков при открытии ламелей, благодаря чему повышается сцепление на обледенелом покрытии.Основные особенности шины Kumho Wintercraft WP71 - улучшенные сцепные свойства на снегу обеспечиваются увеличенным количеством блоков;- трехмерные ламели HoneyComb повышают эффективность на льду, одновременно улучшая управляемость на сухих покрытиях;- эластичная при очень низких температурах резиновая смесь остается стабильной при нагреве;- V-образное расположение дренажных канавок вкупе с их большой шириной обеспечивает стойкость к аквапланированию и слэшпленнингу.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>GoodYear UltraGrip Arctic 2</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Превосходное сцепление на льду без дополнительного ущерба дорожному покрытию обеспечивается благодаря уменьшенному весу и размеру шипа. Улучшенное сцепление с заснеженной дорогой обеспечивают широкиеканавки в центральной и плечевой зонах, а также высокая плотность зигзагообразных ламелей. Надежное удержание шипа в протекторе и увеличенный срок службы шины обеспечивается с помощью инновационной формы основания шипа в виде якоря. Снижение уровня шума на 9% достигается за счет оптимизированного распределения шипов по протектору и специальной абсорбирующей подушке.Читать полностью канавки в центральной и плечевой зонах, а также высокая плотность зигзагообразных ламелей. Надежное удержание шипа в протекторе и увеличенный срок службы шины обеспечивается с помощью инновационной формы основания шипа в виде якоря. Снижение уровня шума на 9% достигается за счет оптимизированного распределения шипов по протектору и специальной абсорбирующей подушке.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Описание Goodyear Ultragrip Arctic 2 SUVЗимняя шипованная шина Goodyear Ultragrip Arctic 2 SUV предназначена для кроссоверов, пикапов и внедорожников. Разработана на базе одноименной «легковой» покрышки, при идентичном дизайне протекторного рисунка отличаясь от нее конструкцией, адаптированной под большой вес и высоко расположенный центр масс полноприводных автомобилей. Соответственно, все ходовые качества остались прежними. Шина демонстрирует отменные сцепные свойства на обледенелом покрытии, улучшенной управляемостью и эффективностью при торможении, длительным сроком службы.Ключевым отличием от предыдущей модели является численность шипов. С прежних 130 (в среднем, в зависимости от размерности) она была увеличена до 220 штук. Чтобы добиться этого, их размеры и вес были существенно уменьшены — на 10 и 21% соответственно. Результатом такого нововведения стало существенное улучшение сцепных свойств на обледенелом покрытии. Именно это было «слабым местом» предыдущей модели после появления на рынке аналогичных покрышек от A-брендов. Помимо веса и размера заметно изменилась конструкция шипа. Его твердосплавная вставка сохранила многоугольную форму. Поменялась конфигурация основания шипа, которая теперь похожа на орлиную ламу, что дало повод маркетологам назвать данное технологическое решениеArctic Eagle Claw. Непосредственно под стальным элементом имеется специальная абсорбирующая подушка. Ее эластичность уменьшает ударное воздействие шипа на дорожную поверхность, уменьшая шум при движении.Протекторный рисунок также претерпел значительные изменения. Он сохранил «классический» для шин бренда дизайн V-Tread, но размеры блоков были существенно уменьшены, что позволило увеличить их количество. Такое решение улучшает тягово-сцепные свойства, устойчивость на заснеженных покрытиях.Основные особенности Goodyear Ultragrip Arctic 2 SUV- увеличенное количество шипов улучшает сцепление на обледенелом покрытии;- треугольное основание шипа снижает риск его выпадения из протектора;- специальная подушка под шипами и оптимизированное расположение стальных элементов повышает акустический комфорт при движении- увеличенное количество блоков обеспечивает надежное сцепление и управляемость на заснеженном покрытии.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Continental VanContact Viking </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Для всех типов вэнов в зимнее время.Повышенная безопасность в любых зимних условиях.Превосходные характеристики ходимости на зимних и мокрых дорогах благодаря оптимизированной резиновой смеси Nordic MatrixОтличная защита от аквапланирования благодаря интеллектуальному рисунку протектора 
+Отличная управляемость на снегу и на льду благодаря уловителям снега и инновационному дизайну ламелейЧитать полностью Отличная защита от аквапланирования благодаря интеллектуальному рисунку протектора 
+Отличная управляемость на снегу и на льду благодаря уловителям снега и инновационному дизайну ламелей</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Описание Continental ContiVanContact VikingКоммерческая шина Continental ContiVanContact Viking  предназначена для грузовых автомобилей и автобусов малой вместимости. Выгодно отличается отменной эффективностью на мокром, обледенелом и заснеженном покрытии, длительным сроком службы в самых сложных условиях эксплуатации.Укороченный тормозной путь на любом зимнем покрытииБеговая часть протектора выполнена в открытом дизайне с симметричным ненаправленным расположением элементов. Значительная их часть представлена крупными блоками. Образуемые ими поперечные кромки имеют большую протяженность, что в сочетании с увеличенной глубиной протектора гарантирует эффективность при торможении на снегу. На сухом асфальте это свойство в полной мере сохраняется за счет больших размеров блоков, увеличивающих зону протектора, контактирующую с дорожной поверхностью. На льду эффективность замедления обеспечивается многочисленными поперечными кромками, образуемыми синусообразными ламелями. В каждом блоке имеется по несколько таких прорезей.Увеличенный срок службы и стабильность сцепных свойствВ боковой проекции беговая часть шины имеет крайне малую кривизну. Под воздействием веса автомобиля и перевозимого им груза это решение позволяет значительно увеличить площадь зоны  протектора, контактирующей с дорожной поверхностью. При этом она принимает практически квадратную форму, обеспечивая равномерность распределения нагрузки по покрытию. В результате сцепные свойства не только усиливаются, но и становятся более стабильными, а уровень абразивного воздействия значительно уменьшается, увеличивая тем самым срок службы шины.Эффективная тяга и устойчивость на заснеженном и обледенелом покрытииПри изготовлении беговой части протектора используется резиновая смесь, свойства которой были специально подобраны с учетом эксплуатации малотоннажной грузовой техники в зимних условиях. В частности, в состав компаунда входят кремнийсодержащие вещества, которые обеспечивают протектору эластичность при экстремально низких температурах. Специальные полимеры на молекулярном уровне повышают его прочность на разрыв и растяжение, что положительно сказывается на надежности шины, особенно при длительном движении на большой скорости.Основные особенности Continental ContiVanContact Viking- отменная эффективность замедления на любом зимнем покрытии благодаря значительной протяженности и высоте блоков, наличию многочисленных ламелей;- увеличенный срок службы и стабильность сцепных свойств обеспечивается оптимизированным профилем беговой части протектора;- высокое тяговое усилие и устойчивость на зимнем покрытии благодаря дизайну протекторного рисунка и свойствам резиновой смеси, сохраняющимся в очень широком диапазоне температур.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Triangle TR757 (без шипов)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Описание Triangle TR757 (Нешип)Зимняя шина Triangle TR757 подходит большинству компактных легковых автомобилей. Нешипованная модель характеризуется улучшенным сцеплением и интенсивностью торможения на заснеженном покрытии, наряду с акустическим комфортом и длительностью срока службы.Протекторный рисунок выполнен в так называемом «скандинавском» дизайне с V-образным расположением дренажных канавок. Значительная их часть направлена против движения. Наряду с их увеличенными размерами, это существенно уменьшает риск аквапланирования и слэшпленнинга. Расположенное по центру стреловидное ребро повышает курсовую стабильность и точность в управлении на большой скорости. Протектор располагает многочисленными поперечными гранями. Они удлинены, за счет чего  на снегу обеспечивается высокое тяговое усилие. Эффективность на обледенелом покрытии поддерживается зигзагообразными прорезями, образующими дополнительные сцепные кромки.Основные особенности:- увеличенные размеры и направленность против движения дренажных канавок обеспечивают уверенное поведение при неблагоприятных дорожных и погодных условиях;- зигзагообразные кромки ламелей повышают тяговое усилие и интенсивность торможения на обледенелой поверхности;- стреловидное ребро по центру улучшает управляемость и курсовую устойчивость на большой скорости.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michelin Agilis Alpin</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Новые зимние шины Michelin Agilis Alpin для коммерческого тарнспортаMichelin продолжает заботиться о безопасности транспортных перевозок, в том числе и зимой, когда значительно сложнее сохранять сцепление с дорогой.Новые Michelin Agilis Alpin еще раз демонстрируют стремление компании сделать езду в зимний период более безопасной. Чтобы достичь поставленной цели, команда разработчиков создала шины, которые обладают исключительными свойствами по трем основным параметрам – безопасность, долговечность и прочность. Новые Agilis Alpin стали настоящим прорывом в этой области, что позволит водителям легче и безопаснее справляться со сложными зимними условиями.БезопасностьНовые Michelin Agilis Alpin позволяют сократить длину тормозного пути на мокрой или заледенелой дороге почти на 2 метра, тогда как уровень сцепления на снегу вырос на 25%.Снижение затратЭксплуатационный срок новых Agilis Alpin вырос на 20% по сравнению с предшествующей моделью Michelin Agilis 81 Snow Ice. Это значительно сокращает расходы автопарков легкогрузового транспорта, связанные с заменой шин.ПрочностьНовые Michelin Agilis Alpin обладают усиленными боковинами, как и уже ставшие популярными летние Michelin Agilis. В то же время боковые зоны новых шин более устойчивы к царапинам от соприкосновения с бордюрами.
+Путем использования целого ряда новых технологий Michelin удалось создать шины, которые обеспечивают полную функциональность легкогрузового транспорта независимо от погодных условий.
+Шины Michelin Agilis Alpin созданы с применением сразу нескольких инновационных технологий, разработанных, чтобы удовлетворить потребности водителей легкогрузового транспорта.Оригинальный рисунок протектора, улучшающий сцеплениеБлагодаря многочисленным канавкам в плечевых зонах и широко расставленным блокам протектора Michelin Agilis Alpin обладают более высоким уровнем сцепления на снегу.
+Специальные блоки протектора более эффективно отбрасывают снег в сторону, при этом цепляясь за поверхность и улучшая сцепление.Увеличенное пятно контакта для лучшего сцепления на льдуТехнология Durable Contact Patch, разработанная для грузовых шин Michelin , делает пятно контакта более квадратным и увеличивает площадь контакта с дорогой на 27% по сравнению с Michelin Agilis 81 Snow Ice. Эта особенность позволяет лучше сохранять сцепление на заледенелой дороге.Повышенная устойчивость благодаря технологии StabiliGripКоличество ламелей протектора выросло на 16% по сравнению с предыдущей моделью. Ламели действуют как «когти», вцепляясь в дорожное покрытие и повышая сцепление.
+Ламели изгибаются под прямым углом, и такая форма позволяет усилить жесткость блоков протектора. Все ламели замыкаются друг на друге, что тоже делает блоки более прочными. В результате повышается общая устойчивость автомобиля вне зависимости от того, какое усилие оказывается на него – продольное при разгоне или торможении, или поперечное при прохождении поворотов. Это также благоприятно сказывается на управляемости.Защита от повреждений при наезде на бордюрХотя Michelin Agilis 81 Snow Ice уже отличались исключительной прочностью, новые шины стали еще совершеннее в этом плане. Главной целью разработчиков была минимизация повреждений, вызванных наездом на бордюр в городских условиях.
+Восемь защитных «щитков» на боковине шины способны предотвратить повреждения и, соответственно, увеличить эксплуатационный срок шины. Кроме этого, была усилена и внутренняя конструкция каркаса.Читать полностью Новые Michelin Agilis Alpin еще раз демонстрируют стремление компании сделать езду в зимний период более безопасной. Чтобы достичь поставленной цели, команда разработчиков создала шины, которые обладают исключительными свойствами по трем основным параметрам – безопасность, долговечность и прочность. Новые Agilis Alpin стали настоящим прорывом в этой области, что позволит водителям легче и безопаснее справляться со сложными зимними условиями.БезопасностьНовые Michelin Agilis Alpin позволяют сократить длину тормозного пути на мокрой или заледенелой дороге почти на 2 метра, тогда как уровень сцепления на снегу вырос на 25%.Снижение затратЭксплуатационный срок новых Agilis Alpin вырос на 20% по сравнению с предшествующей моделью Michelin Agilis 81 Snow Ice. Это значительно сокращает расходы автопарков легкогрузового транспорта, связанные с заменой шин.ПрочностьНовые Michelin Agilis Alpin обладают усиленными боковинами, как и уже ставшие популярными летние Michelin Agilis. В то же время боковые зоны новых шин более устойчивы к царапинам от соприкосновения с бордюрами.
+Путем использования целого ряда новых технологий Michelin удалось создать шины, которые обеспечивают полную функциональность легкогрузового транспорта независимо от погодных условий.
+Шины Michelin Agilis Alpin созданы с применением сразу нескольких инновационных технологий, разработанных, чтобы удовлетворить потребности водителей легкогрузового транспорта.Оригинальный рисунок протектора, улучшающий сцеплениеБлагодаря многочисленным канавкам в плечевых зонах и широко расставленным блокам протектора Michelin Agilis Alpin обладают более высоким уровнем сцепления на снегу.
+Специальные блоки протектора более эффективно отбрасывают снег в сторону, при этом цепляясь за поверхность и улучшая сцепление.Увеличенное пятно контакта для лучшего сцепления на льдуТехнология Durable Contact Patch, разработанная для грузовых шин Michelin , делает пятно контакта более квадратным и увеличивает площадь контакта с дорогой на 27% по сравнению с Michelin Agilis 81 Snow Ice. Эта особенность позволяет лучше сохранять сцепление на заледенелой дороге.Повышенная устойчивость благодаря технологии StabiliGripКоличество ламелей протектора выросло на 16% по сравнению с предыдущей моделью. Ламели действуют как «когти», вцепляясь в дорожное покрытие и повышая сцепление.
+Ламели изгибаются под прямым углом, и такая форма позволяет усилить жесткость блоков протектора. Все ламели замыкаются друг на друге, что тоже делает блоки более прочными. В результате повышается общая устойчивость автомобиля вне зависимости от того, какое усилие оказывается на него – продольное при разгоне или торможении, или поперечное при прохождении поворотов. Это также благоприятно сказывается на управляемости.Защита от повреждений при наезде на бордюрХотя Michelin Agilis 81 Snow Ice уже отличались исключительной прочностью, новые шины стали еще совершеннее в этом плане. Главной целью разработчиков была минимизация повреждений, вызванных наездом на бордюр в городских условиях.
+Восемь защитных «щитков» на боковине шины способны предотвратить повреждения и, соответственно, увеличить эксплуатационный срок шины. Кроме этого, была усилена и внутренняя конструкция каркаса.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Описание Michelin Agilis Alpin Зимние нешипованные шины Michelin Agilis Alpin являются лишним подтверждением стремлению одного из мировых лидеров шинной индустрии обеспечить высокий уровень безопасности движения в зимний период. Данная модель, предназначенная для малотоннажного коммерческого транспорта, отличается повышенной прочностью, долгим сроком службы и высоким уровнем безопасности.Благодаря инновационному дизайну симметричного ненаправленного рисунка протектора, по сравнению с предшественницей моделью Agilis 81 Snow Ice удалось существенно уменьшить тормозной путь на скользкой дороге, а также значительно улучшить сцепление на различных типах поверхности. Кроме этого, срок службы шины вырос на 20%, что весьма много, учитывая предназначение шины.Одной из ключевых особенностей дизайна рисунка протектора является наличие в плечевых зонах множества канавок и блоков, за счет которых удалось обеспечить проходимость шиныMichelin Agilis Alpin по глубокому снегу. Кроме этого, блоки оригинальная форма блоков плечевых зон способствует отбрасыванию снега в сторону, что позволяет обеспечивать более надежное сцепление.В целях обеспечения лучшего сцепления при движении по обледенелым поверхностям французскими шинными инженерами была применена технология Durable Contact Patch, за счет которой удалось придать пятну контакта квадратную форму, что привело к увеличению площади пятна контакта почти на треть.Кроме этого, в данной модели была использована еще одна инновационная разработка компании, а именно технология StabiliGrip, ранее применявшаяся в основном в легковых зимних шинах. Данная технология предполагает оснащение протектора шины увеличенным количеством ламелей, которые замыкаются друг на друге в зависимости от усилия, прилагаемого к шине при разгоне или торможении.Основные особенности Michelin Agilis Alpin - увеличенное, благодаря технологии Durable Contact Patch, пятно контакта обеспечивает более надежное сцепление на различных типах поверхности;- множество трехмерных ламелей StabiliGrip обеспечивают за счет многочисленных кромок отличное сцепление с обледенелым покрытием, а также увеличивают жесткость всех элементов протектора;- прекрасная защищенность от различного механического воздействия, благодаря прочному двойному каркасу, а также специальным вставкам, предохраняющим боковины от повреждения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>GT SAVERO SUV</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/gt/ (Caused by ProxyError('Unable to connect to proxy', ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0x000001D1837CE850&gt;, 'Connection to 195.69.150.68 timed out. (connect timeout=30)')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Nokian Hakkapeliitta R2 SUV</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nokian Hakkapeliitta R2 SUV – Комфорт в сложных климатических условиях и превосходная курсовая устойчивость.Помимо новых зимних шин для легковых автомобилей компания Nokian Tyres выводит на рынок в 2013 году новую фрикционную (нешипованную) шину Nokian Hakkapeliitta R2 SUV для городских внедорожников. Надёжное зимнее сцепление новинки обеспечивает уверенную проходимость, чуткость управления и комфорт при вождении.В этой SUV-шине используются те же прогрессивные технические решения, которые реализованы в шине Nokian Hakkapeliitta R2 для легковых автомобилей. Спроектированная для активной эксплуатации универсальная фрикционная новинка в семействе зимних шин Nokian Hakkapeliitta аккумулирует передовой мировой опыт в области разработки зимних шин.
+Резиновая смесь шины имеет отличные характеристики износостойкости, в неё добавлено экологически чистое сурепное масло, которое улучшает сцепление на льду и снегу, а также повышает прочность на разрыв. По результатам тестов уникальная резиновая смесь поднимает сцепление фрикционных шин на новый уровень
+Полный ассортимент Nokian Hakkapeliitta R2 SUV включает 47 типоразмеров шин с диаметром колеса от 15 до 21 дюйма. В ассортимент входят также шины, изготовленные по технологии Flat Run. Новая шина Nokian Hakkapeliitta R2 SUV будет доступна в шинных центрах и автосалонах с осени 2013 года.Читать полностью В этой SUV-шине используются те же прогрессивные технические решения, которые реализованы в шине Nokian Hakkapeliitta R2 для легковых автомобилей. Спроектированная для активной эксплуатации универсальная фрикционная новинка в семействе зимних шин Nokian Hakkapeliitta аккумулирует передовой мировой опыт в области разработки зимних шин.
+Резиновая смесь шины имеет отличные характеристики износостойкости, в неё добавлено экологически чистое сурепное масло, которое улучшает сцепление на льду и снегу, а также повышает прочность на разрыв. По результатам тестов уникальная резиновая смесь поднимает сцепление фрикционных шин на новый уровень
+Полный ассортимент Nokian Hakkapeliitta R2 SUV включает 47 типоразмеров шин с диаметром колеса от 15 до 21 дюйма. В ассортимент входят также шины, изготовленные по технологии Flat Run. Новая шина Nokian Hakkapeliitta R2 SUV будет доступна в шинных центрах и автосалонах с осени 2013 года.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Описание Nokian Hakkapeliitta R2 SUV Помимо аналогичных решений для легковых автомобилей финский производитель приготовил для будущего зимнего сезона новую фрикционную шину для кроссоверов и городских внедорожников. Новинка называется Nokian Hakkapeliitta R2 SUV и в ней использованы все те же прогрессивные технические решения, которые чуть ранее нашли применение в шине с таким же названием, но без приставки SUV.Технология Nokian Cryo Crystal в скандинавской шинеПод этим названием скрывается сочетание нового рисунка протектора и инновационной резиновой смеси, разработанной специально для новейших зимних шин. Одним из основных нововведений резиновой смеси стали многогранные частицы, форма которых напоминает кристаллы. Эти частицы буквально вгрызаются в поверхность обледенелого дорожного полотна, обеспечивая с ним более надежное сцепление. При этом износ шины оказывает минимальное влияние на сцепные характеристики, благодаря измененной технологии приготовления резиновой смеси, обеспечившей более равномерное распределение частиц-кристаллов.Помимо них, в составе протекторной смеси присутствует силика, криосилан, сурепное масло и натуральный каучук, оптимальное соотношение между которыми позволило добиться превосходного сцепления, как на льду и снегу, так и на мокрой дороге. Кроме того, протектор стал более стойко сопротивляться износу и усилию на разрыв, благодаря применению экологически чистого сурепного масла. Тестирование в реальных условиях показало, что новая резиновая смесь смогла существенно сократить разницу между нешипованными и шипованными шинами, особенно на обледенелых покрытиях.Новый рисунок протектораДля кроссоверов и внедорожников очень большое значение имеет сбалансированность сцепных характеристик и управляемости. Ко всему прочему, они должны быть стабильными и давать возможность водителю оперативно реагировать на изменения дорожной обстановки.Новинка получила более агрессивный, по сравнению с предыдущей моделью, рисунок протектора, отличающийся увеличенным количеством ламелей. Благодаря этому, пятно контакта стало располагать большим количеством острых кромок, что позволило значительно улучшить сцепление с обледенелым покрытием. При этом ламели стали шире, что позволило обеспечить более надежный захват неровностей на льду, а расположенные в плечевых зонах открывающиеся канавки стали лучше очищать протектор от снежной шуги.С той же целью финские шинники сделали стенки боковых дренажных канавок полированными, что позволило протектору более эффективно избавляться от снега. Кроме того, в плечевых зонах расположены специальные зубцы, которые легко проникая через снежную шугу, цепляются за твердую поверхность, обеспечивая тем самым более надежное сцепление с дорогой, покрытой талым снегом.Повышению сцепления на заснеженной дороге поспособствовали активаторы ламелей, которые расположены теперь не только в плечевых зонах протектора, но и в центральной его части. При соприкосновении с поверхностью дорожного полотна ламели раскрываются, создавая тем самым дополнительные кромки сцепления, что делает контакт шины с дорогой более надежным.Данная модель, как и другие шины этого финского производителя, оснащена запатентованными ламелями-насосами, которые повышают эффективность работы дренажной системы. Однако эта шина получила ламели-насосы увеличенной емкости, что позволило увеличить объемы воды, отводящейся из пятна контакта. В результате сцепление на мокрой дороге стало еще более эффективным.В этой шине центральное ребро объединено с протекторными блоками, расположенными с ним по соседству. Это решение позволило значительно увеличить жесткость центральной части протектора, что придало шине целый ряд достоинств. Прежде всего, улучшилась курсовая устойчивость, что сделало передвижение по зимним дорогам более безопасным. Кроме того, распределение внешнего давления стало более равномерным, благодаря чему управляемость шиныNokian Hakkapeliitta R2 SUV приобрела стабильность и предсказуемость. В результате водитель получил возможность более объективно оценивать характеристики сцепления с дорожным полотном, оперативно принимать меры при их изменении. Кроме того, за счет более жесткой центральной части внешнее давление стало более равномерно распределяться по пятну контакта, что повысило стойкость протектора к преждевременному износу.Значительно снизилась вибронагруженность. Этого удалось добиться, благодаря многослойности протектора, в котором внешний слой изготовлен из более эластичной резиновой смеси, а внутренние слои сделаны более жесткими. За счет этого удается более эффективно смягчать удары и вибрации, возникающие при проезде через неровности.Driving Safety IndicatorНаличие на протекторе индикаторов износа протектора DSI значительно повысили комфорт в повседневном использовании шины. Его основное функциональное предназначение заключается в том, чтобы показать водителю остаточную глубину протекторного рисунка. По мере износа с поверхности протектора исчезают соответствующие цифры. Исчезновение индикатора в виде снежинки означает, что глубина протекторного рисунка составляет менее 4 мм и шина более не пригодна для эксплуатации в зимних условиях.Основные особенности шины Nokian Hakkapeliitta R2 SUV - Более агрессивный, по сравнению с предшественницей, симметричный направленный рисунок обеспечивает превосходное сцепление с любым зимним покрытием;- Новые частицы-кристаллы, равномерно распределенные в резиновой смеси, обеспечивают более надежные сцепные характеристики на льду;- Увеличенное количество ламелей, благодаря чему пятно контакта стало располагать дополнительными кромками сцепления;- Специальные зубцы между протекторными блоками обеспечивают более высокую стойкость к сплэшплэнингу;- Ламели-насосы позволили значительно улучшить отвод воды из пятна контакта, обеспечив тем самым более надежное сцепление с мокрой дорогой.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Barum Bravuris 4x4</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ШиныBravurisидеально подходят для внедорожников и для водителей, которые знают толк в автомобилях 4x4! Эти мощные шины – великолепное сочетание высокого уровня безопасности, динамичности и качества по отличной цене! Они созданы для эксплуатации, как на дорожном покрытии, так и в условиях легкого бездорожья, как на сухом, так и на мокром покрытии. Шины Bravuris  - это гарантия долгого срока эксплуатации, высокого уровня комфорта и динамичности. Это покупка, которая полностью себя окупаетЧитать полностью чества по отличной цене! Они созданы для эксплуатации, как на дорожном покрытии, так и в условиях легкого бездорожья, как на сухом, так и на мокром покрытии. Шины Bravuris  - это гарантия долгого срока эксплуатации, высокого уровня комфорта и динамичности. Это покупка, которая полностью себя окупает</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Описание Barum Bravuris 4x4 Barum Bravuris 4x4 — это летняя шина для внедорожников и кроссоверов. Применительно к российским погодным условиям эта покрышка, в отличие от эксплуатации в западных странах с куда более мягким климатом, может использоваться исключительно зимой — кроме разве что южных районов страны. Эта модель одинаково хорошо подходит как для езды в черте города, так и для передвижения по бездорожью. Она подходит для широкого спектра автомобилей, в том числе для таких популярных моделей, как Hyundai Tucson, Mercedes M-Class и Porsche Cayenne.Одной из главных особенностей и, одновременно с этим, преимуществ этой покрышки над остальными подобного класса является увеличенный эксплуатационный срок. Это стало возможным благодаря равномерному распределению давления по всей площади контакта с дорожной поверхностью.Дизайн рисунка протектора составляют три центральных ребра, которые обеспечивают четкую реакцию транспортного средства на рулевое управление и отличную его маневренность.ТакжеBarum Bravuris 4x4 характеризуется отличным сцеплением на мокрой дороге и высоким сопротивлением аквапланированию. Последнему способствуют четыре кольцевых продольных канала, которые сначала собирают влагу, а затем выводят ее через канавки на открытой боковине. По словам разработчиков, таким образом достигается непревзойденный уровень безопасности на мокрой дороге — как при прямолинейном движении, так и при прохождении поворотов.Еще одно направление работы инженеров, разрабатывающих данную покрышку, было связано с уменьшением шумообразования при езде. Это стало возможно благодаря уникальному дизайну рисунка протектора, сочетающего в себе разное количество блоков в центральной и плечевой зонах. Кроме того, этому также способствуют дополнительные канавки. Оптимизированное же расположение ламелей позволяет шине поглощать вибрации и удары при движении.Еще одной особенностью данной шины является жесткий характер блоков плечевой зон, который позволяет минимизировать тормозной путь.Важным нововведением для большинства шин Barum этого класса является наличие индикатора износа шины TWI, который показывает, насколько покрышка истерлась. Разработчики советуют менять шину, как только глубина протектора достигнет трех миллиметров, поскольку при этом показателе тормозной путь шины существенно увеличивается, и создается риск возникновения аквапланирования.В завершение необходимо отметить, что данная модель станет превосходным выбором для полноприводных и высокоскоростных автомобилей, поскольку сочетает в себе отличные ездовые качества на сухой и мокрой трассе, а также на легком бездорожье.Отличительные особенности шины Barum Bravuris 4x4 - Barum Bravuris 4x4 — это летняя шина для внедорожников и кроссоверов.- Равномерное распределение давления по всей площади контакта с дорожной поверхностью позволило увеличить эксплуатационный срок покрышки.- Три центральных ребра обеспечивают четкую реакцию транспортного средства на рулевое управление и отличную его маневренность.- система из четырех кольцевых продольных каналов и открытых канавок в плечевых зонах позволяет эффективно выводить влагу из протектора, препятствуя возникнвоению аквапланирования на мокрой дороге.- Высокий уровень акустического комфорта, достигаемый за счет разного количества блоков в центральной и боковой частях протектора.- Оптимизированное расположение ламелей способствует поглощению шиной вибраций и ударов.- Жесткие блоки в плечевых зонах уменьшают тормозной путь.- Индикатор износа TWI демонстрирует степень износа покрышки.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Boto Vantage H-8</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Описание Boto Vantage H-8 Шина Boto Vantage H-8 ориентирована на применение в летний период на автомобилях легкового класса. Обилие типоразмеров позволяет устанавливать модель на транспортные средства различных производителей, а ее эксплуатационные характеристики обеспечивают отточенную управляемость и легкость выполнения маневров.Рисунок протектора выполнен в асимметричном дизайне. Этот фактор положительно сказывается на тягово-сцепных свойствах, обеспечивая быстрое торможение и легкий старт без пробуксовки. Это касается и мокрого дорожного полотна.С целью противостояния аквапланированию покрышка оснащена системой ламелей, которые быстро отводят излишки влаги из контактной зоны.За стабильность курсовой устойчивости отвечают центральные ребра, выполненные из более жесткого компаунда. Сам же состав резины оптимизирован под интенсивную эксплуатацию, что выражается в эффективном противостоянии абразивному износу. Этот фактор существенно увеличивает эксплуатационный период.Основные особенности Boto Vantage H-8 - широкий спектр применимости на автомобили различных производителей;- длительность эксплуатации за счет строения и специального компаунда;- улучшенные тягово-сцепные свойства и стойкость аквапланированию благодаря асимметричному рисунку протектора с развитой системой водоотведения.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>GoodYear Eagle F1 Asymmetric 3</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Точность рулевого управления и долговечная эксплуатация.С помощью новой технологии была создана усиленная легковесная конструкция с улучшенными показателями управляемости, износа протектора, экономии топлива и отличными характеристиками при прохождении поворотов.Сцепление для торможения и управляемости.
+При изготовлении шин Eagle F1 Asymemtric 3 используется новый повышающий сцепление компонент, в состав которого входят клейкие смолы для улучшения «прилипания» к поверхности. Это улучшает сцепление при торможении и управляемость на мокрой и сухой дороге.
+Сокращение тормозного пути на мокрой и сухой дороге.
+Благодаря технологии Active Braking, площадь контакта и сцепление при торможении увеличиваются. Контакт с дорогой при этом усиливается, что позволяет сократить тормозной путь на мокрой и сухой дороге.Читать полностью Сцепление для торможения и управляемости.
+При изготовлении шин Eagle F1 Asymemtric 3 используется новый повышающий сцепление компонент, в состав которого входят клейкие смолы для улучшения «прилипания» к поверхности. Это улучшает сцепление при торможении и управляемость на мокрой и сухой дороге.
+Сокращение тормозного пути на мокрой и сухой дороге.
+Благодаря технологии Active Braking, площадь контакта и сцепление при торможении увеличиваются. Контакт с дорогой при этом усиливается, что позволяет сократить тормозной путь на мокрой и сухой дороге.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Описание Goodyear Eagle F1 Asymmetric 3 SUVЛетняя шина Goodyear Eagle F1 Asymmetric 3 SUV разработана для внедорожников и кроссоверов премиум-класса. Относящаяся к категории High Terrain модель предназначена, в первую очередь, для асфальтированных дорог. Она является модификацией одноименной «легковой» UHP-шины, выступая ее практически точной копией.Отточенная управляемость и долговечностьКонструкция шины основана на прочном и при этом легковесном каркасе. Он целиком изготовлен из синтетических материалов нового поколения. Они придают шине устойчивость к деформации, благодаря чему она сохраняет свою форму изначальной даже при сильном воздействии разнонаправленных сил ускорения. Эта особенность обеспечивает по-спортивному отточенную управляемость с быстрыми и точными реакциями на действия водителя, снижает риск возникновения неравномерного износа, улучшает топливную экономичность.Улучшенная резиновая смесьВ значительной степени надежное и стабильное сцепление обеспечивается физико-химическими свойствами резиновой смеси. В ее состав входят специальные клейкие смолы. С их помощью протектор буквально прилипает к поверхности дорожного полотна.Сокращенный тормозной путьЧасть примененных в шине решений ранее уже использовалась североамериканским производителем. Одной из них является технология Active Braking. Ее суть заключается в увеличении размеров пятна контакта при интенсивном замедлении, что влечет за собой заметное сокращение протяженности тормозного пути.Основные особенности Goodyear Eagle F1 Asymmetric 3 SUV- разработана для внедорожников и кроссоверов премиум-класса;- отточенная управляемость и долговечность, благодаря очень легкому и прочному каркасу из современных синтетических материалов;- компаунд с клейкими смолами улучшает сцепные свойства;- технология Active Braking обеспечивает шине способность увеличивать пятно контакта при замедлении, сокращая тем самым протяженность тормозного пути.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Centara Vanti touring</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Описание Centara Vanti Touring Целевая аудитория летней шины Centara Vanti Touring — владельцы легковых автомобилей, часто путешествующие на большие расстояния. Данная модель отличается комфортным тихим и мягким ходом, ярко выраженными топливосберегающими свойствами, хорошей курсовой устойчивостью и точностью в управлении на высокой скорости.Протекторный рисунок выполнен в ненаправленном дизайне, для которого характерна высокая деформационная устойчивость элементов. Это повышает надежность сцепных свойств, особенно при маневрировании. Наличие сдвоенного ребра посередине, которое помогает шине сохранять курсовую устойчивость и точность в управлении на большой скорости. На мокрой поверхности протектор имеет высокую эффективность благодаря многочисленности и разнонаправленности ламелей и водоотводящих канавок.Основные особенности:- сдвоенное ребро посередине обеспечивает курсовую устойчивость на большой скорости;- массивные блоки по краям протектора улучшают сцепление при маневрировании и точность в управлении;- многошаговое расположение кромок блоков и дренажных канавок уменьшает уровень шумов и вибраций.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Laufenn Z-Fit EQ LK03</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Шина G FIT EQ отличается улучшенными характеристиками сцепления и торможения на мокром дорожном покрытии и топливной экономичностью.Особенности:- Лето: улучшенные характеристики как на сухом, так и на мокром дорожном покрытии- Чрезвычайно долгий срок службы протектора
+- Плавное тихое движение в любых дорожных условияхЧитать полностью - Чрезвычайно долгий срок службы протектора
+- Плавное тихое движение в любых дорожных условиях</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Описание Laufenn Z-Fit EQ LK03 Летняя шина Laufenn Z-Fit EQ LK03 предназначена для динамичных версий легковых автомобилей. Относится к категории Ultra High Performance, отличаясь улучшенными сцепными свойствами и точностью в управлении на большой скорости, стабильностью на мокрой дороге.Протекторный рисунок характеризуется увеличенным объемом и расположением дренажных канавок, при котором для отвода воды используется вращение колеса. Это существенно уменьшает вероятность аквапланирования даже на большой скорости. Здесь стоит отметить наличие многочисленных ламелей, которые не только образуют дополнительные режущие кромки, но и направляют воду из-под пятна контакта в близлежащие канавки.Беговая часть протектора имеет оптимизированный профиль с изменяющейся кривизной. Это увеличивает пятно контакта и способствует более равномерному распределению по нему весовой нагрузки. В результате сцепление не только усиливается, но и становится стабильнее, особенно при маневрировании, облегчая процесс управления автомобилем.Основные особенности Laufenn Z-Fit EQ LK03 - низкий риск аквапланирования благодаря увеличенному объему и направленности дренажных канавок против движения;- многочисленные ламели образуют дополнительно множество режущих кромок, повышая тягу и интенсивность торможения на мокром покрытии;- оптимизированный профиль протектора увеличивает пятно контакта, обеспечивает более равномерное распределение весовой нагрузки по нему.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Rydanz Raleigh R06</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/rydanz/raleigh_r06/ (Caused by ProxyError('Unable to connect to proxy', ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0x000001D1837CF750&gt;, 'Connection to 45.88.211.10 timed out. (connect timeout=30)')))</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Описание Rydanz Raleigh R06 Летняя шина Rydanz Raleigh R06 устанавливается на широкий спектр легковых автомобилей. Модель обеспечивает уверенное управление на высоких скоростях, эффективное сопротивление гидропленнингу и акустический комфорт.В основе компаунда находится диоксид кремния, который создает прочный контакт с дорожным полотном, в том числе и во время дождя. В совокупности с дренажной системой, быстро отводящей излишки воды, это гарантирует повышенный уровень безопасности. Также, резиновая смесь эффективно противостоит перегревам, возникающим на высокой скорости, и поддерживает рабочие характеристики протектора на одном уровне.Асимметричный протектор, разработанный с помощью компьютерного моделирования, повышает управляемость на скорости, а также поддерживает курсовую стабильность транспорта. Важно отметить, что особое расположение элементов способствует подавлению шумовых эффектов, делая езду более комфортной.Основные особенности Rydanz Raleigh R06 - высокоскоростная шина с улучшенными характеристиками сцепления на мокрой дороге;- асимметричный протектор подавление шумы и обеспечивает высокий уровень безопасности;- резиновая смесь с диоксидом кремния эффективно противостоит перегреву, а также повышает сцепление на мокрой дороге.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Arivo ICE CLAW ARW8</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Описание Arivo Ice Claw ARW8 Зимняя шина для легковых автомобилей Arivo Ice Claw ARW8 предназначена для использования в регионах с самым холодным климатом. Отличается улучшенными сцепными свойствами на снегу и льду, эффективностью торможения и комфортностью в управлении.Направленный рисунок протектора выполнен в «скандинавском» дизайне, отличаясь от большинства его вариаций меньшими размерами элементов и их увеличенным количеством. Это существенно улучшает тягово-сцепные свойства, особенно на снегу. Стоит отметить плотность нарезки ламелей. Сотни прорезей с заостренными пилообразными гранями повышают продольное сцепление на льду и мокром покрытии. Резиновая смесь со сверхвысоким содержанием «силики» дополнительно повышает эффективность работы протектора в таких условиях.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Compasal Winter Stud</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Описание Compasal Winter Stud Compasal Winter Stud – новая модель от китайского производителя, которая ориентирована сектор легковых автомобилей. Зимняя шина укомплектована системой «еврошип», которая обеспечивает улучшенные свойства сцепления на обледенелом полотне, а также невысоким уровнем шума.Основу покрышки составляет направленный симметричный протектор с широким центральным ребром. Его отличительными особенностями выступают канавки неправильной формы, образующие многочисленные зацепные грани. В сочетании с обильной сетью ламелей это позволяет улучшить тягу и сцепные свойства на снежном покрове. Продолговатые блоки плечевой зоны участвуют в формировании широкого контактного пятна, а также способствуют повышению устойчивости к боковым заносам. Наличие шипов европейского типа (небольшой размер) позволяет свести к минимуму пробуксовки на скользкой дороге и повысить общий уровень безопасности. За счет небольшого размера уровень шума на чистом асфальте увеличен незначительно. Благодаря этому ездовой комфорт сохраняется на высоком уровне.Основные особенности Compasal Winter Stud - применимость в зимний период на большинстве современных легковых автомобилях;- развитая система ламелей и канавок в сочетании с шипами позволяют увеличить стойкость к скольжению на зимней дороге;- специальная резиновая смесь способна сохранять свою эластичность в широком температурном диапазоне</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Pirelli Winter Cinturato 2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/pirelli/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000019F9A085BD0&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/pirelli/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000019FA4A02E90&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hifly HT601</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/hifly/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000019F9A085E50&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/hifly/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000019FA4A02C10&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sunfull SF-982</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: HTTPSConnectionPool(host='www.drom.ru', port=443): Max retries exceeded with url: /shina/sunfull/ (Caused by ProxyError('Unable to connect to proxy', NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0x0000019F9A085BD0&gt;: Failed to establish a new connection: [WinError 10061] Подключение не установлено, т.к. конечный компьютер отверг запрос на подключение')))</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Описание Sunfull SF-982 Зимняя шина Sunfull SF-982 разрабатывалась с учетом климатических условий североевропейских стран. От многочисленных аналогов других брендов отличается сбалансированными эксплуатационными свойствами. Отсутствие ярко выраженных «слабых мест» обусловлено использованием в конструкции, как хорошо зарекомендовавших себя решений, так и новых технологий.Беговая часть протектора имеет направленный дизайн с асимметричным расположением элементов. В центральной части они уменьшены в размерах и сильно наклонены. Расположение и значительная протяженность формируемых ими граней улучшает сцепление и его стабильность при разгоне на снегу и мокром асфальте. Плечевые блоки, напротив, отличают массивные размеры и расположение практически перпендикулярно относительно направления движения. Такой дизайн снижает риск бокового скольжения, а кроме того, существенно повышает эффективность работы протектора при торможении, особенно на заснеженном покрытии. На поверхности с низким коэффициентом сцепления отменная для своей категории производительность шины обеспечивается волнообразными и прямыми ламелями. Их разнонаправленность позволяет покрышке сохранять стабильность и устойчивость, как при прямолинейном движении, так и при маневрировании.Основные особенности Sunfull SF-982 - асимметричный протектор с разделением на функциональные участки придает эффективность в любых условиях;- изогнутые грани с наружной стороны улучшают сцепление и курсовую устойчивость при продольных ускорениях;- продольное ребро с внутренней стороны повышает точность и стабильность управления;- широкие плечевые блоки снижают риск поперечного скольжения при маневрировании.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ilink Winter iL-989</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Очередная модель от известного китайского бренда, который уже успел зарекомендовать себя на территории России и стран СНГ. iLink IL989 Winter – легкогрузовая шины для зимнего применения, характеризующаяся улучшенными показателями проходимости, экономией топлива и отличной управляемостью.В модели были применен ряд технологий, которые позволили существенно повысить эксплуатационные характеристики. Среди таковых NanoBalans – представляет собой метод смешивания компаунда, выполняемый на молекулярном уровне. Благодаря этому повышается прочность ионных связей и увеличивается общая прочность на 40%. В итоге, шина стала отличаться минимальным сопротивлением качению, что повысило ее топливную экономичность.
+Отметим, что для разработки модели были использованы передовые компьютерные технологии моделирования. Это позволило создать протектор с особым строением – симметричное строение с четырьмя ребрами. Два из них содержат многоугольные блоки, способствующие улучшению курсовой устойчивости, повышению кромочного эффекта, маневренности и снижению тормозного пути. Благодаря большой плечевой зоне существенно увеличилось пятно контакта. Это положительно сказалось на устойчивости при различных погодных условиях.
+Дополнительно все элементы оснащены трехмерными ламелями, повышающими сцепление и минимизирующими блочную подвижность.
+Основные особенности iLINK IL989 Winter
+- использование многочисленных технологий, повышающих эксплуатационные характеристики;
+- система шумоподавления LowSound;
+- повышенная прочность боковин за счет технологии Strong Sidewalls;
+- трехмерные ламели, улучшающие сцепление и торможение.Читать полностью В модели были применен ряд технологий, которые позволили существенно повысить эксплуатационные характеристики. Среди таковых NanoBalans – представляет собой метод смешивания компаунда, выполняемый на молекулярном уровне. Благодаря этому повышается прочность ионных связей и увеличивается общая прочность на 40%. В итоге, шина стала отличаться минимальным сопротивлением качению, что повысило ее топливную экономичность.
+Отметим, что для разработки модели были использованы передовые компьютерные технологии моделирования. Это позволило создать протектор с особым строением – симметричное строение с четырьмя ребрами. Два из них содержат многоугольные блоки, способствующие улучшению курсовой устойчивости, повышению кромочного эффекта, маневренности и снижению тормозного пути. Благодаря большой плечевой зоне существенно увеличилось пятно контакта. Это положительно сказалось на устойчивости при различных погодных условиях.
+Дополнительно все элементы оснащены трехмерными ламелями, повышающими сцепление и минимизирующими блочную подвижность.
+Основные особенности iLINK IL989 Winter
+- использование многочисленных технологий, повышающих эксплуатационные характеристики;
+- система шумоподавления LowSound;
+- повышенная прочность боковин за счет технологии Strong Sidewalls;
+- трехмерные ламели, улучшающие сцепление и торможение.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Michelin Latitude Sport</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Michelin Latitude Sport - шина для высокоскоростных кроссоверов, которые с невероятной быстротой завоевывают популярность мирового рынкаЭта летняя шина предназначена для высокоскоростных кроссоверов, которые с невероятной быстротой завоевывают популярность мирового рынка! По расчетам компании Michelin, количество продаж таких автомобилей уже в 2011 году перешагнет черту в 500 тысяч машин (против 70 тысяч в 2001 году).Michelin Latitude Sport по своей сути является оптимизированной шиной Michelin Pilot Sport 2 под автомобили 4х4. За счет большей массы авто, была внедрена технология специального брекерного слоя из нейлона, который проходит через весь резиновый слой. На протектор тяжелой шины действует увеличенная центробежная сила при прочих равных условиях, а это увеличивает деформацию резины в пятне контакта и ухудшает сцепление с дорогой. Для борьбы с износом, нейлоновый слой расположен поперек всего колеса, что позволило победить "центробежную" деформацию боковин протектора.
+Испытания шины на автомобилях Porsche Cayenne (оснащаются Michelin Latitude Sport на конвейере) показали лучшую управляемость при критичных нагрузках, а также увеличенный срок службы резины (+30%) по сравнению с аналогичными покрышками от компаний Goodyear, Continental, Bridgestone... Это говорит о том, что шины в среднем будут выхаживать не три, а четыре года! Michelin Latitude Sport имеет скоростные индексы W и Y (270 - 300 км/час) и доступна в 13 типоразмерах, правда от 18-го радиуса!Читать полностью Michelin Latitude Sport по своей сути является оптимизированной шиной Michelin Pilot Sport 2 под автомобили 4х4. За счет большей массы авто, была внедрена технология специального брекерного слоя из нейлона, который проходит через весь резиновый слой. На протектор тяжелой шины действует увеличенная центробежная сила при прочих равных условиях, а это увеличивает деформацию резины в пятне контакта и ухудшает сцепление с дорогой. Для борьбы с износом, нейлоновый слой расположен поперек всего колеса, что позволило победить "центробежную" деформацию боковин протектора.
+Испытания шины на автомобилях Porsche Cayenne (оснащаются Michelin Latitude Sport на конвейере) показали лучшую управляемость при критичных нагрузках, а также увеличенный срок службы резины (+30%) по сравнению с аналогичными покрышками от компаний Goodyear, Continental, Bridgestone... Это говорит о том, что шины в среднем будут выхаживать не три, а четыре года! Michelin Latitude Sport имеет скоростные индексы W и Y (270 - 300 км/час) и доступна в 13 типоразмерах, правда от 18-го радиуса!</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Maxxis AT-771</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Агрессивный дизайн рисунка протектора обеспечивает превосходное сцепление шины с дорожной поверхностью.Зигзагообразная боковина повышает управляемость на сухой и влажной поверхности. Дизайн рисунка с 4-мя U-образными продольными канавками предотвращает застревание камней в протекторе и способствует эффективному отводу воду из зоны пятна контакта. Технология Multi-pitch в дизайне протектора для снижения уровня шума.Читать полностью а с 4-мя U-образными продольными канавками предотвращает застревание камней в протекторе и способствует эффективному отводу воду из зоны пятна контакта. Технология Multi-pitch в дизайне протектора для снижения уровня шума.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nankang AS-1</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Шины AS-1Ассиметричный рисунок AS-1 идеально подходит для автомобилей городского классаШины AS-1 хорошо держит дорогу на скорости (канавки на внешних краях), способствует снижению расхода горючего (уменьшенное на 18% сопротивление трению качения).Обладают эффективным водоотводом из пятна контакта (водоотводящие канавки с внутренней части шины) и пониженными шумовыми характеристиками, таким образом сочетая в себе комфорт движения и прекрасные технические характеристики. 
+Усиление боковой реакции колес с внешней стороны: с боков протектора применен более жесткий материал для усиления боковой реакции колес и лучшей управляемости.
+Для усиления сопротивления аквапланингу в дизайне применяются две прямые широкие канавки. Для увеличения безопасности при движении по мокрой дороге был применен метод забора воды в центральную канавку с последующим ее отводом через специальные дугообразные дренажные канавки.
+Равномерное использование гладких тонких канавок обеспечивает понижение уровня шума, для комфорта движения
+Уникальные прямые канавки на внешних краях шины придают резине большую периферическую износостойкость. Для обеспечения максимального понижения уровня шума используется технология «два-в-одном».Читать полностью Обладают эффективным водоотводом из пятна контакта (водоотводящие канавки с внутренней части шины) и пониженными шумовыми характеристиками, таким образом сочетая в себе комфорт движения и прекрасные технические характеристики. 
+Усиление боковой реакции колес с внешней стороны: с боков протектора применен более жесткий материал для усиления боковой реакции колес и лучшей управляемости.
+Для усиления сопротивления аквапланингу в дизайне применяются две прямые широкие канавки. Для увеличения безопасности при движении по мокрой дороге был применен метод забора воды в центральную канавку с последующим ее отводом через специальные дугообразные дренажные канавки.
+Равномерное использование гладких тонких канавок обеспечивает понижение уровня шума, для комфорта движения
+Уникальные прямые канавки на внешних краях шины придают резине большую периферическую износостойкость. Для обеспечения максимального понижения уровня шума используется технология «два-в-одном».</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Описание Nankang AS1Летняя шина Nankang AS1 используется на легковых автомобилях. Эта шина специально разработана для тех, кто любит городскую езду. Она отлично себя ведет на дороге при любых погодных условиях, будь то дождь или солнечный день.Протектор имеет ассиметричный рисунок, который подходит  идеально для городских автомобилей. Из-за большого количества канавок,  расположенных на внешних краях, она прекрасно держит дорогу на больших скоростях. Они также способствуют уменьшению расхода топлива (сопротивление трению качения уменьшается на 18%). Шина имеет эффективный водоотвод из пятна контакта за счет применения водоотводящих канавок, расположенных с внутренней части шины и пониженный уровень шума. За счет этого происходит сочетание  прекрасных технических характеристик с комфортом движения.Чтобы усилить сопротивления аквапланированию протектор шиныNankang AS-1 имеет две широкие прямые канавки.  Повышение безопасности при езде на мокром дорожном покрытии достигнуто за счет применения метода забора в центральную канавку воды с последующим отводом ее через специальные дренажные канавки дугообразной формы. Равномерное применение тонких гладких ламелей позволило добиться снижения уровня шума и сделало езду более комфортной. Увеличить периферическую износостойкость помогли уникальные прямые канавки протектора расположенные на внешних краях. Применения технологии «два-в-одном» позволило максимально уменьшить уровень шума.Протектор имеет не симметричный рисунок, но при этом общая площадь протектора пятна контакта, расположенного с правой стороны, равна площади протектора левой стороны.Основные особенности шины Nankang AS-1 - уникальный дизайн канавки протектора расположенной на плечевой зоне предотвращает неравномерный износ шины;- равномерное расположение канавок узких повышают маневренность шины;-дизайн протектора спроектирован так, чтобы обеспечить уменьшить шум и увеличить комфорт при езде;- два прямых канала расположенных по центру протектора увеличивают маневренность шины, а дизайн ламелей и канавок повышаю сцепление с мокрым дорожным покрытием.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nexen Winguard WinSpike SUV</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Качественные радиальные зимние шины. Тип автомобиля, для которого предназначены покрышки: внедорожник. Изготавливаются на заводах Nexen с использованием электронного контроля качества готовой продукции.Читать полностью и.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nankang ICE1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Само название модели ICE-1 (АЙС-1) говорит о специальном протекторе новой зимней шины NANKANG (Нанканг) для заснеженной и обледенелой трассы. Современный дизайн и передовые технологии, использованные при создании шины ICE-1 позволяют не только увеличить устойчивость и маневренность вашего авто на льду и заснеженной дороге, но и предотвратить деформацию блоков протектора повышая комфорт и безопасность движения.Специальный состав резины ICE-1 разработан для отличной работы в суровых зимних условиях России и Северной Европы.Особенности шин ICE-1Направленный рисунок зимней шины ICE-1 и центральное ребро повышают курсовую устойчивость и маневренность автомобиля при движении на заснеженной и обледенелой дороге.
+Сетчатая структура ламелей протектора ICE-1 позволяет увеличить гребные свойства шины на снегу, повышая проходимость вашего авто в зимних условиях.
+«Зазубренные» трехмерные (3D) соединения блоков центральной части шины ICE-1 усиливают сцепление протектора с ледяной поверхностью и помогают расчищать и отводить снег из ламелей, тем самым предупреждая «замыливание» шины. Протектор шины разработан так что «зубчатые» соединения, не позволяя блокам протектора «разойтись», удерживают автомобиль от заносов в условиях зимней трассы.
+Трехмерные прямоугольные зацепы на боковом плече шины ICE-1 увеличивают силу блоков всего протектора и предотвращают деформацию блоков при движении и торможении, что эффективно увеличивает безопасность вождения зимой и в межсезонье.
+Увеличивать трение и сцепление с ледяной трассой протектору ICE-1 помогают специальные зацепные отверстия, оптимально расположенные на зимней шине ICE-1.
+Специальная формула состава протектора ICE-1 с добавлением кремния позволяет шине демонстрировать превосходные показатели при движении по снегу или ледяной поверхности!Читать полностью Специальный состав резины ICE-1 разработан для отличной работы в суровых зимних условиях России и Северной Европы.Особенности шин ICE-1Направленный рисунок зимней шины ICE-1 и центральное ребро повышают курсовую устойчивость и маневренность автомобиля при движении на заснеженной и обледенелой дороге.
+Сетчатая структура ламелей протектора ICE-1 позволяет увеличить гребные свойства шины на снегу, повышая проходимость вашего авто в зимних условиях.
+«Зазубренные» трехмерные (3D) соединения блоков центральной части шины ICE-1 усиливают сцепление протектора с ледяной поверхностью и помогают расчищать и отводить снег из ламелей, тем самым предупреждая «замыливание» шины. Протектор шины разработан так что «зубчатые» соединения, не позволяя блокам протектора «разойтись», удерживают автомобиль от заносов в условиях зимней трассы.
+Трехмерные прямоугольные зацепы на боковом плече шины ICE-1 увеличивают силу блоков всего протектора и предотвращают деформацию блоков при движении и торможении, что эффективно увеличивает безопасность вождения зимой и в межсезонье.
+Увеличивать трение и сцепление с ледяной трассой протектору ICE-1 помогают специальные зацепные отверстия, оптимально расположенные на зимней шине ICE-1.
+Специальная формула состава протектора ICE-1 с добавлением кремния позволяет шине демонстрировать превосходные показатели при движении по снегу или ледяной поверхности!</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Кама 515 шип</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Leao iGreen Van 4S</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Описание Leao iGreen Van 4S Всесезонная шина Leao iGreen Van 4S разработана с учетом специфических условий так называемых «теплых» зим, характерных для европейский стран. Характеризуется улучшенным сцеплением на мокром и заснеженном покрытии, устойчивостью к повреждениям и большой ходимостью.Протекторный рисунок выделяется плотной нарезкой и «трехмерной» структурой ламелей. Многочисленные прорези повышают тягово-сцепные свойства на мокром и заснеженном покрытии. Увеличенная ширина канавок в таких условиях позволяет интенсивно отводить из-под шины не только воду, но и ее смесь со снегом. Также стоит отметить применение резиновой смеси, остающейся эластичной даже при отрицательных температурах. Это придает шине цепкость на холодных зимних покрытияхОсновные особенности Leao iGreen Van 4S - 3D-ламели повышают тягово-сцепные свойства на мокром и заснеженном покрытии;- большая ширина канавок обеспечивает устойчивое сцепление при неблагоприятных погодных условиях;- увеличенная толщина боковин повышает надежность и ходимость шины.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Maxxis Premitra Ice 5 SUV</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Maxxis Premitra Ice 5 SP5 SUV – модель, устанавливаемая на кроссоверы и внедорожники, используемые в суровых зимних условиях. Шина характеризуется улучшенными показателями цепкости на заснеженном и обледенелом дорожном полотне, уверенной управляемостью и стойкостью к заносам.Направленный рисунок протектора V-образного типа с обильной сетью ламелей максимально адаптирован к зимним условиям. Наличие большого количества зацепных кромок, а также эластичный компаунд способствуют уверенному контакту с дорогой, поддерживая управляемость.
+Важным аспектом новой резиновой смеси выступает кремниевый компонент SiRu обеспечивает равномерность распределения всех составляющих, а также поддерживает высокую степень эластичности при отрицательных температурах. Благодаря этому поведение автомобиля даже на ледяной корке остается всегда предсказуемым.
+Наличие многочисленных диагонально направленных каналов реализуется быстрота очистки контактной зоны. Это касается, как водных, так и снежных масс. Результат – прозрачность управления даже на высокой скорости.
+Основные особенности Maxxis Premitra Ice 5 SP5 SUV
+- инновационный компаунд с компонентом SiRu обеспечивает лучшую адаптацию покрышки к зимним условиям;
+- многочисленные блоки и ламели создают множество зацепных граней, повышающих проходимость и стабильность транспорта на зимней дороге;
+- защита от гидропланирования и слэшинга за счет большой сети каналов.Читать полностью Направленный рисунок протектора V-образного типа с обильной сетью ламелей максимально адаптирован к зимним условиям. Наличие большого количества зацепных кромок, а также эластичный компаунд способствуют уверенному контакту с дорогой, поддерживая управляемость.
+Важным аспектом новой резиновой смеси выступает кремниевый компонент SiRu обеспечивает равномерность распределения всех составляющих, а также поддерживает высокую степень эластичности при отрицательных температурах. Благодаря этому поведение автомобиля даже на ледяной корке остается всегда предсказуемым.
+Наличие многочисленных диагонально направленных каналов реализуется быстрота очистки контактной зоны. Это касается, как водных, так и снежных масс. Результат – прозрачность управления даже на высокой скорости.
+Основные особенности Maxxis Premitra Ice 5 SP5 SUV
+- инновационный компаунд с компонентом SiRu обеспечивает лучшую адаптацию покрышки к зимним условиям;
+- многочисленные блоки и ламели создают множество зацепных граней, повышающих проходимость и стабильность транспорта на зимней дороге;
+- защита от гидропланирования и слэшинга за счет большой сети каналов.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Nexen Winguard ICE</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Nexen Winguard Ice- зимняя нешипуемая бескамерная шина с направленным рисунком для легковых автомобилей.Рисунок протектора сильно расчленен, создавая возможность самоочищения и повышая управляемость на зимней снежной или обледенелой дороге. Имеет в плечевой зоне увеличенную жесткость рисунка протектора, улучшающую управляемость на высоких скоростях и в поворотах.Состав резиновой смеси усовершенствован, повышена надежность и износостойкость. Nexen Winguard Ice отличается отличными характеристиками на уровне лучших мировых стандартов.Читать полностью Состав резиновой смеси усовершенствован, повышена надежность и износостойкость. Nexen Winguard Ice отличается отличными характеристиками на уровне лучших мировых стандартов.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Описание Nexen Winguard Ice PlusСфера применения зимней шины Nexen Winguard Ice Plus – современные легковые автомобили различных классов. На любом скользком покрытии обладает отменной устойчивостью и сцеплением, характеризуется повышенным для своего класса уровнем комфорта.Беговую часть протектора отличает эффектный V-образный дизайн. Одним из его ключевых элементов является укрупненное ребро посередине, составленное из стреловидных блоков. Оно придает процессу управления автомобилем точность, улучшает курсовую устойчивость и тяговое усилие. Расположенные рядом с ребром сдвоенные блоки обеспечивают стабильность сцепным свойствам и препятствуют боковым скольжениям, взаимодействуя с элементами в плечевых зонах. На обледенелом покрытии эффективность обеспечивается ламелями. Здесь используется несколько типов таких прорезей. Помимо традиционных для шинной индустрии 3D-ламелей протектор содержит «микро-ламели». Они дополнительно снижают риск боковых скольжений на обледенелом покрытии.Основные особенности Nexen Winguard Ice Plus- «двойной» V-образный дизайн протекторного рисунка обеспечивает эффективность на любом зимнем покрытии;- 3D-ламели с пирамидальными стенками обеспечивают надежность и стабильность сцепления на льду;- «микро-ламели» препятствуют боковым скольжениям на скользком покрытии.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Royal ROYAL WINTER</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/описание_шин.xlsx
+++ b/files/описание_шин.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Описание autoshini.ru</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Описание 4tochki.ru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,39 +466,12 @@
           <t>Michelin Pilot Sport 4</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Шина для премиальных и спортивных версий серийных автомобилей. Обеспечивает превосходную управляемость на сухом и на мокром покрытии.Дополнительный слой из арамидно-нейлоновых нитей позволяет шине не поддаваться действиям центростремительной силы и обеспечивает стабильность пятна контакта шины на высоких скоростях.Благодаря  «функциональным эластомерам» нового поколения, которые способны принимать форму мельчайших неровностей дорожного покрытия, шина обеспечивает отличный уровень сцепления на мокром покрытии. Глубокие продольные водоотводные каналы   обеспечивают  эффективный отвод воды из пятна контакта, тем самым позволяют снизить риск аквапланирования.
-Дизайн боковины, созданный благодаря технологии «Premium Touch»позволяет придать надписям внешней боковины шины премиальный «эффект бархата».Читать полностью Благодаря  «функциональным эластомерам» нового поколения, которые способны принимать форму мельчайших неровностей дорожного покрытия, шина обеспечивает отличный уровень сцепления на мокром покрытии. Глубокие продольные водоотводные каналы   обеспечивают  эффективный отвод воды из пятна контакта, тем самым позволяют снизить риск аквапланирования.
-Дизайн боковины, созданный благодаря технологии «Premium Touch»позволяет придать надписям внешней боковины шины премиальный «эффект бархата».</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Описание не найдено для модели</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Michelin Pilot Sport All Season 4 - всесезонные шины UHP класса для водителей высококлассных спортивных автомобилей, спортивных купе, мощных седанов, кроссоверов и внедорожников, желающих расширить границы езды в межсезонье. Разработаны для обеспечения высокого уровня сцепления на сухой и мокрой дороге, в сочетании с уверенностью в ненастную погоду, автошины призваны контролировать ситуацию в различных условиях, даже при небольшом снегу.
-В некоторых размерах
-колеса Мишлен Спорт Алл Сизн 4
-доступны с обработкой боковин
-Full Ring Velor Premium Touch
-. Эта клетчатая боковина с бархатным эффектом создана с использованием новейшей лазерной технологии и призвана улучшить внешний вид машины.
-Резина Michelin
-с улучшенным составом компаунда, формованным в форме инновационного асимметричного рисунка, оснащена - большими усиленными внешними плечевыми блоками, которые повышают устойчивость при маневрировании.
-Технология Dynamic Response
-выравнивает силы, действующие на пятно контакта шины при прохождении крутых поворотов, улучшая характеристики управляемости и износ протектора. Широкие окружные каналы в сочетании с большими дождевыми канавками отводят тяжелую воду из пятна контакта, помогая повысить сопротивление аквапланированию.
-Сцепление с мокрой дорогой и устойчивость дополнительно улучшаются за счет
-смеси Extreme Silica Compound
-, а также динамических кромок, создаваемых характерными 360-градусными регулируемыми ламелями. Эти взаимосвязанные ламели улучшают сцепление резины в зимнее время и сочетаются с острыми кромками, расположенными по бокам окружных канавок, для улучшения показателей на снегу.
-Колеса Michelin Pilot Sport AS4
-используют масла благодаря получаемых из подсолнечного масла. Идея реализована за счет
-технологии Helio
-.
-Масла являются экологически чистым материалом, отвечающий за эластичность резины при околонулевых температурах, давая возможности насладиться ездой даже в холодное время.
-Внутренняя конструкция колеса Мишлен Спорт Алл Сизн 4 состоит из двухслойного полиэстера, призванного дать маневренность и управляемость при агрессивной езде.</t>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
         </is>
       </c>
     </row>
@@ -503,19 +481,12 @@
           <t>Bridgestone Turanza ER 300</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Качественные радиальные летние шины. Комфорт за счет снижения уровня шума. Тип автомобиля, для которого предназначены покрышки: легковой. Изготавливаются на заводах Bridgestone с использованием электронного контроля качества готовой продукции.Читать полностью онного контроля качества готовой продукции.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Описание Bridgestone Turanza T005Летняя шина Bridgestone Turanza T005 является одной из новинок японского бренда и предлагается им в качестве флагманской модели в сегменте «туринг». Характеризуется улучшенным сцеплением и управляемостью на мокром покрытии, топливной экономичностью и длительным сроком службы. Это те же эксплуатационные свойства, которые отличали предыдущую модель с индексом Т001 Evo. У новинки эти характеристики значительно лучше, что обусловлено применением инновационных технологических решений и материалов.Усовершенствованный компаундОдним из таких решений является технология NanoPro-Tech. Так называется полимер, который входит в состав резиновой смеси протектора. Он усиливает молекулярные связи между остальными компонентами компаунда. Это существенно повышает прочность протектора на разрыв и растяжение, наряду с силикой, снижая износ и сопротивление качению. Кроме того, данный полимер позволил существенно нарастить долю кремнийсодержащих компонентов, благодаря чему шина гораздо лучше цепляется за мокрую дорогу, а расход топлива уменьшается.Повышенная стойкость к аквапланированиюЕще одним положительным по сравнению с предыдущей моделью изменением является повысившаяся устойчивость к аквапланированию. Риск возникновения этого опасного эффекта значительно ниже благодаря усовершенствованной дренажной системе. Она содержит гораздо больше элементов, часть из которых была значительно увеличена в размерах. Речь идет, прежде всего, о продольных канавкав в центральной части и поперечных в плечевых зонах. Это позволило существенно увеличить объем воды, который одномоментно удаляется из-под пятна контакта. Эффективность работы дренажных канавок существенно повышена многочисленными ламелями, прорезанными в продольных ребрах в центральной части протектора.Соединенные между собой плечевые блокиСледующим нововведением является дизайн плечевых зон протектора. Располагающиеся здесь блоки были существенно увеличены в размерах. При этом между ними имеются специальные перемычки. Они ограничивают подвижность протекторных элементов, что улучшает ряд важных свойств. Прежде всего, это оптимизация распределения нагрузки по пятну контакта. Она стала значительно равномернее, что с одной стороны повышает стабильность сцепных свойств, особенно при торможении, улучшает оперативность управления, а с другой — снижает сопротивление качению и износ.Многофункциональные ламелиУпомянутые выше ламели в центральных продольных ребрах выполняют и другие функции. Одной из них является оптимизация  распределения внешней нагрузки по пятну контакта. Она осуществляется за счет расположения и формы ламелей. Эти прорези имеют значительный наклон относительно направления движения, а их края скошены таким образом, что протекторное ребро касалось дорожной поверхности максимально большой площадью. Это значительно уменьшает абразивное воздействие, что увеличивает срок службы шины.Основные особенности Bridgestone Turanza T005- жесткие перемычки между плечевыми блоками повышают эффективность торможения, снижают износ, улучшают устойчивость при маневрировании;- четыре продольные канавки в центральной части и изогнутые каналы в плечевых зонах препятствуют аквапланированию;- ламели со скошенными краями в центре протектора улучшают сцепление на скользкой дороге, снижают износ;- компаунд, изготовленный с использованием новых полимеров и технологии смешивания, снижает сопротивление качению и износ, улучшает сцепление на мокром покрытии.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Модель не найдена</t>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
         </is>
       </c>
     </row>
@@ -525,19 +496,12 @@
           <t>Goodride SW606</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Модель не найдена</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/goodride/sw606-t/ (Caused by ProxyError('Unable to connect to proxy', ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0x00000284846674D0&gt;, 'Connection to 195.69.150.68 timed out. (connect timeout=30)')))</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Модель не найдена</t>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
         </is>
       </c>
     </row>
@@ -547,19 +511,12 @@
           <t>Bars UZ200</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Модель не найдена</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: HTTPSConnectionPool(host='mosautoshina.ru', port=443): Max retries exceeded with url: /catalog/tyre/bars/ (Caused by ProxyError('Unable to connect to proxy', ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0x0000028484666350&gt;, 'Connection to 45.88.211.10 timed out. (connect timeout=30)')))</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Модель не найдена</t>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
         </is>
       </c>
     </row>
@@ -569,32 +526,12 @@
           <t>Sailun TERRAMAX M/T</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Описание Sailun Terramax M/T Летняя шина Sailun Terramax M/T предназначена для внедорожников и кроссоверов. Рекомендуется производителем к применению на грунтовых поверхностях различного типа с пониженной несущей способностью. В таких условиях выгодно отличается стабильным и высоким тяговым усилием, курсовой устойчивостью, мягким ходом и надежностью.Особенностью протекторного рисунка является распределение блоков по группам, за счет чего в пятне контакта образуются непрерывные Z-образные поперечные кромки. Вкупе с большой высотой элементов это существенно повышает тяговое усилие на грунтовой поверхности. При этом значительное расстояние между блоками, особенно в плечевых зонах позволяет протектору не «замыливаться», улучшая проходимость на бездорожье. Еще одной немаловажной особенностью является профиль элементов по краям протектора. Он минимизирует риск механического повреждения шины, увеличивая срок ее службы в самых сложных условиях. Здесь стоит отметить использование 3-слойного полимерного корда в брекере. Помимо повышения надежности такое решение придает шине более мягкий ход на неровностях.Основные особенности Sailun Terramax M/T - удлиненные за счет расположения блоков Z-образные поперечные кромки повышают тягово-сцепные свойства на грунтовом покрытии;- оптимизированная форма блоков по краям протектора улучшает надежность и проходимость на особо сложных участках бездорожья;- 3-слойный синтетический брекер препятствует проколам и порезам, придает ходу шины на неровностях дополнительную мягкость.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sailun Terramax M/T
-(Сайлун Террамакс МТ) - грязевая шина для различного класса полноприводных транспортных средств. Относится к бюджетной ценовой категории и предоставляет достойный баланс ездовых качеств, так как выпускается известным производителем из Китая - Sailun Group.
-Преимущества резины Сайлун Террамакс МТ
-Terramax - модельный ряд для внедорожных транспортных средств. Включает в себя как шоссейные шины с улучшенными показателями комфорта, так и по настоящему "зубатую" резину для эксплуатации по бездорожью.
-Всесезонная шина Sailun Terramax M/T предназначена для использования на внедорожниках, пикапах и внедорожных автомобилях. Эта резина дает оптимальный баланс производительности как на асфальтированных дорогах, так и в условиях бездорожья в течение всего года. Благодаря специальной конструкции и рисунку протектора, автошина Sailun Terramax M/T обладает отличными характеристиками как на сухих, мокрых и скользких дорогах, так и на разнообразных типах грунта и территорий. Это позволяет водителям чувствовать себя уверенно и безопасно в любых погодных условиях и на сложных дорожных покрытиях в течение всего года.
-Особенности эксплуатации
-Шина Sailun Terramax M/T обеспечивает идеальное сцепление как на асфальте, так и на твердом покрытии, а также обладает выдающимися внедорожными характеристиками и достаточным уровнем комфорта во время вождения. Вне зависимости от погодных условий и времени года, эта автошина демонстрирует высокую производительность. Она сохраняет отличный баланс между своими характеристиками на асфальте и на бездорожье, что делает ее универсальным решением для водителей, ценящих надежность и уверенность на дороге.
-Шина Сайлун Террамакс МТ предназначена для езды по разнообразным пересеченным поверхностям. Благодаря своей конструкции эта модель обеспечивает надежное сцепление даже на рыхлом грунте, что делает ее идеальным выбором для водителей, сталкивающихся с разнообразными типами дорог. Шины
-Sailun Terramax
-M/T предоставляют устойчивое вождение без опасности потери сцепления с дорогой. Кроме того, резиновая смесь, используемая в производстве шины, обладает высокой степенью устойчивости к повреждениям и деформациям, что повышает долговечность и надежность данной модели.
-Многочисленные кромки протекторной части
-Покрышка Terramax M/T представляет собой модель с массивным протектором, который адаптируется к любому покрытию. Благодаря обилию кромок, авторезина легко справляется с неровным и сложным поверхностями, будь то слякоть, песок или рыхлый грунт. Широкие канавки эффективно избавляют протектор от камней, обеспечивая надежное сцепление с дорогой при движении.
-Резиновая композиция, применяемая в производстве грязевой покрышки Sailun, выделяется высокой степенью устойчивости к износу и повреждениям. Протектор модели составлен из усиленных блоков, которые не подвержены деформации. В сочетании с использованием стального ремня, эти элементы формируют прочную конструкцию, способную выдерживать значительные нагрузки. Даже при перевозке тяжелых грузов колесо сохраняет свою непревзойденную устойчивость и надежность.
-Дизайн автошины Sailun Terramax M/T ориентирован на обеспечение максимально широкого контакта с дорожным покрытием. Его равномерный узор способствует равномерному распределению нагрузки, особенно при прохождении поворотов. В то же время массивные выступы на боковинах защищают колесо от возможных повреждений, вызванных камнями или острыми предметами. Такой дизайн обеспечивает надежную защиту в различных условиях эксплуатации.</t>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
         </is>
       </c>
     </row>
@@ -604,19 +541,12 @@
           <t>Goodride SW606</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Модель не найдена</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Описание Goodride SW606 Выпускаемая известным канадским производителем зимняя легковая шипованная шина Goodride SW606 предназначена для легковых автомобилей малого и среднего класса.Дизайн направленного V-образного рисунка протектора шины имеет яркий запоминающийся внешний вид. Благодаря выбранному типу рисунка, данная шина отличается прекрасным сцеплением и коротким тормозным путем на снегу и обледенелых дорогах. Рисунок протектора шины содержит одно цельное ребро, расположенное в центральной части протектора, две очень широкие плечевые зоны и два ребра, состоящих из отдельных блоков сложной геометрической формы.V-образная структура построения конструктивных элементов протектора позволяет максимально увеличить площадь пятна контакта без ущерба другим важным эксплуатационным характеристикам шины. Это обеспечивает хорошие показатели тяги и сцепления при движении по снегу шине Goodride SW-606. Две продольные канавки, отделяющие центральное ребро протектора, в сочетании с системой диагонально расположенных каналов обеспечивают эффективное удаление воды, снега и снежной шуги из пятна контакта, благодаря чему движение при неблагоприятных условиях внешней среды становится более уверенным.Яркой особенностью рисунка протектора данной шины являются усиленные плечевые зоны, оснащенные массивными блоками с установленными на них шипами и закругленным профилем. Такая конструкция плечевых зон эффективно проявляет себя при прохождении поворотов, а также при движении по занесенным снегом и покрытым льдом участкам. Весь протектор шиныGoodride SW606 испещрен зигзагообразными ламелями, которые без ущерба жесткости основным элементам протектора также обеспечивают хороший уровень сцепления и торможения на снегу и льду.Основные особенности шины Goodride SW606 - Цельное центральное ребро снижает сопротивление качения, уменьшает уровень шумов, обеспечивает высокий уровень комфорта;- V-образный направленный рисунок протектора шины обеспечивает короткий тормозной путь и прекрасное сцепление на снегу;- Жесткие усиленные плечевые зоны улучшают сцепление на снегу и обледенелых участках, а также при прохождении поворотов;- Множество зигзагообразных ламелей повышают надежность управления автомобилем при движении на скользких поверхностях.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Модель не найдена</t>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
         </is>
       </c>
     </row>
@@ -626,27 +556,12 @@
           <t>Maxxis Premitra Snow WP06 SUV</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Зимняя шина для внедорожников и кроссоверов Maxxis Premitra Snow WP6 SUV рассчитана на эксплуатацию при температурах ниже 7 градусов по Цельсию. Такая рекомендация производителя делает эту модель пригодной для круглогодичного применения, по крайней мере, в северных регионах.Протекторный рисунок выделяется «классическим» для зимних шин V-образным дизайном, отличаясь малыми размерами образующих его блоков. Элементы располагаются группами, удлиняющими поперечные кромки, что повышает тягу на заснеженном покрытии. На льду эта способность усиливается многочисленными ламелями. V-образное расположение канавок и их направленность против движения позволяет сохранить устойчивость при неблагоприятных погодных условиях.
-Основные особенности Maxxis Premitra Snow WP6 SUV
-- V-образный протекторный рисунок эффективен на любом зимнем покрытии;
-- резиновая смесь эластичная при низких температурах, обеспечивая надежное сцепление в зимнее время, улучшая топливную экономичность;
-- усиленные боковины безболезненно переносят наезд на бордюр.Читать полностью Протекторный рисунок выделяется «классическим» для зимних шин V-образным дизайном, отличаясь малыми размерами образующих его блоков. Элементы располагаются группами, удлиняющими поперечные кромки, что повышает тягу на заснеженном покрытии. На льду эта способность усиливается многочисленными ламелями. V-образное расположение канавок и их направленность против движения позволяет сохранить устойчивость при неблагоприятных погодных условиях.
-Основные особенности Maxxis Premitra Snow WP6 SUV
-- V-образный протекторный рисунок эффективен на любом зимнем покрытии;
-- резиновая смесь эластичная при низких температурах, обеспечивая надежное сцепление в зимнее время, улучшая топливную экономичность;
-- усиленные боковины безболезненно переносят наезд на бордюр.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Описание Maxxis Premitra Snow WP6 SUVЗимняя шина для внедорожников и кроссоверов Maxxis Premitra Snow WP6 SUV рассчитана на эксплуатацию при температурах ниже 7 градусов по Цельсию. Такая рекомендация производителя делает эту модель пригодной для круглогодичного применения, по крайней мере, в северных регионах.Протекторный рисунок выделяется «классическим» для зимних шин V-образным дизайном, отличаясь малыми размерами образующих его блоков. Элементы располагаются группами, удлиняющими поперечные кромки, что повышает тягу на заснеженном покрытии. На льду эта способность усиливается многочисленными ламелями. V-образное расположение канавок и их направленность против движения позволяет сохранить устойчивость при неблагоприятных погодных условиях.Основные особенности Maxxis Premitra Snow WP6 SUV- V-образный протекторный рисунок эффективен на любом зимнем покрытии;- резиновая смесь эластичная при низких температурах, обеспечивая надежное сцепление в зимнее время, улучшая топливную экономичность;- усиленные боковины безболезненно переносят наезд на бордюр.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Ошибка при парсинге: HTTPSConnectionPool(host='autoshini.ru', port=443): Max retries exceeded with url: /shop/shiny-maxxis/ (Caused by ProxyError('Unable to connect to proxy', ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0x0000028484666C10&gt;, 'Connection to 193.160.211.155 timed out. (connect timeout=30)')))</t>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
         </is>
       </c>
     </row>
@@ -656,60 +571,192 @@
           <t>Michelin Latitude Sport 3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>К летнему сезону 2014 года компания Мишлен представляет новую дорожную шину со спортивным характером для широкой гаммы вседорожников – MICHELIN Latitude Sport 3. Это третье поколение дорожных шин гаммы Latitude для мощных кроссоверов от компании Мишлен.Еще до старта продаж новинка от Мишлен уже была признана многими ведущими автопроизводителями и получила омологацию на первичную комплектацию таких передовых вседорожников, как Porsche Macan, BMW X5, Volvo XC90.
-Это признание стало возможным за счет улучшения сразу нескольких наиболее важных для потребителей характеристик: сокращения тормозного пути на мокром покрытии на 2,7 метра по сравнению с шиной предыдущего поколения MICHELIN Latitude Sport, но и существенно улучшить ходимость шины, её прочность и управляемость.Читать полностью Еще до старта продаж новинка от Мишлен уже была признана многими ведущими автопроизводителями и получила омологацию на первичную комплектацию таких передовых вседорожников, как Porsche Macan, BMW X5, Volvo XC90.
-Это признание стало возможным за счет улучшения сразу нескольких наиболее важных для потребителей характеристик: сокращения тормозного пути на мокром покрытии на 2,7 метра по сравнению с шиной предыдущего поколения MICHELIN Latitude Sport, но и существенно улучшить ходимость шины, её прочность и управляемость.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Описание Michelin Latitude Sport 3 Летняя легковая шина Michelin Latitude Sport 3 является одной из новейших разработок французского шинного гиганта. На этот раз новинка предназначена для мощных спортивных кроссоверов, максимальная скорость которых намного превышает 200 км/ч. При этом данная модель не только обеспечивает высочайшую производительность, но и выгодно отличается сочетанием топливной экономичности и продолжительного срока службы. Для этого французским специалистам пришлось полностью пересмотреть конструкцию каркаса, протекторный рисунок и состав резиновой смеси, которые получили целый ряд нововведений.Увеличенное количество сцепных кромокПо вполне понятным причинам специалисты французской компании предпочли не отказываться от симметричного протекторного рисунка, который на предыдущей модели с цифрой 2 в названии продемонстрировал себя с наилучшей стороны. Он по-прежнему разделен на несколько функциональных зон: центральная часть, окруженная с двух сторон широкими плечевыми зонами.В наибольшей степени изменилась конструкция центральной частиMichelin Latitude Sport 3 . Три продольных ребра, составляющие ее, заметно увеличились в размерах, что привело к значительному улучшению целого ряда характеристик шины. Прежде всего, это курсовая устойчивость и оперативность управления.Кроме того, каждое из продольных ребер получило дополнительно множество поперечных граней, благодаря чему удалось улучшить сцепные свойства при разгоне и торможении, особенно на мокрой дороге. Эти кромки сцепления образуются благодаря специальным ламелям, которые, ко всему прочему, повышают жесткость продольных ребер, что способствует дополнительному снижению сопротивления качения.Модернизированная резиновая смесьНе менее значительным изменениям подверглась резиновая смесь. При этом нововведения имеются не только в ее составе, но и в технологии изготовления, которая обеспечивает более равномерное распределение всех компонентов, позволяя тем самым добиться однородности свойств протектора. Что касается состава, то в нем появились кремнийсодержащие компоненты нового поколения. Благодаря им, удалось значительно улучшить сцепные свойства на мокрой дороге, а также стойкость протектора к абразивному износу, что, в свою очередь, привело к значительному увеличению службы всей шины.Усиленная конструкция каркасаОсновным нововведением  в конструкции каркаса стал двойной брекерный слой. Этого оказалось достаточно, чтобы не только сделать шину прочнее, но и обеспечить ей повышенную стойкость к деформационным изменениям, возникающим во время движения. В результате  Latitude Sport 3 выгодно отличается от предыдущей модели, как по управляемости, так и по расходу топлива.Короткий тормозной путь на мокрой дорогеПомимо дополнительных кромок сцепления, расположенных в центральной части протекторного рисунка, для уменьшения тормозного пути на мокрой дороге определенные изменения появились в его плечевых зонах. Расположенные здесь блоки получили скошенные грани. Этой «мелочи» хватило для того, чтобы уменьшить тормозной путь при движении на скорости 100 км/ч на 2,7 метра. Кроме того, сглаженные грани блоков плечевых зон при прохождении поворотов заметно увеличивают пятно контакта, повышая тем самым сцепные свойства в поперечном направлении.Основные особенности Michelin Latitude Sport 3 - шина специально создана для мощных кроссоверов и компактных внедорожников;- симметричный протекторный рисунок предназначен для движения исключительно по асфальтированным дорогам;- повышенные по сравнению с предыдущей моделью сцепные свойства в продольном направлении, благодаря увеличенному количеству поперечных кромок в центральной части протектора;- три массивных и очень жестких продольных ребра в центральной части протекторного рисунка обеспечивают отличную курсовую устойчивость, стабильность и быстроту реакций шины на повороты руля при движении на высокой скорости;- широкие плечевые зоны со сглаженными краями блоков обеспечивают исключительное сцепление в поворотах и активном маневрировании на большой скорости, особенно на мокрой дороге;- высокая стойкость к аквапланированию за счет большого объема продольных и поперечных дренажных канавок;- новые компоненты в составе резиновой смеси повысили стойкость протектора к абразивному износу, сцепные свойства на мокрой дороге, а также показатели топливной экономичности.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Michelin Pilot Sport A/S 3
-- всесезонные шины UHP класса со сверхвысокими характеристиками.
-Автошины созданы для обеспечения надежного сцепления и тяги в сухих и влажных условиях в сочетании с возможностями легкого снега.
-Для достижения этих целей, французский концерн использовал различные функции и решения, в том числе эксклюзивные Helio+ и Variable Contact Patch 3.0
-Helio+
-- одна из самых передовых шинных технологий Michelin. В состав входит подсолнечное масло и протекторный компаунд, изготовленный по технологии Extreme Silica.
-Эта комбинация помогает увеличить сцепные возможности шины с мокрой дорогой в холодную погоду.
-Variable Contact Patch 3.0
-- технология, позаимствованная у гоночных колес для износостойкости, равномерного распределения пятна контакта. Помогает повысить долговечность резины.
-Оптимизированный рисунок протектора шины
-Колеса имеют оптимизированный по характеристикам дизайн протектора в асимметричном исполнении.
-Протектор представляет собой комбинацию нескольких элементов, таких как прочные блоки на внешних плечах, предназначенные для увеличения поперечного контакта резины.
-Жесткие блоки помогают улучшить характеристики автошины на поворотах на сухой дороге.
-Протектор также имеет четыре широкие канавки по окружности, предназначенные для минимизации аквапланирования, и улучшения возможностей колес на мокрой и скользкой поверхности.
-Сухая производительность колес
-Michelin Pilot Sport AS3 - одна из лучших шин UHP класса. Это можно объяснить использованием технологий из спорта.
-Внедрение технологии переменного пятна контакта, которая изначально была разработана для автомобилей Формулы 1, помогает улучшить реакцию колес и сцепление с дорогой в сухих условиях.
-Прочная боковина помогает автошинам оставаться устойчивыми даже при прохождении крутых поворотов на полностью загруженном автомобиле.
-Всякий раз, проходя поворот, вы четно осознаете сцепные возможности, а также уровень блокировки рулевого управления, необходимый для достижения максимальной производительности.
-Колеса не соответствуют возможностям летней шины премиум-класса, однако общих показателей для повседневного использования будет более чем достаточно.
-Производительность во влажных условиях
-Некоторые сверхвысокопроизводительные автошины имеют тенденцию давать сбои всякий раз, когда попадают в мокрую, влажную или скользкую погоду. Всесезонная резина Мишлен Пилот Спорт АС3 демонстрирует уверенные характеристики в подобных дисциплинах.
-Даже на очень мокрых поверхностях резина показывает отменное сцепление и один из самых коротких тормозных путей в своей категории.
-Поведение отмечается стабильностью и сбалансированностью. Реакция на рулевое управление быстрая и точная, а поведение на поворотах одинаково адекватное.
-Снежная дисциплина
-Всесезонные шины Мишлен Пилот Спорт АС3
-со сверхвысокими эксплуатационными возможностями не предназначены для заснеженных регионов или обледенелых дорог.
-По словам Мишлен, автошины обладают характеристиками и возможностями, обеспечивающими надежное сцепление на легком снегу.
-Резина хорошо справляется с крутыми поворотами, а ее тормозной путь остается вполне приличным по сравнению с другими колесами данной категории.
-С учетом вышесказанного, использование шины на дорогах, покрытых толстым слоем снега или льда, может оказаться не эффективным.
-Если в вашем регионе обилие снега, дороги не чистятся или работа требует езды в таких окрестностях, необходимо рассмотреть другие модели резины.
-Автошины спроектированы для южных регионов, где редкое и непродолжительное обилие снега, предполагает возможность оставить машину в гараже на пару тройку дней.
-Внедорожные способности резины Мишлен Пилот Спорт АС3
-Всесезонные колеса UHP
-класса не предназначены езды по проселочной или не асфальтированной дороге.
-Состав автошины недостаточно прочен, чтобы выдерживать порезы, проколы, сколы и другие виды повреждений, причиняемые камнями и гравием.
-Шины могут не дать достаточного сцепления, особенно в условиях грязи или травы.
-Качество езды автошины Michelin Pilot Sport A/S 3
-Колеса кажутся жесткими и твердыми всякий раз, когда вы сталкиваетесь с выбоинами и неровностями. Резина может передавать шум и вибрацию, особенно при движении по шоссе.
-По сравнению с другими шинами UHP в этом классе, плавность и мягкость хода немного ниже.</t>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Yokohama iceGuard iG60A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GT SAVERO SUV</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{'description': 'Ошибка при парсинге: 404 Client Error: Not Found for url: https://www.4tochki.ru/catalog/tyres/gt/'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Continental VancoFourSeason 2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Matador MP 47 Hectorra 3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nokian Hakkapeliitta R2 SUV</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rapid Freeze 4x4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Linglong GreenMax HP010</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Белшина Astarta SUV Bel-345</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{'description': 'Ошибка при парсинге: Exceeded 30 redirects.'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Roadstone Winguard Ice</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Maxxis NP5 PREMITRA ICE NORD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Haida HD687</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ilink L-ZEAL56</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>{'description': 'Модель не найдена'}</t>
         </is>
       </c>
     </row>

--- a/files/описание_шин.xlsx
+++ b/files/описание_шин.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Описание не найдено для модели</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Описание не найдено для модели</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Описание не найдено для модели</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Описание не найдено для модели</t>
         </is>
       </c>
     </row>
@@ -531,14 +531,14 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Описание не найдено для модели</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Goodride SW606</t>
+          <t>Maxxis Premitra Snow WP06 SUV</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -546,14 +546,14 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Зимняя нешипованная шина Maxxis Premitra Ice SP3 предназначена для компактных и средних легковых автомобилей передвигающихся в суровых зимних условиях. Благодаря использованию современных VIP технологий модель Premitra Ice SP3 обеспечивает прекрасное сцепление и торможение по льду, снегу и слякоти, отличную управляемость и впечатляющие ездовые характеристики. Зимняя формула резиновой смеси протектора с использованием высокодиспергированного силиконового компонента гарантирует эластичность при сверхнизких температурах и обеспечивает эффективные сцепные характеристики. Высокопрочный металлокордный брекер, использованный в конструкции каркаса, повышает управляемость и эффективно демпфирует удары. Оптимизированный протектор с увеличенным количеством острых граней способствует надежному сцеплению на снегу и гололеде. Увеличенное количество ламелей блокирующихся на высоких скоростях или при сильных нагрузках, делают блоки более жесткими. Это обеспечивает прочный отпечаток для отличной управляемости и стабильности.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Maxxis Premitra Snow WP06 SUV</t>
+          <t>Michelin Latitude Sport 3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -561,14 +561,14 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Летняя дорожная шина Michelin Latitude Sport 3 со спортивным характером для широкой гаммы вседорожников. Шину характеризует сокращенный тормозной путь на мокрой дороге и высокий уровень ходимости, чего удалось достигнуть благодаря новой комбинации эластомеров в резиновой смеси. Кроме этого модель Latitude Sport 3 снабжена двойным каркасом, что существенно снижает риск повреждения шины при попадании в яму или наезде на бордюр. Безопасность Увеличенная на 10% по сравнению с шиной Michelin Latitude Sport ширина водоотводных каналов обеспечивает оперативный отвод влаги, гарантируя уверенное сцепление на мокром покрытии.   Усиленная двойная конструкция каркаса, обеспечила шине устойчивость на предельных скоростях как при прямолинейном движении, так и при выполнении маневров. Прочность Применение двойного каркаса обеспечивает дополнительную прочность шины при езде по дорогам с плохим покрытием. Использование современных материалов и оптимизация конструкции каркаса позволили сократить вес шины Michelin Latitude Sport 3, что сказалось на управляемости и снизило сопротивление качению. Ходимость Инновационный состав резиновой смеси, включающий в себя комбинацию эластомеров последнего поколения и силику, обеспечивает высокий уровень износостойкости. Благодаря оптимизированному соотношению компонентов удалось достичь однородной резиновой смеси обеспечивающей эффективные сцепные свойства и топливную эко-номичность. Галерея</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Michelin Latitude Sport 3</t>
+          <t>Yokohama iceGuard iG60A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -576,14 +576,14 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Зимняя нешипованная шина Yokohama iceGuard Studless iG60A создана для легковых автомобилей, нуждающихся в надежном сцеплении на сложных участках зимних дорог. Модель iceGuard Studless iG60A объединила в себе инновационные решения японских инженеров и технологов. Автошина Yokohama iceGuard Studless iG60A отличается высокой эффективностью на ледяных, заснеженных, мокрых и очищенных дорогах в широком спектре зимних температур. Функциональный асимметричный протектор визуально разделен на внешнюю и внутреннюю части. Блоки внутренней части протектора, объединенные в сплошное продольное ребро, улучшают показатели шины на льду и мокрой дороге. Разнонаправленные грани блоков и острые элементы протектора улучшают сцепные и тормозные характеристики шины на снегу. Оптимизированное пятно контакта шины с дорогой улучшило сцепление и продлило срок службы протектора. Продольные каналы и сеть канавок оперативно отводят воду из пятна контакта, предотвращая аквапланирование. Резиновая смесь Premium Water Absorbing впитывает остаточную влагу с поверхности дороги, гарантируя надежное сцепление с жесткой поверхностью дороги.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Yokohama iceGuard iG60A</t>
+          <t>GT SAVERO SUV</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -591,14 +591,14 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Ошибка при парсинге: 404 Client Error: Not Found for url: https://www.4tochki.ru/catalog/tyres/gt/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GT SAVERO SUV</t>
+          <t>Continental VancoFourSeason 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -606,14 +606,14 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'description': 'Ошибка при парсинге: 404 Client Error: Not Found for url: https://www.4tochki.ru/catalog/tyres/gt/'}</t>
+          <t>Зимние шипованные шины Continental IceContact 2 предназначены для широкого спектра легковых автомобилей нуждающихся в надежном и безопасном сцеплении в суровых зимних условиях. Немецким разработчикам удалось улучшить управляемость на сухом дорожном покрытии на 9%, а на льду – на 2 %. Кроме того, автошина Continental IceContact 2 гарантирует повышенную управляемость на заснеженных дорогах. Наиболее значительно – на 8 % – выросли такие показатели, как передача тормозного и тягового усилий на льду. Новый состав резиновой смеси Black Magic остается гибким при низких температурах, что гарантирует лучшее сцепление с дорогой. Расположение шипов со смещением обеспечивает постоянный контакт шипа с нетронутым льдом, а не со льдом, который уже был раздроблен другими шипами. Результатом этого является улучшенное сцепление. Чтобы на шипы не налипал лед, инженеры концерна Continental разработали так называемые «ледовые карманы», то есть небольшие закрытые полости вокруг шипов, в которых скапливается раздробленный лед перед тем, как быть удаленным под действием центробежной силы. Такое решение ведет к росту уровня безопасности, особенно при торможении. Модель IceContact 2 получила новый асимметричный рисунок протектора. Наружная часть рисунка обеспечивает хорошее сцепление для оптимальной управляемости, а внутренняя - отличную тягу для надлежащего торможения и разгона. Внутренние блоки с большим количеством кромок и ступенчатых прорезей обеспечивают максимальный сбор снега для увеличения трения на снежной дороге. Синусоидальные ламели с выраженным эффектом взаимного замыкания увеличивают поперечную жесткость блоков внешней стороны.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Continental VancoFourSeason 2</t>
+          <t>Matador MP 47 Hectorra 3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -621,14 +621,14 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Летние шины Matador MP47 Hectorra 3 предназначены для эксплуатации на городских автомобилях компактного, среднего и бизнес классов. Модель MP47 Hectorra 3 объединила в себе технологии направленные на безопасное, комфортное и длительное использование. Автошина Matador MP47 Hectorra 3 обеспечивает эффективную управляемость и короткий тормозной путь на мокрых и сухих дорогах, высокий уровень комфорта и увеличенный ресурс пробега. Асимметричный рисунок протектора, с жесткими и прочными ребрами блоков центральной зоны, улучшает тягу и курсовую устойчивость и сокращает тормозной путь. Увеличенная площадь пятна контакта снижает износ и увеличивает срок службы. Продольные каналы оперативно выводят воду из пятна контакта шины с дорогой, предотвращая аквапланирование. Закрытое строение внешней зоны протектора снижает уровень шума и увеличивает комфорт. Протектор шины имеет фирменный индикатор TWI, позволяющий отслеживать износ для своевременной замены шин.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Matador MP 47 Hectorra 3</t>
+          <t>Nokian Hakkapeliitta R2 SUV</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -636,14 +636,14 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Нешипованная зимняя шина Nokian Tyres Hakkapeliitta R2 SUV создана для растущего SUV-сегмента. В шине использованы те же прогрессивные технические решения, что и в модели Hakkapeliitta R2 обеспечивающие высокий уровень комфорта и надежную курсовую устойчивость в сложных климатических условиях. В конструкции автошины Nokian Tyres Hakkapeliitta R2 SUV использован усиленный каркас, обеспечивающий высокий уровень безопасности тяжелых автомобилей. Новая концепция  Cryo Crystal - резиновая смесь в сочетании с уникальным рисунком протектора гарантируют шине равномерный износ и долгий срок службы. Уникальный симбиоз протектора и резиновой смеси Nokian Cryo Crystal, разработанный специально для нешипованной зимней шины обеспечивает уверенное сцепление и точность управления на скользких и сухих поверхностях. Добавленные  в резиновую смесь многогранные кристаллы способствуют дополнительному резерву сцепления. Равномерное распределение частиц гарантирует сохранение качественных показателей покрышки при ее износе. Центральное ребро Center Rib, объединяет блоки протектора в единое целое эффективно распределяя нагрузку по всей площади пятна контакта шины с дорогой. Шины установленные на ведущие оси тяжелых автомобилей интенсивнее всего стираются в центральной части протектора. Использование в протекторе центрального жесткого ребра обеспечивает шине равномерный износ протектора. Использование когтеобразных зубцов Gripclaws, расположенных между блоками протектора плечевой зоны улучшает сцепление на заснеженных и обледенелых участках дороги при разгоне и торможении. Блоки центральной части протектора также имеют зубчатое строение граней, что гарантирует надежный контакт с заснеженной дорогой. Высокая плотность разнонаправленных ламелей способствует высокому уровню безопасности на зимней дороге. Расположенные в плечевой зоне протектора возбудители ламелей способствуют улучшению сцепления в быстро меняющихся погодных условиях. Запатентованная технология ламелей-насосов Pumpsipe обеспечивает оперативный дренаж влаги с поверхности дороги для надежного сцепления с жесткой поверхностью.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nokian Hakkapeliitta R2 SUV</t>
+          <t>Rapid Freeze 4x4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -651,112 +651,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'description': 'Модель не найдена'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Rapid Freeze 4x4</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>{'description': 'Модель не найдена'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Linglong GreenMax HP010</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>{'description': 'Модель не найдена'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Белшина Astarta SUV Bel-345</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>{'description': 'Ошибка при парсинге: Exceeded 30 redirects.'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Roadstone Winguard Ice</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>{'description': 'Модель не найдена'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Maxxis NP5 PREMITRA ICE NORD</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>{'description': 'Модель не найдена'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Haida HD687</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>{'description': 'Модель не найдена'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ilink L-ZEAL56</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>{'description': 'Модель не найдена'}</t>
+          <t>Модель не найдена</t>
         </is>
       </c>
     </row>

--- a/files/описание_шин.xlsx
+++ b/files/описание_шин.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,285 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Linglong GreenMax HP010</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Качественные радиальные летние шины. Тип автомобиля, для которого предназначены покрышки: легковой. Изготавливаются на заводах LingLong с использованием электронного контроля качества готовой продукции.Читать полностью и.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Описание LingLong GreenMax HP010 Как правило, у отечественных автовладельцев легковые шины китайских производителей прочно ассоциируются с продукцией ненадлежащего качества. Этот стереотип в полной мере относится не только к автомобильным шинам, но и к другим товарам из Поднебесной. Однако с недавних пор это утверждение мало соответствует действительности. Летняя легковая шина LingLong GreenMax HP010 относится к новому поколению китайских шин, эксплуатационные характеристики которых достигли нового уровня. Данная шина предназначена для использования на легковых автомобилях компактного класса и выпускается в 21 типоразмере, диаметр от 14 до 16 дюймов. Как видите, эта шина прекрасно подойдет для большинства городских легковых автомобилей. Также следует отметить и достаточно высокие скоростные индексы, присвоенные данной шине  H и V, что говорит о высоком уровне безопасности, предлагаемым этим китайским производителем.Дизайн симметричного ненаправленного рисунка протектора полностью соответствует всем современным тенденциям разработки шин. Рисунок протектораLingLong GreenMax HP010 скроен по модному на сегодняшний день пятиреберному дизайну. Как это водится, в центре протектора располагаются три продольных ребра, а по бокам протектора  плечевые зоны.Продольное ребро, расположенное в самом центре протектора было дополнительно усилено с целью обеспечения прекрасных показателей курсовой устойчивости и уменьшения сопротивления качения. Из других отличительных черт данной шины нельзя не отметить продуманную систему отвода воды из пятна контакта, состоящую из четырех продольных канавок и множества поперечных каналов изогнутой формы.Основные особенности шины LingLong GreenMax HP010 - превосходные тягово-сцепные показатели, не зависящие от типа покрытия, обеспечиваются оптимизированным симметричным рисунком протектора;- низкий риск возникновения аквапланирования за счет эффективной организации отвода воды из пятна контакта;- Низкий уровень шума обеспечивается размещением блоков центральных ребер с неравномерным шагом.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Белшина Astarta SUV Bel-345</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Новая легковая шина AstartA SUV, радиальная, бескамерная, с металлокордом в брекере, предназначена для эксплуатации на полноразмерных автомобилях класса SUV.Новый оригинальный дорожный рисунок протектора обеспечивает высокие тягово-сцепные свойства, управляемость движения, надежную скоростную выносливость, устойчивость шины к аквапланированию.Читать полностью тектора обеспечивает высокие тягово-сцепные свойства, управляемость движения, надежную скоростную выносливость, устойчивость шины к аквапланированию.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: 404 Client Error: Not Found for url: https://mosautoshina.ru/catalog/tyre/%D0%B1%D0%B5%D0%BB%D1%88%D0%B8%D0%BD%D0%B0/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: Exceeded 30 redirects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Roadstone Winguard Ice</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Шины Winguard Ice представляют собой зимние фрикционные покрышки, предназначенные производителем для легковых автомобилейИспользуя шины Winguard Ice, можно безопасно развивать скорость до 160 км/ч. Шины Winguard Ice отличаются комфортабельностью за счет низкого уровня шума. Благодаря симметричному рисунку протектора шины Winguard Ice с четырьмя параллельными канавками осуществляется эффективное самоочищение покрышки от налипшего и талого снега. Специально разработанный рисунок ламелей шины Winguard Ice в центральной зоне протектора обеспечивает максимальную курсовую устойчивость и предотвращает заносы. Прямоугольные симметричные блоки в плечевой зоне снижают риск потери управления на резких поворотах. Каучуковые и силиконовые компоненты в составе резины способствуют равномерному износу, и, как следствие, увеличивают экономичность шины Winguard Ice.Читать полностью 60 км/ч. Шины Winguard Ice отличаются комфортабельностью за счет низкого уровня шума. Благодаря симметричному рисунку протектора шины Winguard Ice с четырьмя параллельными канавками осуществляется эффективное самоочищение покрышки от налипшего и талого снега. Специально разработанный рисунок ламелей шины Winguard Ice в центральной зоне протектора обеспечивает максимальную курсовую устойчивость и предотвращает заносы. Прямоугольные симметричные блоки в плечевой зоне снижают риск потери управления на резких поворотах. Каучуковые и силиконовые компоненты в составе резины способствуют равномерному износу, и, как следствие, увеличивают экономичность шины Winguard Ice.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Описание Roadstone Winguard Ice SUVЗимняя шина Roadstone Winguard Ice SUV является идентичной копией одноименной модели от южнокорейской компании Nexen. Она, в свою очередь, была разработана на основе шины для легковых автомобилей, зарекомендовав себя на них с самой лучшей стороны. Наиболее весомыми преимуществами данной модели является отличное сцепление на заснеженных и обледенелых покрытиях, высокая эффективность при торможении, отменный уровень акустического и ездового комфорта. Добиться этого удалось за счет широкого применения современных технологических решений, о наиболее интересных из которых речь пойдет ниже.Двойные V-образные дренажные канавкиПротекторный рисунок данной модели характеризуется оригинальным дизайном дренажной системы, которая необычному расположению и формам входящих в ее состав элементов обладает широкой функциональностью. Речь идет о двойных V-образных дренажных канавках, расположенных, как в центре протектора, так и в его плечевых зонах протектора. Небольшой угол наклона в сочетании с различной шириной позволяет им повышать производительность шины, как на снегу, так и на льду. Особенно ярко это проявляется при продольных ускорениях, т.е. при ускорении и торможении.3D-блоки в центре протектораV-образные дренажные канавки, расположенные в самом центре протектора, выполняют и другие функции. Минимальная ширина позволяет им служить точкой опоры для находящихся здесь блоков. При этом их стреловидная форма и массивные размеры придает им устойчивость в трех плоскостях. Практическим результатом такого решения является улучшенная стабильность сцепных свойств, что, в свою очередь, облегчает процесс управления автомобилем при неблагоприятных погодных условиях, а также при движении на большой скорости.Надежная управляемость при плохих погодных условияхВышеупомянутая дренажная система обладает еще одним немаловажным преимуществом. Она демонстрирует высокую эффективность при отводе от пятна контакта, как воды, так и тяжеловесных снежных масс. Универсальность обеспечивается за счет двух факторов – увеличенного до 4 количества продольных канавок, а также значительного внутреннего объема, как этих элементов дренажных элементов, так и поперечных каналов в плечевых зонах протектора.Основные особенности шины Roadstone Winguard Ice SUV- двойные дренажные канавки улучшают продольные сцепные свойства на льду и снегу;- 3D-блоки центрального продольного ребра улучшают стабильность сцепления при неблагоприятных погодных условиях, а также при движении на большой скорости;- универсальные характеристики дренажной системы, обеспечиваемые за счет увеличенной численности продольных канавок и значительного внутреннего объема каналов, расположенных в плечевых зонах;- дополнительные V-образные канавки в плечевых зонах, расположенные продольно, улучшают устойчивость при маневрировании на скользких покрытиях.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Maxxis NP5 PREMITRA ICE NORD</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Зимние шины, разработанные специально для повышенного сцепления на обледенелых и заснеженных дорогах.Характеристики Maxxis Premitra Ice Nord NP5:- Многоугольный дизайн ламелей и стенок блоков протектора для увеличения длины кромок и лучшего сцепления с поверхностью- Двухслойный высокопрочный стальной корд поглощает энергию ударов о дорожную поверхность для комфорта и сверхточной управляемости
+- Специальный состав резинового наполнителя бортовой зоны препятствует перегреву шины и обеспечивает низкое сопротивление качениюЧитать полностью - Двухслойный высокопрочный стальной корд поглощает энергию ударов о дорожную поверхность для комфорта и сверхточной управляемости
+- Специальный состав резинового наполнителя бортовой зоны препятствует перегреву шины и обеспечивает низкое сопротивление качению</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Описание Maxxis Premitra Ice 5 SP5 SUVMaxxis Premitra Ice 5 SP5 SUV – модель, устанавливаемая на кроссоверы и внедорожники, используемые в суровых зимних условиях. Шина характеризуется улучшенными показателями цепкости на заснеженном и обледенелом дорожном полотне, уверенной управляемостью и стойкостью к заносам.Направленный рисунок протектора V-образного типа с обильной сетью ламелей максимально адаптирован к зимним условиям. Наличие большого количества зацепных кромок, а также эластичный компаунд способствуют уверенному контакту с дорогой, поддерживая управляемость.Важным аспектом новой резиновой смеси выступает кремниевый компонент SiRu   обеспечивает равномерность распределения всех составляющих, а также поддерживает высокую степень эластичности при отрицательных температурах. Благодаря этому поведение автомобиля даже на ледяной корке остается всегда предсказуемым.Наличие многочисленных диагонально направленных каналов реализуется быстрота очистки контактной зоны. Это касается, как водных, так и снежных масс. Результат – прозрачность управления даже на высокой скорости.Основные особенности Maxxis Premitra Ice 5 SP5 SUV- инновационный компаунд с компонентом SiRu обеспечивает лучшую адаптацию покрышки к зимним условиям;- многочисленные блоки и ламели создают множество зацепных граней, повышающих проходимость и стабильность транспорта на зимней дороге;- защита от гидропланирования и слэшинга за счет большой сети каналов.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Все типоразмеры
+шин Maxxis Premitra Ice Nord NP5 (Премитра Айс Норд НП 5)
+на сайте есть в наличии, цены актуальные.
+В каталоге все модели шин
+Maxxis
+с подробным описанием, изображениями, характеристиками, отзывами.
+Если возникнут трудности с подбором резины Maxxis Premitra Ice Nord NP5 (Премитра Айс Норд НП 5), позвоните нам, наши менеджеры подберут подходящие типоразмеры
+шин Maxxis Premitra Ice Nord NP5
+или другие модели резины для Вашего автомобиля.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Зимняя нешипованная шина Maxxis Premitra Ice SP3 предназначена для компактных и средних легковых автомобилей передвигающихся в суровых зимних условиях. Благодаря использованию современных VIP технологий модель Premitra Ice SP3 обеспечивает прекрасное сцепление и торможение по льду, снегу и слякоти, отличную управляемость и впечатляющие ездовые характеристики. Зимняя формула резиновой смеси протектора с использованием высокодиспергированного силиконового компонента гарантирует эластичность при сверхнизких температурах и обеспечивает эффективные сцепные характеристики. Высокопрочный металлокордный брекер, использованный в конструкции каркаса, повышает управляемость и эффективно демпфирует удары. Оптимизированный протектор с увеличенным количеством острых граней способствует надежному сцеплению на снегу и гололеде. Увеличенное количество ламелей блокирующихся на высоких скоростях или при сильных нагрузках, делают блоки более жесткими. Это обеспечивает прочный отпечаток для отличной управляемости и стабильности.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Haida HD687</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Описание Haida HD687 Зимняя шина Haida HD687 предназначена для интенсивной эксплуатации в местностях с холодным климатом. Отличается надежностью сцепных свойств на снегу и обледенелом покрытии, легкостью управления, эффективностью торможения и топливной экономичностью.Направленный протекторный рисунок выделяется V-образным расположением и направленностью против движения дренажных канавок. Это позволяет использовать для отвода воды и тяжеловесной смеси со снегом силу вращения колеса, за счет чего даже при самых неблагоприятных погодных условиях сохраняется надежность управления. Блоки в центральной части выполнены более массивными. В сочетании с их плотным расположением это повышает курсовую стабильность и точность управления, уменьшает расход топлива и износ.Основные особенности Haida HD687 - отличная устойчивость к аквапланированию и слэшпленнингу благодаря направленности против движения дренажных канавок;- широкие блоки в центральной части уменьшают сопротивление качению и износ, улучшают курсовую стабильность и управляемость;- блоки по краям протектора повышают тягу на снегу, устойчивость при маневрировании, препятствуют неравномерному истиранию.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ilink L-ZEAL56</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kumho CW51</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ШинаKumho Winter PorTran CW51– нешипованная зимняя шина, предназначенная для эксплуатации на легкогрузовом коммерческом транспорте, прежде всего, на микроавтобусах.Значительная доля высокой эффективности шины Kumho CW51 на зимних дорогах обеспечивается за счет симметричного ненаправленного рисунка протектора. Протектор данной модели оснащен значительным числом небольших блоков, равномерно распределенных по четырем продольным ребрам. Благодаря такому дизайну, шина Kumho Winter PorTran CW51 обеспечивает отличную курсовую устойчивость при любых дорожных условиях.Обе плечевые зоны протектора Kumho Winter PorTran CW51 включают большое число отдельных блоков. Но, в отличие от центральной части, они выполнены более массивныи, а также имеют прямоугольную форму и поперечное расположение. При продольных ускорениях блоки плечевых зон, за счет создаваемых длинных кромок, улучшают сцепные свойства, а также их стабильность, а в поворотах – устойчивость. Массивные размеры и жесткая конструкция в существенно оптимизируют распределение внешней нагрузки, что повышает грузоподъемность и сопротивляемость шины неравномерному износу.
+Протектор шины Kumho Winter PorTran CW51 оснащен несколькими видами ламелей. В центральной части они имеют  волнообразную форму. В результате при их открытии ограничивается подвижность блоков в поперечном направлении, что снижает вероятность срыва шины в скольжение. Плечевые зоны включают 3D-ламели. Раскрываясь, они не только образуют множество дополнительных поперечных сцепных кромок, но и ограничивают подвижность блоков, как в поперечном, так и продольном направлении. В сочетании с направленностью ламелей это существенно снижает протяженность тормозного пути, особенно на укатанном снегу и льду.Читать полностью Обе плечевые зоны протектора Kumho Winter PorTran CW51 включают большое число отдельных блоков. Но, в отличие от центральной части, они выполнены более массивныи, а также имеют прямоугольную форму и поперечное расположение. При продольных ускорениях блоки плечевых зон, за счет создаваемых длинных кромок, улучшают сцепные свойства, а также их стабильность, а в поворотах – устойчивость. Массивные размеры и жесткая конструкция в существенно оптимизируют распределение внешней нагрузки, что повышает грузоподъемность и сопротивляемость шины неравномерному износу.
+Протектор шины Kumho Winter PorTran CW51 оснащен несколькими видами ламелей. В центральной части они имеют  волнообразную форму. В результате при их открытии ограничивается подвижность блоков в поперечном направлении, что снижает вероятность срыва шины в скольжение. Плечевые зоны включают 3D-ламели. Раскрываясь, они не только образуют множество дополнительных поперечных сцепных кромок, но и ограничивают подвижность блоков, как в поперечном, так и продольном направлении. В сочетании с направленностью ламелей это существенно снижает протяженность тормозного пути, особенно на укатанном снегу и льду.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Описание Kumho CW51 Зимняя легковая шина Kumho CW51 является одной из новинок известного в нашей стране южнокорейского производителя. Но, в отличие от большинства представленных им новых моделей, эта шина предназначена для легкогрузовой коммерческой техники, прежде всего, для микроавтобусов. Благодаря использованию новейших технологий и материалов, ею демонстрируются превосходное сцепление и управляемость на любых зимних дорогах.Высокоэффективный протекторный рисунок Kumho CW51 Значительная часть сцепных свойствKumho CW51 на зимних дорогах обеспечивается за счет высокой эффективности симметричного ненаправленного рисунка протектора. Его дизайн отличается наличием значительного числа небольших блоков, равномерно распределенных по четырем продольным ребрам. Благодаря такому расположению этих протекторных элементом, шине придается отличная курсовая устойчивость при любых дорожных условиях.Усиленная конструкция плечевых зонОбе плечевые зоны содержат множество отдельных блоков. Но в отличие от центральной части они имеют куда более массивные размеры, а также отличаются прямоугольной формой и поперечным расположением. При продольных ускорениях блоки плечевых зон за счет создаваемых длинных кромок улучшают сцепные свойства, а также их стабильность, а в поворотах – устойчивость. Кроме того, их массивные размеры и жесткая конструкция в значительной степени оптимизирует распределение внешней нагрузки, что, в свою очередь повышает грузоподъемность и сопротивляемость неравномерному износу.Несколько видов ламелейПротекторKumho CW51 оснащен несколькими видами ламелей. В центральной части они отличаются волнообразной формой. В результате при их открытии ограничивается подвижность блоков в поперечном направлении, что снижает вероятность срыва шины в скольжение. Плечевые зоны содержат 3D-ламели. Раскрываясь, они не только образуют множество дополнительных поперечных сцепных кромок, но и ограничивают подвижность блоков, как в поперечном, так и продольном направлении. В сочетании с направленностью ламелей это весьма значительно сокращает протяженность тормозного пути, в особенности на укатанном снегу и льду.Основные особенности:- оптимизированный для любых зимних дорог протекторный рисунок демонстрирует превосходную эффективность в любых условиях;- многочисленные протекторные блоки обеспечивают отменные тягово-сцепные свойства на снегу;- широкие плечевые блоки прямоугольной формы улучшают устойчивость при маневрировании и сцепление при ускорении и торможении, а также оптимизируют распределение внешней нагрузки, повышая грузоподъемность и сопротивляемость неравномерному износу;- трехмерные ламели в плечевых зонах повышают производительность при ускорении и торможении, обеспечивают надежную и прогнозируемую управляемость.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Белшина Бел-277</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: 404 Client Error: Not Found for url: https://mosautoshina.ru/catalog/tyre/%D0%B1%D0%B5%D0%BB%D1%88%D0%B8%D0%BD%D0%B0/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ошибка при парсинге: Exceeded 30 redirects.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Landsail SNOW STAR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежный контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Landsail Snow Star C — зимние нешипованные шины для коммерческого транспорта. Расположение ламелей в блоках протектора оптимизировано для создания максимального количества режущих кромок на большой площади пятна контакта. Благодаря 3D-дизайну, ламели сцепляются в жесткие устойчивые блоки протектора. Состав резиновой смеси с большим содержанием силики в шинах разработан для улучшения сцепления и торможения в экстремальные морозы. Треугольные углубления по краям плечевых блоков снижают сопротивление качению и отводят тепло для большей стабильности и ресурса шины. Три широкие продольные канавки, работая совместно, эффективно сопротивляются аквапланированию, повышают управляемость и сокращают тормозной путь. Пилообразные боковые канавки поддерживают высокий уровень сцепления и управляемости. Landsail Snow Star подходит для использования в суровых зимних условиях.Читать полностью Landsail Snow Star C — зимние нешипованные шины для коммерческого транспорта. Расположение ламелей в блоках протектора оптимизировано для создания максимального количества режущих кромок на большой площади пятна контакта. Благодаря 3D-дизайну, ламели сцепляются в жесткие устойчивые блоки протектора. Состав резиновой смеси с большим содержанием силики в шинах разработан для улучшения сцепления и торможения в экстремальные морозы. Треугольные углубления по краям плечевых блоков снижают сопротивление качению и отводят тепло для большей стабильности и ресурса шины. Три широкие продольные канавки, работая совместно, эффективно сопротивляются аквапланированию, повышают управляемость и сокращают тормозной путь. Пилообразные боковые канавки поддерживают высокий уровень сцепления и управляемости. Landsail Snow Star подходит для использования в суровых зимних условиях.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Описание Landsail Snow Star Зимняя шина Landsail Snow Star создана для различных легкогрузовых автомобилей. При разработке данной шины специалисты постарались учесть все возможные нюансы эксплуатации и главный упор сделали на максимальную устойчивость и безопасность. Чтобы улучшить эти показатели пришлось использовать новую резиновую смесь и оптимизировать протектор. По завершению производства шина проходит тщательный контроль качества, поэтому полностью соответствует всем заявленным параметрам и не имеет брака.Новые компоненты в резиновой смесиПри эксплуатации в зимних условиях шинаLandsail Snow Star должна сохранять свою эластичность, чтобы обеспечивать повышенные сцепные характеристики. Для этого в резиновой смеси содержится повышенное содержание силики, в результате этого не только повысились сцепные свойства, но и ускорилось восстановление протектора. Поэтому шина отличается уверенным управлением на любой дорожной поверхности и повышенным комфортом езды. Для повышения пробега использовался кремний, который повысил износостойкие характеристики резины. Данная шина позволит полностью контролировать управление на любой дороге.Оптимизированный протекторный рисунокНовый метод компьютерного моделирования позволил подобрать оптимальное расположение блоков по всей поверхности протектора. Все они имеют острые кромки, которые "вгрызаются" в любую поверхность, обеспечивая отличное сцепление и предотвращая возможную пробуксовку колес. Усиленная плечевая зона повышает устойчивость при различных маневрах, а также сводит риск повреждений и проколов. Специальные глубокие каналы обеспечивают быстрое самоочищение. Мелкие насечки способствуют уменьшению звукового эффекта при движении.Основные особенности шины Landsail Snow Star - обновленная резиновая смесь положительно сказалась на сцеплении с любой дорожной поверхностью, а также повысила срок службы протектора;- новый дизайн протектора улучшил ходовые качества и обеспечил уверенное управление на любой дорожной поверхности;- необычной формы ламели улучшают сцепление при гололеде и уменьшают шум при движении;- усиленная боковая зона надежно защищает протектор от повреждений и повышает устойчивость при маневрах.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Шины Landsail Ice Star iS33
+(Ландсейл Айс Стар айС33) - это современное решение для автолюбителей, которым нужны надежные и производительные зимние покрышки с высоким уровнем безопасности и комфорта. Эта модель представляет собой сбалансированное сочетание передовых технологий и инновационного дизайна.
+Особенности автошин Ландсейл Айс Стар айС33
+Принадлежит торговая марка китайской компании Sentury Tire, основанной в 1992 году. В основу своей деятельности она положила внимание к деталям и точное соответствие современным требованиям на дороге. Для решения этих заданий трудятся десятки исследователей в собственных лабораториях. Они улучшают дизайн протектора и состав резиновой смеси, совершенствуют внутренний каркас. При этом учитывается необходимость оставаться в бюджетном сегменте рынка. В итоге автовладельцы получают лучшие колеса по доступной цене.
+Одним из ключевых преимуществ
+шин Landsail
+Ice Star iS33 является их специальный рисунок протектора, разработанный для обеспечения отличного сцепления и управляемости на снегу и льду. У него есть такие особенности:
+Направленный V-образный рисунок. Он улучшает показатели динамичности автомобиля.
+Центральное ребро жесткости разделено продольным дренажным каналом. Так управляемость сочетается с отменным противостоянием аквапланированию.
+Рядом с центральной зоной расположились боковые ряды блоков, на который приходится основная нагрузка. Они разделены косыми прорезями, что увеличивает количество сцепных кромок.
+В плечевой зоне находятся продолговатые массивные блоки. Они повышают проходимость и предотвращают деформирование шин Landsail Ice Star iS33 во время выполнения маневров.
+Кроме центрального дренажного канала, на поверхности покрышки есть немало дополнительных прорезей, которые способствуют быстрой эвакуации жидкости из зоны контакта.
+За дополнительное сцепление отвечают ламели изогнутой формы. Они создают эффект липучки.
+Повышенной проходимости на льду способствуют шипы, которых не так и много в протекторе, но этого достаточно, чтобы не бояться гололеда.
+Это городские покрышки. Они хорошо ведут себя на улицах и загородных трассах. Могут справиться с неглубокими сугробами, но не поедут по сильному бездорожью, если там много снега.
+Состав резины и внутренняя структура
+Компаунд, использованный в шинах Landsail Ice Star iS33, специально разработан для работы в холодных климатических условиях. Он дает высокую степень гибкости и прекрасного сцепления при низких температурах. Это гарантирует, что автошины сохранят свои характеристики и производительность даже в самые суровые зимние дни.
+Прочная конструкция шин Landsail Ice Star iS33 гарантирует их долговечность и надежность в течение всего сезона. Они устойчивы к различным повреждениям и износу. Их можно эксплуатировать несколько зим без опасения потерять характеристики.
+Преимущества эксплуатации Ice Star iS33
+Шины Landsail Ice Star iS33 по результатам независимых испытания показали на 14% выше уровень акустического комфорта, что крайне неплохо для шипованных моделей. Они на 11% более маневренны и послушны, чем прямые аналоги. У этой авторезины
+тормозной путь короче на 5%
+на сухом асфальте и
+на 2% на мокром льду
+. При этом низкое сопротивление качению дает до 6% экономии топлива.
+Зимние шины Landsail Ice Star iS33 - это идеальное решение для автомобилистов, которые ищут надежные и производительные покрышки с высоким уровнем безопасности и комфорта. Их передовые технологии, специальный рисунок протектора, прочная конструкция и инновационная резиновая смесь делают достойным вариантом для езды в самые суровые зимние условия. А отменное качество, подтвержденное сертификатами, гарантирует, что на дороге непредвиденных ситуаций по их вине не будет.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/описание_шин.xlsx
+++ b/files/описание_шин.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3769,6 +3769,369 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Pirelli Winter Cinturato 2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Cinturato ™ Winter 2 - это новейший продукт линейки Cinturato ™, разработанный для современных седанов и внедорожников.СЦЕПЛЕНИЕОтличное сцепление на снегу в течение всего срока службы шины, благодаря адаптивной технологии 3D ламелей. В новой шине ламели линейные, но при износе они трансформируются, принимая зигзагообразную форму, которая обеспечивает постоянное сцепление с дорогой и ее способность удерживать снег на снежных поверхностях, гарантируя безопасность.ИЗНОСОУСТОЙЧИВОСТЬ
+Увеличение пробега* в совокупности с высокими показателями целевых характеристик на мокрой и снежной дороге.
+КОМФОРТ
+Удовольствие на зимней дороге с более тихой шиной благодаря значительному снижению производимого шума по сравнению с предыдущим продуктом.Читать полностью ИЗНОСОУСТОЙЧИВОСТЬ
+Увеличение пробега* в совокупности с высокими показателями целевых характеристик на мокрой и снежной дороге.
+КОМФОРТ
+Удовольствие на зимней дороге с более тихой шиной благодаря значительному снижению производимого шума по сравнению с предыдущим продуктом.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Описание Pirelli Winter Cinturato 2 Зимняя нешипованная шина Pirelli Winter Cinturato 2 подходит, как к легковым автомобилям, так и кроссоверам и внедорожникам. Рассчитана на использование на очищенных и заснеженных городских дорогах и скоростных автомагистралях. Характеризуется стабильными сцепными свойствами при любых режимах движения, длительным сроком службы и повышенным акустическим комфортом.Протекторный рисунок содержит большое количество V-образных дренажных канавок. Эти элементы расширяются по мере приближения к плечевым зонам, что повышает интенсивность отвода из-под пятна контакта воды и ее тяжеловесной смеси со снегом и дорожной грязью. Данная способность была заметно усилена использованием канавок в форме желоба. В то же время минимальная ширина дренажных элементов в центральной части увеличивает полезную площадь протектора и ограничивает подвижность блоков, что положительно сказывается на сцеплении и управляемости, особенно на большой скорости.В модели применяются обновленные 3D-ламели. В отличие от шины предыдущего поколения вертикальные стенки прорезей имеют «трехмерные» выступы увеличенной глубины. Это позволило отказаться от волнообразных кромок. В результате удалось добиться значительного повышения эффективности передачи тягового и тормозного усилия на любой скользкой поверхности. Также прямыми стали вертикальные стенки дренажных канавок в центральной части. Это тоже привело к улучшению управляемости на укатанном снегу.По сравнению с предыдущей моделью был существенно изменен состав резиновой смеси. В очередной раз повысилось содержание «силики», что привело к усилению способности шины цепляться за дорожную поверхность при низких температурах. Еще одним нововведением является появление полимеров, улучшающих стойкость протектора к абразивному истиранию, что автоматически привело к увеличению срока службы покрышки.Основные особенности Pirelli Winter Cinturato 2 - расширяющиеся дренажные канавки в форме желоба позволяют сохранить сцепление в самых сложных условиях;- плотное расположение протекторных элементов в центральной части улучшают управляемость на очищенном дорожном покрытии;- прямые кромки «трехмерных» ламелей позволяют эффективно реализовывать тяговое и тормозное усилие на любой скользкой поверхности.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Pirelli Cinturato Winter 2
+(Пирелли Цинтурато Винтер 2) - высококачественная
+зимняя шина
+, предназначенная для легковых транспортных средств, кроссоверов и других автомобилей премиум-класса. Выпущенная в 2021 году, автошина заменила первую версию, нацеленную на обеспечение высокого уровня безопасности и комфорта в холодное время года. Pirelli Cinturato Winter 2 предлагается в Европе и России, получила одобрение от BMW и Mercedes, что свидетельствует о соответствии высоким стандартам качества и производительности.
+Купить резину Пирелли Цинтурато Винтер 2
+Несмотря на то, что данная шина в первую очередь предназначена для легковых транспортных средств и кроссоверов, она подходит для различных видов транспортных средств, включая автомобили с двигателями внутреннего сгорания, гибриды и электромобили (есть маркировка
+ELECT
+).
+Особенности и преимущества резины:
+Прочное сцепление: благодаря инновационной адаптивной
+технологии 3D-ламелей
+шина поддерживает высокий уровень работы со снегом на протяжении всего срока службы. При износе ламели преобразуют свою форму с линейной на зигзагообразную, обеспечивая устойчивый зацеп.
+Обширный пробег: спроектированные для долговечной эксплутации, Cinturato Winter 2 гарантируют значительный пробег, сохраняя характеристики на мокрых и снежных дорогах.
+Уменьшенный шум: резина предоставляет улучшенное бесшумное зимнее вождение по сравнению с предшественницей, повышая комфорт для пассажиров.
+Безопасность: сертифицированная в известной немецкой экспертной организации TÜV,
+зимняя резина
+предоставляет уверенность и безопасность передвижения зимой в различных условиях.
+Технологичная база, использованная при разработке автошины Пирелли Цинтурато Винтер 2:
+Изменчивая форма канавок: более широкие боковые каналы и более узкие центральные канавки улучшают управляемость и снижают риск аквапланирования.
+Новые взаимосвязанные 3D-ламели: эти элементы укрепляют сцепление и улучшают торможение в различных условиях.
+Периодическая
+V-образная конструкция
+: такой дизайн обеспечивает улучшенные характеристики на снегу и снижает риск аквапланирования.
+Многоактивные 4D-ламели: ламели с прямыми краями улучшают управляемость на снежном полотне.
+Инновационный состав: резиновая смесь, содержащая инновационные полимеры и кремниевый наполнитель, повышает сцепление, долговечность и эффективность использования топлива.
+Основные выемки: дополнительные каналы для отвода воды помогают снизить риск аквапланирования.
+Cinturato Winter 2 от Pirelli
+представляет собой воплощение значительного прогресса в технологии разработки зимних автошин. Благодаря функциям, таким как адаптивные 3D-ламели и изменяемый профиль канавок, она обеспечивает надежность на снежном покрытии и мокрой автодороге. Увеличенный пробег и сниженный уровень шума делают ее отличным выбором для зимнего вождения. Независимо от того, у вас традиционное авто с бензиновым двигателем, гибрид или электромобиль, эта резина создана для обеспечения комфортного, безопасного и эффективного вождения зимой.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cinturato ™ Winter 2 - это новейший продукт линейки Cinturato ™ , разработанный для современных седанов и внедорожников. Основные преимущества: Отличное сцепление на снегу в течение всего срока службы шины, благодаря адаптивной технологии 3D ламелей. В новой шине ламели линейные, но при износе они трансформируются, принимая зигзагообразную форму, которая обеспечивает постоянное сцепление с дорогой и ее способность удерживать снег на снежных поверхностях, гарантируя безопасность. Увеличение пробега * в совокупности с высокими показателями целевых характеристик на мокрой и снежной дороге. Удовольствие на зимней дороге с более тихой шиной благодаря значительному снижению производимого шума по сравнению с предыдущим продуктом. Надежность и безопасность в зимних условиях гарантированы сертификатом TUV * по сравнению с Winter Sottozero ™ 3 ХАРАКТЕРИСТИКИ 1. Направленный V-образный рисунок протектора и системарасширяющихся каналов Улучшенные характеристики сцепления на снегу и сопротивления аквапланированию*. Более широкий канал в плечевой зоне для уменьшения аквапланирования, более узкий в центральной части для улучшения управляемости 2. Новые самоблокирующие 3D-Ламели с прямым дизайном Улучшенное * сцепление на снегу и значительное улучшение тормозных характеристик в любых условиях 3. Новый дизайн каналов Прямая кромка канала для улучшенной управляемости на снегу* 4. Инновационная резиновая смесь Увеличенный пробег, а также высокий уровень производительности на мокром и заснеженном покрытии ❮ ❯ ТЕСТЫ Новый продукт 2021. На данный момент в тестах не участвовал.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hifly HT601</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Автомобильная летняя шина HIFLY Vigorous HT601 выпускается для автомобилей внедорожного сегмента. Производитель из Китая использует только современные технологические решения и качественный композит,который обеспечивает долговечность автошины и ее низкий шум при работе. Оригинальный и сбалансированный узор протекторной части с центральным ободом в виде косых канавок на поверхности (для вывода водяной массы), гарантирует уверенность и курсовую устойчивость автомобиля, как на сухом дорожном полотне, так и в дождливую погоду, а также безопасное прохождение поворотов на скорости.Читать полностью который обеспечивает долговечность автошины и ее низкий шум при работе. Оригинальный и сбалансированный узор протекторной части с центральным ободом в виде косых канавок на поверхности (для вывода водяной массы), гарантирует уверенность и курсовую устойчивость автомобиля, как на сухом дорожном полотне, так и в дождливую погоду, а также безопасное прохождение поворотов на скорости.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Kapsen AW33</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Grenlander MAHO79</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Westlake SW612</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Шины нового поколенияWestLake SW612— это шины, производимые из инновационного состава резины, в которых входят всевозможные новые добавки. Это позволило улучшить ходовые характеристики, повысить износостойкость и усилить защиту от неравномерного истирания. Бесшумное и комфортное передвижение обеспечивается за счет тщательно продуманного протектора шин WestLake SW612. Особый рисунок и сложная структура протектора способствуют равномерному распределению давления.Читать полностью ить износостойкость и усилить защиту от неравномерного истирания. Бесшумное и комфортное передвижение обеспечивается за счет тщательно продуманного протектора шин WestLake SW612. Особый рисунок и сложная структура протектора способствуют равномерному распределению давления.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ilink Snowgripper 1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>iLINK SnowGripper I – зимняя шина для легковых автомобилей, эксплуатируемых в условиях города. Модель выделяется своей устойчивостью к заносам, прозрачностью управления на заснеженной дороге, а также стойкостью к скольжению.Рисунок протектора представлен классическим V-образным строением. Его центральную зону занимает широкая реберная структура, состоящая из отдельных блоков. Каждый из них покрыт сетью волнообразных ламелей. Такое конструктивное решение выполняет сразу несколько функций. Во-первых, поддержание сцепления на заснеженных и обледенелых участках дороги. Многочисленные кромки насечек эффективно фиксируют пятно контакта, гарантируя сохранность управления. Во-вторых, диагонально направленные канавки способствуют быстрому очищению протектора от воды, шуги и грязи.
+Наличие в составе резиновой смеси силики гарантирует поддержание свойств эластичности при отрицательных температур. А это является залогом поддержания прочного контакта с дорожным полотном.
+Основные особенности iLINK SnowGripper I
+- применимость на широком спектре легковых автомобилей, эксплуатируемых в зимний период;
+- развитая система ламелей и блоков гарантирует эффективность тяги, сцепления и торможения в любую погоду;
+- развитая система дренажа защищает от слэшинга и гидропланирования.Читать полностью Рисунок протектора представлен классическим V-образным строением. Его центральную зону занимает широкая реберная структура, состоящая из отдельных блоков. Каждый из них покрыт сетью волнообразных ламелей. Такое конструктивное решение выполняет сразу несколько функций. Во-первых, поддержание сцепления на заснеженных и обледенелых участках дороги. Многочисленные кромки насечек эффективно фиксируют пятно контакта, гарантируя сохранность управления. Во-вторых, диагонально направленные канавки способствуют быстрому очищению протектора от воды, шуги и грязи.
+Наличие в составе резиновой смеси силики гарантирует поддержание свойств эластичности при отрицательных температур. А это является залогом поддержания прочного контакта с дорожным полотном.
+Основные особенности iLINK SnowGripper I
+- применимость на широком спектре легковых автомобилей, эксплуатируемых в зимний период;
+- развитая система ламелей и блоков гарантирует эффективность тяги, сцепления и торможения в любую погоду;
+- развитая система дренажа защищает от слэшинга и гидропланирования.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Gislaved EURO*FROST 6</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Leao Winter Defender Ice I-15 SUV</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Описание не найдено для модели</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hifly HF805</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Качественные радиальные летние шины. Тип автомобиля, для которого предназначены покрышки: легковой. Изготавливаются на заводах Hifly с использованием электронного контроля качества готовой продукции.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Antares Ingens A1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Внешне выглядит весьма агрессивно и оправдывает надежды на уверенное движение на любом покрытии. Antares INGENS A1 обеспечивает отличную управляемость и комфорт. Шины неоднократно были испытаны на сухом и мокром асфальте. Результаты испытаний показали что шины обеспечивают уверенность при движении, так как обладают высокими сцепными свойствами и способностью адаптироваться к различным погодным условиям.Читать полностью ом и мокром асфальте. Результаты испытаний показали что шины обеспечивают уверенность при движении, так как обладают высокими сцепными свойствами и способностью адаптироваться к различным погодным условиям.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Описание Antares Ingens a1 Летняя шина Antares Ingens a1 представляет собой высокопроизводительную модель для большинства популярных сегодня легковых автомобилей и минивэнов. Характеризуется улучшенными сцепными свойствами на мокром покрытии, комфортностью управления на любой скорости, эффективностью торможения, увеличенной ходимостью.Протекторный рисунок выделяется широким сплошным ребром посередине с нанесенным на нем названием модели. Оно является индикатором, исчезновение которого указывает на необходимость замены шины. Что касается непосредственно продольного ребра, тот этот элемент повышает точность управления и курсовую стабильность на большой скорости. В таких условиях оно взаимодействует с широкими блоками по краям. Жесткие элементы существенно усиливают эти свойства добавляя к ним устойчивость в поворотах и замедление процесса абразивного истирания протектора.Основные особенности Antares Ingens a1 - протекторный рисунок с массивными жесткими элементами, оптимизированный профиль беговой части обеспечивают комфорт в управлении и устойчивость на любой скорости;- увеличенная ширина продольных канавок, многочисленные ламели сохраняют высокими тягово-сцепные свойства на мокром покрытии;- оптимизированный компаунд устойчив к проколам и истиранию, уменьшает сопротивление качению, снижая расход топлива* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Antares Ingens A1 – автошины, которыми гордится
+производитель
+, за превосходные эксплуатационные качества и доступную стоимость. Используется резина для мощных легковых скоростных автомобилей среднего класса. Благодаря набору своих качеств и довольно приемлемой стоимости, этот вид шины не уступает более дорогим вариантам на авторынке. Она производится в большом количестве типоразмеров. Это позволяет подобрать необходимый вариант резины для своего автомобиля.
+Если осмотреть шины Antares Ingens A1, то первое что бросается в глаза – это симметричный характер протекторного рисунка. Он имеет направленную структуру, что характерно для летней автошины. Сам протектор включает в себя 5 продольных ребер и 2 плечевые части.
+Асимметричность строения узора, на протекторе
+шины Antares Ingens A1
+, гарантирует достойные сцепные функции с любым дорожным покрытием. Различаются две части рисунка, каждая из которых отвечает за определенную функцию. Первая – обеспечивает надежность и повышенную управляемость транспортным средством при прохождении маневров. Вторая - позволяет максимально удерживать автомобиль при прямолинейной езде. Это обеспечивает повышенную устойчивость на любой скорости. Автолюбители отмечают, что машина «обутая» в данную резину, быстро и точно отвечает на рулевые команды, обладает хорошей курсовой устойчивостью.
+Плечевые зоны автошины имеют блочную структуру. Они обладают усиленной конструкцией и обеспечивают спортивную точность управления.
+Еще одна отличительная положительная характеристика шины Antares Ingens A1 – это основные дренажные элементы:
+четыре продольные и две более глубокие канавки;
+каналы в плечевой зоне шины.
+Особая дренажная система обеспечила
+автошинам Antares Ingens A1
+хорошую стойкость к гидропланированию даже при скоростной езде. Водоотводные элементы выводят влагу из места контакта в момент виража на повороте. Грамотное расположение основных элементов водоотвода максимально помогает снизить до минимума эффект скольжения в воде и обеспечило повышенную управляемость.
+Резина Antares Ingens A1
+отвечают всем всемирным стандартам безопасности на любых скоростях и погодных условиях.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>СТРАСТЬ И ЗАХВАТЫВАЮЩАЯ ДУХ СКОРОСТЬ Обладая динамичным спортивным дизайном INGENS A1 сочетает превосходную управляемость и комфорт. Благодаря улучшениям, проверенным в многочисленных испытаниях, шина обеспечивает превосходное сцепление и отличную адаптивность независимо от того, едет ли она по мокрой или сухой дороге. Её преимущества в управлении гарантируют безграничное удовольствие от вождения. Направленный рисунок протектора Оптимизированный направленный дизайн рисунка, отличается красотой и благородством, которые достигаются без потери эксплуатационных характеристик! Монолитное центральное ребро повышает курсовую устойчивость и ориентацию на высокой скорости. Четыре широкие продольные канавки Четыре продольные канавки на протекторе отличаются увеличенной шириной, благодаря чему улучшают противоскользящие свойства шины. При движении по скользкому дорожному покрытию они повышают способность шины к водоотведению, благодаря чему она прочно удерживается на дороге. Переменный шаг расположения блоков Расположение блоков протектора с разным шагом чередования обеспечивает бесшумность езды, даря по-настоящему спокойное и комфортное вождение. Защита обода Особый дизайн кромки шины «RIM Protector» служит для защиты обода, позволяя избежать повреждений при плохих дорожных условиях. Обзор Antares Ingens A1 на канале Шинный Эксперт: смотреть</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Bridgestone Ecopia EP850</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Летняя легковая шинаBridgestone Ecopia EP850является результатом стремления японского производителя расширить сферу применения линейки энергоэффективных моделей на сегмент автомобилей категории SUV. Иначе говоря, данная модель предназначена, прежде всего, для автомобилей повышенной проходимости – внедорожников и кроссоверов. Основными достоинствами новинки японской шинной индустрии является сниженное сопротивление качения и увеличенный срок службы шины, чего удалось достичь без ущерба безопасности.Новая модель получила протектор с асимметричным рисунком, строение которого не предполагает каких-либо выездов за пределы асфальтированных дорог. Протектор шины Bridgestone Ecopia EP850 состоит из пяти продольных ребер, включая обе плечевые зоны. Рисунок протектора состоит из двух частей – внутренней и внешней, разделенных между собой центральным продольным ребром. Две половинки этого элемента протектора разделены рядом четырехугольных блоков. Благодаря такому оригинальному решению, удалось обеспечить прекрасную курсовую устойчивость, а также высокую эффективность разгона, особенно на скользком покрытии. Кроме того, блоки, расположенные в центральной части протектора направлены под острым углом относительно направления движения, что также улучшает тягово-сцепные показатели шины.
+Плечевые зоны протекторы отличаются усиленной конструкцией с высокой степенью жесткости. Жесткие плечевые зоны в сочетании с их малорадиусным профилем обеспечивают максимально большую площадь пятна контакта, а также его идеально прямоугольную форму, которая оптимальным образом распределяет давление. В результате удалось добиться не только прекрасного сцепления с дорожным полотном, но и повысить стойкость протектора к неравномерному износу, что увеличило срок службы шины.
+Основные особенности летней шины Bridgestone Ecopia EP850:
+— Ассиметричный направленный рисунок протектора обеспечивает не только превосходное сцепление в любых условиях, но и исключительно низкое сопротивление качения;
+— Резиновая смесь, состав которой отличается наличием силики и специальных полимеров в верхнем слое протектора, которые за счет снижения внутреннего трения в материале уменьшают нагрев шины и сопротивление качения;
+— Большое количество блоков в центральной части протектора, расположенных под острым углом по направлению движения позволили добиться отличных тягово-сцепных показателей;
+— Жесткая конструкция плечевых зон, за счет чего повысилась стойкость протектора к неравномерному износу, а также улучшились характеристики управляемости.Читать полностью Новая модель получила протектор с асимметричным рисунком, строение которого не предполагает каких-либо выездов за пределы асфальтированных дорог. Протектор шины Bridgestone Ecopia EP850 состоит из пяти продольных ребер, включая обе плечевые зоны. Рисунок протектора состоит из двух частей – внутренней и внешней, разделенных между собой центральным продольным ребром. Две половинки этого элемента протектора разделены рядом четырехугольных блоков. Благодаря такому оригинальному решению, удалось обеспечить прекрасную курсовую устойчивость, а также высокую эффективность разгона, особенно на скользком покрытии. Кроме того, блоки, расположенные в центральной части протектора направлены под острым углом относительно направления движения, что также улучшает тягово-сцепные показатели шины.
+Плечевые зоны протекторы отличаются усиленной конструкцией с высокой степенью жесткости. Жесткие плечевые зоны в сочетании с их малорадиусным профилем обеспечивают максимально большую площадь пятна контакта, а также его идеально прямоугольную форму, которая оптимальным образом распределяет давление. В результате удалось добиться не только прекрасного сцепления с дорожным полотном, но и повысить стойкость протектора к неравномерному износу, что увеличило срок службы шины.
+Основные особенности летней шины Bridgestone Ecopia EP850:
+— Ассиметричный направленный рисунок протектора обеспечивает не только превосходное сцепление в любых условиях, но и исключительно низкое сопротивление качения;
+— Резиновая смесь, состав которой отличается наличием силики и специальных полимеров в верхнем слое протектора, которые за счет снижения внутреннего трения в материале уменьшают нагрев шины и сопротивление качения;
+— Большое количество блоков в центральной части протектора, расположенных под острым углом по направлению движения позволили добиться отличных тягово-сцепных показателей;
+— Жесткая конструкция плечевых зон, за счет чего повысилась стойкость протектора к неравномерному износу, а также улучшились характеристики управляемости.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Описание Bridgestone Ecopia EP850 Летняя легковая шина Bridgestone Ecopia EP850 является результатом стремления японского производителя расширить сферу применения линейки энергоэффективных моделей на сегмент автомобилей категории SUV. Иначе говоря, данная модель предназначена, прежде всего, для автомобилей повышенной проходимости – внедорожников и кроссоверов. Основными достоинствами новинки японской шинной индустрии является сниженное сопротивление качения и увеличенный срок службы шины, чего удалось достичь без ущерба безопасности.Новая модель получила протектор с асимметричным рисунком, строение которого не предполагает каких-либо выездов за пределы асфальтированных дорог. Протектор шиныBridgestone Ecopia EP850 состоит из пяти продольных ребер, включая обе плечевые зоны. Рисунок протектора состоит из двух частей – внутренней и внешней, разделенных между собой центральным продольным ребром. Две половинки этого элемента протектора разделены рядом четырехугольных блоков. Благодаря такому оригинальному решению, удалось обеспечить прекрасную курсовую устойчивость, а также высокую эффективность разгона, особенно на скользком покрытии. Кроме того, блоки, расположенные в центральной части протектора направлены под острым углом относительно направления движения, что также улучшает тягово-сцепные показатели шины.Плечевые зоны протекторы отличаются усиленной конструкцией с высокой степенью жесткости. Жесткие плечевые зоны в сочетании с их малорадиусным профилем обеспечивают максимально большую площадь пятна контакта, а также его идеально прямоугольную форму, которая оптимальным образом распределяет давление. В результате удалось добиться не только прекрасного сцепления с дорожным полотном, но и повысить стойкость протектора к неравномерному износу, что увеличило срок службы шины.Основные особенности летней шины Bridgestone Ecopia EP850 - Ассиметричный направленный рисунок протектора обеспечивает не только превосходное сцепление в любых условиях, но и исключительно низкое сопротивление качения;- Резиновая смесь, состав которой отличается наличием силики и специальных полимеров в верхнем слое протектора, которые за счет снижения внутреннего трения в материале уменьшают нагрев шины и сопротивление качения;- Большое количество блоков в центральной части протектора, расположенных под острым углом по направлению движения позволили добиться отличных тягово-сцепных показателей;- Жесткая конструкция плечевых зон, за счет чего повысилась стойкость протектора к неравномерному износу, а также улучшились характеристики управляемости.* Внимание: летние шины не российского происхождения могут быть промаркированы обозначением M+S</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Бриджстоун Экопия ЕП 850 - высококачественная автомобильная шина для передвижения в летнюю пору от известного японского производителя. Эта летняя резина предназначена для эксплуатации на автомобилях с повышенной проходимостью, это могут быть джипы, кроссоверы и внедорожники. Основными положительными качествами автошины являются:
+экономичность,за счет низкого сопротивления при качении
+высокая стойкость к повреждениям и наездам на выбоины и ямы
+длительный срок эксплуатации
+повышенная безопасность и комфорт при передвижении
+Наличие перечисленных достоинств у автошины
+Бриджстоун Экопия ЕП 850
+обусловлено чередой улучшений. К примеру, необходимо обратить внимание на асимметричное изображение протектора на поверхности шины. Направленный рисунок способствует увеличению сцепных качеств шины. Не в зависимости от того сухая дорога или мокрая данная модель резины без затруднений пройдет по ней. Также стоит отметить стойкость шины Bridgestone Ecopia EP850 к уходу в занос на заснеженной или обледеневшей дороге. Важной особенностью автошины данной модели является минимальное сопротивление при качении, которое позволяет экономить на топливе.
+В состав резиновой смеси для производства шины Bridgestone Ecopia EP850 производитель добавил силику и уникальные полимеры, в следствии чего резина имеет множество положительных качеств, которые делают ее лучшей в своем роде. Наличие этих компонентов в резине делают ее более прочной и долговечной, так как сам материал стойкий к трению и наездам на дефекты в дорожном покрытии.
+Несомненным достоинством автошины Бриджстоун Экопия ЕП 850 можно считать ее протектор. Благодаря размещению огромного количества блоков в центральной области автошины, она имеет безупречные тягово-сцепные свойства. Благодаря острому углу, под которым размещены блоки, шина прекрасно выполняет команды водителя на поверхности любого состояния.
+Нельзя не отметить повышенную жесткость и прочность плечевых зон автошины
+Bridgestone Ecopia EP850
+. Данное свойство резины продлевает ее срок эксплуатации и делает резину данной модели идеальной для прохождения отечественных дорог.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ЭКОШИНА С ВЫСОКОЙ ТОПЛИВНОЙ ЭФФЕКТИВНОСТЬЮ ДЛЯ КРОССОВЕРОВ И ВНЕДОРОЖНИКОВ Первая энергоэффективная летняя шина экологической линейки Ecopia, разработанная специально для внедорожников и кроссоверов и пришедшая на смену Dueler H/L 683. Модель EP850 сочетает отличную управляемость, комфорт и низкий уровень шума с экономией топлива*. * Данные основаны на полигонных и лабораторных тестах JATA**, модель Ecopia EP850, экономия топлива 3,9 % размер: 265/65 R17, автомобиль: TOYOTA Hilux Surf. Результат может зависеть от условий вождения. Расчет в км/л. **JATA: Japan Automobile transport Technology Association (Ассоциация автомобильного транспорта Японии) ПРЕИМУЩЕСТВА ECOPIA EP850 ЭКОНОМИЯ ТОПЛИВА Повышенная жесткость блоков протектора прежде всего в продольном направлении, инновационная резиновая смесь и облегченная конструкция обеспечивают Ecopia EP850 низкое сопротивление качению, что в свою очередь обеспечивает экономию топлива на 3,9 процента*, а также снижение выбросов CO 2 . * Данные основаны на полигонных и лабораторных тестах JATA**, модель Ecopia EP850, экономия топлива 3,9 % размер: 265/65 R17, автомобиль: TOYOTA Hilux Surf. Результат может зависеть от условий вождения. Расчет в км/л. **JATA: Japan Automobile transport Technology Association (Ассоциация автомобильного транспорта Японии) УЛУЧШЕННОЕ ТОРМОЖЕНИЕ НА МОКРОЙ ДОРОГЕ Уникальный рисунок протектора, смоделированного с применением специального оборудования, отличается большим количеством поперечных канавок, обеспечивающих отличные аквадренажные свойства для повышения эффективности торможения на мокрой дороге. Благодаря характерным для шин Ecopia остронаправленным блокам тормозной путь EP850 короче, чем у обычных шин, на 4,1 процента. ПОВЫШЕННАЯ ИЗНОСОСТОЙКОСТЬ Жесткие плечевые зоны протектора и оптимальная площадь пятна контакта повышают износостойкость протектора, продлевая срок службы шины, а сочетание коротких и длинных канавок снижает уровень шума. Bridgestone Ecopia EP850 станет прекрасным выбором для тех, кто ценит экономичную езду и комфортное вождение.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Tigar SUV Winter</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Описание Tigar SUV Winter Зимняя шина для внедорожников и кроссоверов Tigar SUV Winter появилась в ассортименте сербского бренда совсем недавно. Как и предыдущие модели, она характеризуется высокими для своего ценового сегмента эксплуатационными свойствами. Это было достигнуто применением современных материалов и технических решений, а также тем, что разработкой занимались специалисты компании Michelin.Надежное сцепление без шиповШина оснащена протектором без шипов. Их отсутствие компенсируется несколькими конструктивными особенностями. Большая часть сцепных свойств на скользком покрытии обеспечивается ламелями. Узкие прорези располагаются на расстоянии нескольких миллиметров друг от друга, что позволило увеличить численность граней, которыми шина может зацепиться за дорожное покрытие до нескольких тысяч. Помимо количества эффективность работы ламелей существенно увеличена расположением под наклоном, а также их формой. В плечевых зонах они выполнены волнообразными, а в центральной части – имеют остроугольные изгибы.Еще одним фактором, усиливающим сцепление на зимнем покрытии, является резиновая смесь, которая применяется при изготовлении шины. Более чем, на две трети она состоит из силики. Этот компонент придает шине эластичность при температуре окружающей среды, ниже 0 градусов по Цельсию. Данная особенность позволяет протектору более плотно прилегать к дорожному полотну, обеспечивая лучшее сцепление с ним.Надежность на плохих дорогахДанная модель характеризуется и надежностью и мягким комфортным ходом. Это обусловлено тем, что ее изначально разрабатывали для внедорожников и кроссоверов. Именно по этой причине здесь нет усиленных боковин, как у аналогов от многих других брендов, предпочитающих приспособить уже имеющуюся «легковую» шину. Вместо этого разработчики предпочли создать покрышку с «нуля», включая каркас. Он выполнен двойным. Дополнительный корд обеспечивает покрышке не только увеличенную несущую способность, но и высокую устойчивость к ударным воздействиям.Основные особенности шины Tigar SUV Winter - устойчивость на большой скорости, благодаря широким продольно расположенным протекторным блокам;- высокая плотность ламелизации улучшает сцепные свойства на скользком покрытии;- двойной каркас гарантирует надежность на плохих дорогах</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Шины Tigar Cargo Speed Winter
+предназначены для уверенного, быстрого и комфортного передвижения в любу зимнюю погод. Представленная резина имеет высокий индекс нагрузки и отлично проявляет себя как при движении по сухому, так и по мокрому покрытию дороги. Уникальный протекторный рисунок шины и особый состав резиновой смеси, делает представленную резину лучшей для езды на микроавтобусах и легкогрузовых автомобилях. Передвижение в
+резине Tigar
+гарантирует высокий уровень комфорта и уверенности на покрытии любого состояния и качества.
+Производитель шины Тигар Сарго Спеед Винтер нанес на протектор данной резины уникальный направленный рисунок. Это обеспечивает отличное сцепление резины с дорожной поверхностью, любого качества и состояния зимой. Протектор автошины Тигар Сарго Спеед Винтер разделен на отдельные массивные элементы, множеством канавок и каналов. Массивные блоки шины, размещенные на расстоянии друг от друга, позволяют автошинам иметь безупречное сцепление при езде по снегу и слякоти. Блоки автошины врезаются в снег гарантируя высокую курсовую устойчивость автомобилю. Высокий уровень безопасности и комфорта обеспечен
+резине Tigar Cargo Speed Winter
+при прямолинейном движении, благодаря размещению уникальных шашек в центре протектора. Представленная особенность строения, также позволяет боле уверенно и безопасно ездить шинам по укатанному снегу и льду.
+Наличие массивных ребер на протекторе автошины Тигар Сарго Спеед Винтер гарантирует уверенное прохождение крутых поворотов, и маневрирование в неблагоприятных погодных условиях. Размещение зигзагообразных ламелей на поверхности резины обеспечивает образование дополнительных кромок сцепления. Как результат езда по льду и снегу в шинах становится уверенной и безопасной.
+Автошины Tigar Cargo Speed Winter
+прекрасно подстраиваются под смену климатических условий. На них безопасно ездить как в мороз, так и в период оттепели. Оптимальный состав резиновой смеси, с добавлением уникальных компонентов делает автошины эластичными и достаточно мягкими, при езде в минусовую температуру.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Зимняя нешипованная шина Tigar SUV Winter предназначена для кроссоверов и внедорожников передвигающихся, преимущественно, по городским очищенным дорогам. В автошине Tigar SUV Winter использованы современные технологии и компоненты. Модель SUV Winter имеет ряд неоспоримых преимуществ, среди которых: надежное сцепление и проходимость на снегу и эффективная работа на асфальте. Направленное строение протектора, с блоками разной геометрической формы, обладает эффективными характеристиками на снегу, льду и сухой дороге. Блоки центральной части протектора, объединенные в продольное ребро, гарантируют хорошую курсовую устойчивость и точные отклики на руль при высокоскоростном движении. Массивные блоки плечевых зон протектора улучшают характеристики шины на снегу. Большое количество разнонаправленных дренажных каналов, оперативно отводящих воду и снежную кашу из пятна контакта, предотвращают аквапланирование. Новое строение ламелей наделяет протектор дополнительными сцепными гранями на сложных участках зимних дорог.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Delinte Winter WD6</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Шины производятся по современным технологиям из качественного каучука. Электронный контроль гарантирует стабильность качества готовой продукции. Разработанный рисунок протектора обеспечивает надежныйконтакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.Читать полностью контакт шины с дорожным покрытием и оптимальное поведение автомобиля на дороге.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Описание Delinte WD6Зимняя шина Delinte WD6 устанавливается в компактных легковых автомобилях. Адаптирована к эксплуатации в городских условиях. Отличается эффективностью на дорожном покрытии с любыми характеристиками сцепления, сниженным расходом топлива и длительным сроком службы.Беговая часть протектора отличается направленным расположением элементов. В центральной части это мелкие блоки. Их расположение в шахматном порядке увеличивает размеры пятна контакта и обеспечивает равномерность распределения нагрузки по дорожной поверхности. Образуемые этими блоками поперечные кромки имеют наклон, увеличивающий их протяженность. В результате повышается тяговое усилие и эффективность торможения на снегу. На обледенелом покрытии эти качества существенно улучшаются многочисленными синусообразными ламелями.Основные особенности:- дизайн центральной части с мелкими блоками повышает тяговое усилие и эффективность торможения на снегу, увеличивает пятно контакта;- несколько тысяч синусообразных ламелей обеспечивают эффективность на льду;- увеличенная ширина дренажных канавок в плечевых зонах снижает риск аквапланирования и слэшпленнинга.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Шины Delinte Winter WD6
+(Делинте Винтер ВД6) - это высокотехнологичное зимнее решение, разработанное для обеспечения безопасности, комфорта и отличной производительности в условиях морозов и снегопадов. Они предназначены для автомобилей различных классов и типов, идеально подходящих для езды на снегу, льду и мокрой дороге, характерных для центральной полосы Европы.
+Подбор шин Делинте Винтер ВД6
+Производятся покрышки в Китае, что объясняет их низкую стоимость и отменное качество. Каждый элемент служит решению задач, возникающих на зимних дорогах. Благодаря этой модели водители могут не бояться покидать гаражи и парковки, как только на улице будут не совсем благоприятные погодные условия.
+Шины Delinte Winter WD6 имеют специальный зимний рисунок протектора с углубленными канавками и ламелями, обеспечивающими стабильное сцепление со снежными и ледяными дорожными покрытиями. Это фрикционные покрышки, которые отлично работают без применения шипов в конструкции. Вот основные особенности протектора данной модели:
+Направленный рисунок контактной зоны, напоминающий елочку. Он хорошо подходит для езды по городским улицам и загородным трассам по снегу и льду.
+Центральная зона состоит из блоков сложной формы. Они создают множество сцепных кромок и на 6% улучшают маневренность транспортного средства.
+Площадь контактного пятна увеличена за счет плечевых зон. Они немного расширены и имеют практически прямоугольный профиль. Это дает более надежное сцепление с дорожным полотном, которое зимой далеко от идеального состояния.
+Плечевины оборудованы более глубокими и широким канавками. Их края имеют улучшенный срез. Это позволяет буквально вгрызаться в снежные заносы, при этом канавки эффективно очищаются от снежной каши.
+За эффект липучки на гололеде отвечают трехмерные разнонаправленные ламели. Они показывают покрышку к поверхности, но не противостоят качению. В итоге водитель получает на 6% короче тормозной путь, по сравнению с предыдущей моделью этого производителя.
+Все в комплексе помогает автомобилю уверенно двигаться и останавливаться на заснеженных и скользких дорогах.
+Преимущества конструкции
+Благодаря передовой конструкции и инновационным технологиям, шины Delinte Winter WD6 обеспечивают отличную управляемость и стабильность зимой. В состав компаунда входят микрочастицы, которые помогают сокращать тормозной путь. Поэтому транспортное средство может легко оставаться на курсе даже при поворотах и маневрировании.
+Глубокие продольные и поперечные канавки на шинах Delinte Winter WD6 эффективно отводят воду и снег с контактного пятна, предотвращая аквапланирование и обеспечивая надежное сцепление с мокрым покрытием. С этими автопокрышками не страшны оттепель, дождь и участки со снежной кашей.
+Специальные конструктивные особенности шин Delinte Winter WD6 помогают снизить шум и вибрацию. За это отвечают жесткие боковины и специальный шумоизоляционный слой. А также отсутствие шипов и оптимизированные срезы блоков. От этого любая поездка становится более комфортной и плавной.
+Высококачественные материалы и тщательное производство делают шины Delinte Winter WD6 долговечными и стойкими к износу. Они сохраняют свои характеристики на протяжении всего срока службы и могут эксплуатироваться на 19% дольше своих аналогов. Это гарантирует безопасность и надежность на дороге в течение всего сезона. А низкое сопротивление качению дает существенную экономию топлива.
+Особенности эксплуатации
+Шины Delinte Winter WD6 - это прекрасный вариант для тех, кто ценит безопасность, комфорт и производительность в зимние месяцы. Они обеспечивают высокую степень защиты и контроля в сложную погоду, позволяя уверенно покидать гараж и не ждать прихода весны.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Модель не найдена</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
